--- a/reference/KR15/KR15_data_comparison.xlsx
+++ b/reference/KR15/KR15_data_comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\MMB_forecast_application\reference\KR15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1FCAEC-F172-412C-88B3-A7BCF75E92F0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1563E3-A87E-401F-A5B0-5157829E4552}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1335" windowWidth="27900" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="990" windowWidth="27900" windowHeight="14760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>dlnY</t>
   </si>
@@ -604,6 +604,15 @@
   </si>
   <si>
     <t>hours_kr15_obs</t>
+  </si>
+  <si>
+    <t>mortffr_obs</t>
+  </si>
+  <si>
+    <t>mortgage_nom_obs</t>
+  </si>
+  <si>
+    <t>mortffr_obs*4</t>
   </si>
 </sst>
 </file>
@@ -632,7 +641,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +714,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -718,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -743,6 +764,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,6 +778,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF6699"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -1028,10 +1058,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE165"/>
+  <dimension ref="A1:AH165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,6 +1077,8 @@
     <col min="10" max="10" width="9.140625" style="10"/>
     <col min="11" max="11" width="9.140625" style="8"/>
     <col min="12" max="12" width="9.140625" style="7"/>
+    <col min="13" max="13" width="9.140625" style="28"/>
+    <col min="14" max="14" width="9.140625" style="26"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="2"/>
     <col min="19" max="19" width="9.140625" style="3"/>
@@ -1054,15 +1086,17 @@
     <col min="21" max="21" width="9.140625" style="5"/>
     <col min="22" max="22" width="9.140625" style="6"/>
     <col min="23" max="23" width="9.140625" style="7"/>
-    <col min="24" max="24" width="9.140625" style="8"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
-    <col min="27" max="27" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="12"/>
-    <col min="31" max="31" width="9.140625" style="9"/>
+    <col min="24" max="25" width="9.140625" style="8"/>
+    <col min="26" max="26" width="9.140625" style="28"/>
+    <col min="28" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="9.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="0" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.140625" style="12"/>
+    <col min="32" max="32" width="9.140625" style="26"/>
+    <col min="34" max="34" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1096,10 +1130,10 @@
       <c r="L1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="27" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="22" t="s">
@@ -1129,23 +1163,32 @@
       <c r="X1" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="Z1" s="19" t="s">
+      <c r="Y1" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z1" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AC1" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AE1" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AF1" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="AH1" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1182,10 +1225,10 @@
       <c r="L2" s="7">
         <v>-1.9224138843652483</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="28">
         <v>0.29987959880086734</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="26">
         <v>-0.20802083333333243</v>
       </c>
       <c r="O2">
@@ -1215,25 +1258,33 @@
       <c r="X2" s="8">
         <v>0.46360769174786498</v>
       </c>
-      <c r="Z2" s="1">
-        <f>Q2*4</f>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="28">
+        <v>-1.035568257852806</v>
+      </c>
+      <c r="AB2" s="1">
+        <f t="shared" ref="AB2:AB33" si="0">Q2*4</f>
         <v>8.5588888888888874</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AC2" s="10">
         <v>2.6789486175538459</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>-0.42884615384615371</v>
       </c>
-      <c r="AC2" s="12">
-        <f>AB2*4</f>
+      <c r="AE2" s="12">
+        <f>AD2*4</f>
         <v>-1.7153846153846148</v>
       </c>
-      <c r="AE2" s="9">
+      <c r="AF2" s="26">
+        <f>Y2*4</f>
+        <v>0</v>
+      </c>
+      <c r="AH2" s="9">
         <v>665.31125813355732</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1270,10 +1321,10 @@
       <c r="L3" s="7">
         <v>-5.1571783409364969</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="28">
         <v>0.66994975352743236</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="26">
         <v>0.54718749999998995</v>
       </c>
       <c r="O3">
@@ -1303,25 +1354,33 @@
       <c r="X3" s="8">
         <v>1.195416534271839</v>
       </c>
-      <c r="Z3" s="1">
-        <f>Q3*4</f>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="28">
+        <v>1.0319785602844509</v>
+      </c>
+      <c r="AB3" s="1">
+        <f t="shared" si="0"/>
         <v>7.8832967032967041</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AC3" s="10">
         <v>3.584503071132993</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>-0.21244810744810749</v>
       </c>
-      <c r="AC3" s="12">
-        <f t="shared" ref="AC3:AC66" si="0">AB3*4</f>
+      <c r="AE3" s="12">
+        <f t="shared" ref="AE3:AE66" si="1">AD3*4</f>
         <v>-0.84979242979242997</v>
       </c>
-      <c r="AE3" s="9">
+      <c r="AF3" s="26">
+        <f t="shared" ref="AF3:AF66" si="2">Y3*4</f>
+        <v>0</v>
+      </c>
+      <c r="AH3" s="9">
         <v>663.88565171951609</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1358,10 +1417,10 @@
       <c r="L4" s="7">
         <v>1.1531813682825742</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="28">
         <v>0.82250715628382487</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="26">
         <v>1.7076041666666573</v>
       </c>
       <c r="O4">
@@ -1391,25 +1450,33 @@
       <c r="X4" s="8">
         <v>1.090919910035353</v>
       </c>
-      <c r="Z4" s="1">
-        <f>Q4*4</f>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="28">
+        <v>1.3088398534224801</v>
+      </c>
+      <c r="AB4" s="1">
+        <f t="shared" si="0"/>
         <v>6.7110869565217364</v>
       </c>
-      <c r="AA4" s="10">
+      <c r="AC4" s="10">
         <v>2.0656893880487961</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>0.19502740616871139</v>
       </c>
-      <c r="AC4" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE4" s="12">
+        <f t="shared" si="1"/>
         <v>0.78010962467484557</v>
       </c>
-      <c r="AE4" s="9">
+      <c r="AF4" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="9">
         <v>662.81844983772498</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1446,10 +1513,10 @@
       <c r="L5" s="7">
         <v>8.9241366276306522</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="28">
         <v>0.75227254849011826</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="26">
         <v>2.7498958333333219</v>
       </c>
       <c r="O5">
@@ -1479,25 +1546,33 @@
       <c r="X5" s="8">
         <v>-2.4715216824145338</v>
       </c>
-      <c r="Z5" s="1">
-        <f>Q5*4</f>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="28">
+        <v>1.2884326509839581</v>
+      </c>
+      <c r="AB5" s="1">
+        <f t="shared" si="0"/>
         <v>5.5682608695652158</v>
       </c>
-      <c r="AA5" s="10">
+      <c r="AC5" s="10">
         <v>2.19885867005318</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>0.45169546636937968</v>
       </c>
-      <c r="AC5" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE5" s="12">
+        <f t="shared" si="1"/>
         <v>1.8067818654775187</v>
       </c>
-      <c r="AE5" s="9">
+      <c r="AF5" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="9">
         <v>662.18034190286551</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1534,10 +1609,10 @@
       <c r="L6" s="7">
         <v>5.6367231547365115</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="28">
         <v>0.84139334622481687</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="26">
         <v>4.0092708333333338</v>
       </c>
       <c r="O6">
@@ -1567,25 +1642,33 @@
       <c r="X6" s="8">
         <v>2.290526157890588</v>
       </c>
-      <c r="Z6" s="1">
-        <f>Q6*4</f>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="28">
+        <v>1.2444110669660859</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="0"/>
         <v>3.8627777777777763</v>
       </c>
-      <c r="AA6" s="10">
+      <c r="AC6" s="10">
         <v>2.0419427558319381</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>0.69460470085470127</v>
       </c>
-      <c r="AC6" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE6" s="12">
+        <f t="shared" si="1"/>
         <v>2.7784188034188051</v>
       </c>
-      <c r="AE6" s="9">
+      <c r="AF6" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="9">
         <v>661.73793797234441</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1622,10 +1705,10 @@
       <c r="L7" s="7">
         <v>9.7701492434352666</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="28">
         <v>1.7204081461335119</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="26">
         <v>3.1632291666666665</v>
       </c>
       <c r="O7">
@@ -1655,25 +1738,33 @@
       <c r="X7" s="8">
         <v>2.6811257450656769</v>
       </c>
-      <c r="Z7" s="1">
-        <f>Q7*4</f>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="28">
+        <v>1.97701141080149</v>
+      </c>
+      <c r="AB7" s="1">
+        <f t="shared" si="0"/>
         <v>4.567252747252744</v>
       </c>
-      <c r="AA7" s="10">
+      <c r="AC7" s="10">
         <v>3.215483437095608</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>0.5263705738705744</v>
       </c>
-      <c r="AC7" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE7" s="12">
+        <f t="shared" si="1"/>
         <v>2.1054822954822976</v>
       </c>
-      <c r="AE7" s="9">
+      <c r="AF7" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH7" s="9">
         <v>661.44144493159888</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1710,10 +1801,10 @@
       <c r="L8" s="7">
         <v>5.0011244348531214</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="28">
         <v>2.116797519345115</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="26">
         <v>2.1469791666666671</v>
       </c>
       <c r="O8">
@@ -1743,25 +1834,33 @@
       <c r="X8" s="8">
         <v>1.2270092591814179</v>
       </c>
-      <c r="Z8" s="1">
-        <f>Q8*4</f>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="28">
+        <v>2.5018027228477449</v>
+      </c>
+      <c r="AB8" s="1">
+        <f t="shared" si="0"/>
         <v>5.4755434782608683</v>
       </c>
-      <c r="AA8" s="10">
+      <c r="AC8" s="10">
         <v>2.1881764538103581</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>0.33122096804162049</v>
       </c>
-      <c r="AC8" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE8" s="12">
+        <f t="shared" si="1"/>
         <v>1.324883872166482</v>
       </c>
-      <c r="AE8" s="9">
+      <c r="AF8" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="9">
         <v>661.40982161490581</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1798,10 +1897,10 @@
       <c r="L9" s="7">
         <v>3.9800921647507259</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="28">
         <v>1.676228682876002</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="26">
         <v>2.7971874999999997</v>
       </c>
       <c r="O9">
@@ -1831,25 +1930,33 @@
       <c r="X9" s="8">
         <v>2.7493140580198712</v>
       </c>
-      <c r="Z9" s="1">
-        <f>Q9*4</f>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="28">
+        <v>2.17605868045466</v>
+      </c>
+      <c r="AB9" s="1">
+        <f t="shared" si="0"/>
         <v>4.7476086956521719</v>
       </c>
-      <c r="AA9" s="10">
+      <c r="AC9" s="10">
         <v>2.132089506832108</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>0.43935850984764069</v>
       </c>
-      <c r="AC9" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE9" s="12">
+        <f t="shared" si="1"/>
         <v>1.7574340393905628</v>
       </c>
-      <c r="AE9" s="9">
+      <c r="AF9" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="9">
         <v>662.10060742948326</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1886,10 +1993,10 @@
       <c r="L10" s="7">
         <v>5.3046251927232113</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="28">
         <v>1.1513367935603647</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="26">
         <v>3.9562499999999994</v>
       </c>
       <c r="O10">
@@ -1919,25 +2026,33 @@
       <c r="X10" s="8">
         <v>4.3935785704633874</v>
       </c>
-      <c r="Z10" s="1">
-        <f>Q10*4</f>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="28">
+        <v>2.1075629377594649</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" si="0"/>
         <v>3.5490109890109873</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AC10" s="10">
         <v>2.4285677965050811</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>0.6905463980463985</v>
       </c>
-      <c r="AC10" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE10" s="12">
+        <f t="shared" si="1"/>
         <v>2.762185592185594</v>
       </c>
-      <c r="AE10" s="9">
+      <c r="AF10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9">
         <v>662.21267476420462</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -1974,10 +2089,10 @@
       <c r="L11" s="7">
         <v>1.2522967643029403</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="28">
         <v>2.4885863555525134</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="26">
         <v>3.1937500000000005</v>
       </c>
       <c r="O11">
@@ -2007,25 +2122,33 @@
       <c r="X11" s="8">
         <v>2.4039619186146779</v>
       </c>
-      <c r="Z11" s="1">
-        <f>Q11*4</f>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="28">
+        <v>2.626675472469755</v>
+      </c>
+      <c r="AB11" s="1">
+        <f t="shared" si="0"/>
         <v>4.3014285714285716</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AC11" s="10">
         <v>3.4898949871574501</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>0.50013431013431053</v>
       </c>
-      <c r="AC11" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE11" s="12">
+        <f t="shared" si="1"/>
         <v>2.0005372405372421</v>
       </c>
-      <c r="AE11" s="9">
+      <c r="AF11" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9">
         <v>662.47783804031565</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2062,10 +2185,10 @@
       <c r="L12" s="7">
         <v>0.54125286454693722</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="28">
         <v>2.8734519202229358</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="26">
         <v>2.7887500000000003</v>
       </c>
       <c r="O12">
@@ -2095,25 +2218,33 @@
       <c r="X12" s="8">
         <v>2.1927268496151391</v>
       </c>
-      <c r="Z12" s="1">
-        <f>Q12*4</f>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="28">
+        <v>3.0211026258729849</v>
+      </c>
+      <c r="AB12" s="1">
+        <f t="shared" si="0"/>
         <v>4.7414130434782598</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AC12" s="10">
         <v>2.180490551036625</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>0.37763819212188809</v>
       </c>
-      <c r="AC12" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE12" s="12">
+        <f t="shared" si="1"/>
         <v>1.5105527684875524</v>
       </c>
-      <c r="AE12" s="9">
+      <c r="AF12" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9">
         <v>662.56910109957539</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2150,10 +2281,10 @@
       <c r="L13" s="7">
         <v>4.7489274024155925</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="28">
         <v>2.3698367939470222</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="26">
         <v>2.4579166666666561</v>
       </c>
       <c r="O13">
@@ -2183,25 +2314,33 @@
       <c r="X13" s="8">
         <v>5.6469649284092789</v>
       </c>
-      <c r="Z13" s="1">
-        <f>Q13*4</f>
+      <c r="Y13" s="24"/>
+      <c r="Z13" s="28">
+        <v>2.6969650657137811</v>
+      </c>
+      <c r="AB13" s="1">
+        <f t="shared" si="0"/>
         <v>5.1455434782608682</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AC13" s="10">
         <v>3.764865965189951</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>0.23218250650315861</v>
       </c>
-      <c r="AC13" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE13" s="12">
+        <f t="shared" si="1"/>
         <v>0.92873002601263444</v>
       </c>
-      <c r="AE13" s="9">
+      <c r="AF13" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="9">
         <v>662.62635635368383</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2238,10 +2377,10 @@
       <c r="L14" s="7">
         <v>3.0419643690228426</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="28">
         <v>1.8573303012413556</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="26">
         <v>1.1600000000000001</v>
       </c>
       <c r="O14">
@@ -2271,25 +2410,35 @@
       <c r="X14" s="8">
         <v>5.3450555868786704</v>
       </c>
-      <c r="Z14" s="1">
-        <f>Q14*4</f>
+      <c r="Y14" s="24">
+        <v>0.28961111111111149</v>
+      </c>
+      <c r="Z14" s="28">
+        <v>2.3023262186765798</v>
+      </c>
+      <c r="AB14" s="1">
+        <f t="shared" si="0"/>
         <v>6.5382222222222204</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AC14" s="10">
         <v>3.562861214749375</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>-0.1232948717948716</v>
       </c>
-      <c r="AC14" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE14" s="12">
+        <f t="shared" si="1"/>
         <v>-0.4931794871794864</v>
       </c>
-      <c r="AE14" s="9">
+      <c r="AF14" s="26">
+        <f t="shared" si="2"/>
+        <v>1.1584444444444459</v>
+      </c>
+      <c r="AH14" s="9">
         <v>663.01726915026973</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -2326,10 +2475,10 @@
       <c r="L15" s="7">
         <v>-4.7878071826968238</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="28">
         <v>2.7291021745486588</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="26">
         <v>-6.6666666666667318E-2</v>
       </c>
       <c r="O15">
@@ -2359,25 +2508,35 @@
       <c r="X15" s="8">
         <v>5.4030696259770776</v>
       </c>
-      <c r="Z15" s="1">
-        <f>Q15*4</f>
+      <c r="Y15" s="24">
+        <v>-1.7115384615384421E-2</v>
+      </c>
+      <c r="Z15" s="28">
+        <v>2.8799747185768481</v>
+      </c>
+      <c r="AB15" s="1">
+        <f t="shared" si="0"/>
         <v>7.8184615384615359</v>
       </c>
-      <c r="AA15" s="10">
+      <c r="AC15" s="10">
         <v>4.3175385671446147</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>-0.41181623931623917</v>
       </c>
-      <c r="AC15" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE15" s="12">
+        <f t="shared" si="1"/>
         <v>-1.6472649572649567</v>
       </c>
-      <c r="AE15" s="9">
+      <c r="AF15" s="26">
+        <f t="shared" si="2"/>
+        <v>-6.8461538461537685E-2</v>
+      </c>
+      <c r="AH15" s="9">
         <v>663.58993482953076</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2414,10 +2573,10 @@
       <c r="L16" s="7">
         <v>-3.5020607982927388</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="28">
         <v>2.5759307819176902</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="26">
         <v>-2.5233333333333334</v>
       </c>
       <c r="O16">
@@ -2447,25 +2606,35 @@
       <c r="X16" s="8">
         <v>3.170760608306098</v>
       </c>
-      <c r="Z16" s="1">
-        <f>Q16*4</f>
+      <c r="Y16" s="24">
+        <v>-0.63026268115942097</v>
+      </c>
+      <c r="Z16" s="28">
+        <v>2.810100008435938</v>
+      </c>
+      <c r="AB16" s="1">
+        <f t="shared" si="0"/>
         <v>10.557717391304353</v>
       </c>
-      <c r="AA16" s="10">
+      <c r="AC16" s="10">
         <v>3.0926610305597939</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>-1.0047071256038651</v>
       </c>
-      <c r="AC16" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE16" s="12">
+        <f t="shared" si="1"/>
         <v>-4.0188285024154604</v>
       </c>
-      <c r="AE16" s="9">
+      <c r="AF16" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.5210507246376839</v>
+      </c>
+      <c r="AH16" s="9">
         <v>663.70532251095233</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -2502,10 +2671,10 @@
       <c r="L17" s="7">
         <v>-5.5847330996538602</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="28">
         <v>2.0129084223725724</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="26">
         <v>-1.4999999999999982</v>
       </c>
       <c r="O17">
@@ -2535,25 +2704,35 @@
       <c r="X17" s="8">
         <v>1.830281449160059</v>
       </c>
-      <c r="Z17" s="1">
-        <f>Q17*4</f>
+      <c r="Y17" s="24">
+        <v>-0.37501811594202922</v>
+      </c>
+      <c r="Z17" s="28">
+        <v>2.6731193074873989</v>
+      </c>
+      <c r="AB17" s="1">
+        <f t="shared" si="0"/>
         <v>9.9967391304347846</v>
       </c>
-      <c r="AA17" s="10">
+      <c r="AC17" s="10">
         <v>2.736610310956948</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>-0.86984717577108883</v>
       </c>
-      <c r="AC17" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE17" s="12">
+        <f t="shared" si="1"/>
         <v>-3.4793887030843553</v>
       </c>
-      <c r="AE17" s="9">
+      <c r="AF17" s="26">
+        <f t="shared" si="2"/>
+        <v>-1.5000724637681169</v>
+      </c>
+      <c r="AH17" s="9">
         <v>663.96190469837779</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -2590,10 +2769,10 @@
       <c r="L18" s="7">
         <v>-7.6376495625145147</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="28">
         <v>1.4876389085313857</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="26">
         <v>-0.68999999999999773</v>
       </c>
       <c r="O18">
@@ -2623,25 +2802,35 @@
       <c r="X18" s="8">
         <v>1.67445772738017</v>
       </c>
-      <c r="Z18" s="1">
-        <f>Q18*4</f>
+      <c r="Y18" s="24">
+        <v>-0.17511111111111169</v>
+      </c>
+      <c r="Z18" s="28">
+        <v>1.982058538456736</v>
+      </c>
+      <c r="AB18" s="1">
+        <f t="shared" si="0"/>
         <v>9.3337777777777795</v>
       </c>
-      <c r="AA18" s="10">
+      <c r="AC18" s="10">
         <v>2.9235373545442989</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>-0.66295299145299236</v>
       </c>
-      <c r="AC18" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE18" s="12">
+        <f t="shared" si="1"/>
         <v>-2.6518119658119694</v>
       </c>
-      <c r="AE18" s="9">
+      <c r="AF18" s="26">
+        <f t="shared" si="2"/>
+        <v>-0.70044444444444676</v>
+      </c>
+      <c r="AH18" s="9">
         <v>663.27549819655383</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -2678,10 +2867,10 @@
       <c r="L19" s="7">
         <v>-5.0635000616161996</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="28">
         <v>2.1374816754343495</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="26">
         <v>-2.5133333333333336</v>
       </c>
       <c r="O19">
@@ -2711,25 +2900,35 @@
       <c r="X19" s="8">
         <v>2.9092960941664772</v>
       </c>
-      <c r="Z19" s="1">
-        <f>Q19*4</f>
+      <c r="Y19" s="24">
+        <v>-0.62866300366300365</v>
+      </c>
+      <c r="Z19" s="28">
+        <v>2.6805285030748771</v>
+      </c>
+      <c r="AB19" s="1">
+        <f t="shared" si="0"/>
         <v>11.251318681318679</v>
       </c>
-      <c r="AA19" s="10">
+      <c r="AC19" s="10">
         <v>4.0842337015801107</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>-1.017722832722832</v>
       </c>
-      <c r="AC19" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE19" s="12">
+        <f t="shared" si="1"/>
         <v>-4.0708913308913282</v>
       </c>
-      <c r="AE19" s="9">
+      <c r="AF19" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.5146520146520146</v>
+      </c>
+      <c r="AH19" s="9">
         <v>662.61992156653821</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2766,10 +2965,10 @@
       <c r="L20" s="7">
         <v>-3.5695516909237668</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="28">
         <v>1.8630350918540373</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="26">
         <v>-2.9499999999999975</v>
       </c>
       <c r="O20">
@@ -2799,25 +2998,35 @@
       <c r="X20" s="8">
         <v>3.001107841603941</v>
       </c>
-      <c r="Z20" s="1">
-        <f>Q20*4</f>
+      <c r="Y20" s="24">
+        <v>-0.73964673913043555</v>
+      </c>
+      <c r="Z20" s="28">
+        <v>2.6956739932463911</v>
+      </c>
+      <c r="AB20" s="1">
+        <f t="shared" si="0"/>
         <v>12.098586956521745</v>
       </c>
-      <c r="AA20" s="10">
+      <c r="AC20" s="10">
         <v>2.4536519149407798</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>-1.0570399015235981</v>
       </c>
-      <c r="AC20" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE20" s="12">
+        <f t="shared" si="1"/>
         <v>-4.2281596060943922</v>
       </c>
-      <c r="AE20" s="9">
+      <c r="AF20" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.9585869565217422</v>
+      </c>
+      <c r="AH20" s="9">
         <v>662.11345582855085</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -2854,10 +3063,10 @@
       <c r="L21" s="7">
         <v>-15.075814514970798</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="28">
         <v>0.96063233584495755</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="26">
         <v>0.14666666666666828</v>
       </c>
       <c r="O21">
@@ -2887,25 +3096,35 @@
       <c r="X21" s="8">
         <v>1.6671843466668239</v>
       </c>
-      <c r="Z21" s="1">
-        <f>Q21*4</f>
+      <c r="Y21" s="24">
+        <v>3.7246376811594928E-2</v>
+      </c>
+      <c r="Z21" s="28">
+        <v>1.9143142457237521</v>
+      </c>
+      <c r="AB21" s="1">
+        <f t="shared" si="0"/>
         <v>9.3443478260869561</v>
       </c>
-      <c r="AA21" s="10">
+      <c r="AC21" s="10">
         <v>2.5352973330579638</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>-0.19655704199182411</v>
       </c>
-      <c r="AC21" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE21" s="12">
+        <f t="shared" si="1"/>
         <v>-0.78622816796729644</v>
       </c>
-      <c r="AE21" s="9">
+      <c r="AF21" s="26">
+        <f t="shared" si="2"/>
+        <v>0.14898550724637971</v>
+      </c>
+      <c r="AH21" s="9">
         <v>660.37431627009471</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2942,10 +3161,10 @@
       <c r="L22" s="7">
         <v>-6.6803308406609752</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="28">
         <v>0.607565061444304</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="26">
         <v>3.0599999999999996</v>
       </c>
       <c r="O22">
@@ -2975,25 +3194,35 @@
       <c r="X22" s="8">
         <v>-2.540552343542283</v>
       </c>
-      <c r="Z22" s="1">
-        <f>Q22*4</f>
+      <c r="Y22" s="24">
+        <v>0.76450000000000018</v>
+      </c>
+      <c r="Z22" s="28">
+        <v>1.1783949620424961</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="0"/>
         <v>6.3053333333333317</v>
       </c>
-      <c r="AA22" s="10">
+      <c r="AC22" s="10">
         <v>1.128055716454202</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>0.55761965811965841</v>
       </c>
-      <c r="AC22" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE22" s="12">
+        <f t="shared" si="1"/>
         <v>2.2304786324786336</v>
       </c>
-      <c r="AE22" s="9">
+      <c r="AF22" s="26">
+        <f t="shared" si="2"/>
+        <v>3.0580000000000007</v>
+      </c>
+      <c r="AH22" s="9">
         <v>657.62901704917442</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -3030,10 +3259,10 @@
       <c r="L23" s="7">
         <v>1.7870696823012011</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="28">
         <v>1.9710902006207398</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="26">
         <v>3.633333333333332</v>
       </c>
       <c r="O23">
@@ -3063,25 +3292,35 @@
       <c r="X23" s="8">
         <v>-0.11702751481903211</v>
       </c>
-      <c r="Z23" s="1">
-        <f>Q23*4</f>
+      <c r="Y23" s="24">
+        <v>0.9087179487179482</v>
+      </c>
+      <c r="Z23" s="28">
+        <v>2.391906945121447</v>
+      </c>
+      <c r="AB23" s="1">
+        <f t="shared" si="0"/>
         <v>5.41846153846154</v>
       </c>
-      <c r="AA23" s="10">
+      <c r="AC23" s="10">
         <v>1.5582717923039959</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>0.76510683760683773</v>
       </c>
-      <c r="AC23" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE23" s="12">
+        <f t="shared" si="1"/>
         <v>3.0604273504273509</v>
       </c>
-      <c r="AE23" s="9">
+      <c r="AF23" s="26">
+        <f t="shared" si="2"/>
+        <v>3.6348717948717928</v>
+      </c>
+      <c r="AH23" s="9">
         <v>656.99914453418569</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -3118,10 +3357,10 @@
       <c r="L24" s="7">
         <v>5.1409394871642533</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="28">
         <v>2.0470662256829364</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="26">
         <v>2.8933333333333353</v>
       </c>
       <c r="O24">
@@ -3151,25 +3390,35 @@
       <c r="X24" s="8">
         <v>2.2004362051032258</v>
       </c>
-      <c r="Z24" s="1">
-        <f>Q24*4</f>
+      <c r="Y24" s="24">
+        <v>0.72436594202898674</v>
+      </c>
+      <c r="Z24" s="28">
+        <v>2.6682176451176258</v>
+      </c>
+      <c r="AB24" s="1">
+        <f t="shared" si="0"/>
         <v>6.1558695652173876</v>
       </c>
-      <c r="AA24" s="10">
+      <c r="AC24" s="10">
         <v>0.75828783514755205</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>0.56902406168710606</v>
       </c>
-      <c r="AC24" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE24" s="12">
+        <f t="shared" si="1"/>
         <v>2.2760962467484243</v>
       </c>
-      <c r="AE24" s="9">
+      <c r="AF24" s="26">
+        <f t="shared" si="2"/>
+        <v>2.897463768115947</v>
+      </c>
+      <c r="AH24" s="9">
         <v>657.55579187131434</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -3206,10 +3455,10 @@
       <c r="L25" s="7">
         <v>3.9099521384904357</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="28">
         <v>1.9043618408928875</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="26">
         <v>3.7666666666666684</v>
       </c>
       <c r="O25">
@@ -3239,25 +3488,35 @@
       <c r="X25" s="8">
         <v>2.2651025036896759</v>
       </c>
-      <c r="Z25" s="1">
-        <f>Q25*4</f>
+      <c r="Y25" s="24">
+        <v>0.94220108695652227</v>
+      </c>
+      <c r="Z25" s="28">
+        <v>2.819141738510536</v>
+      </c>
+      <c r="AB25" s="1">
+        <f t="shared" si="0"/>
         <v>5.4111956521739124</v>
       </c>
-      <c r="AA25" s="10">
+      <c r="AC25" s="10">
         <v>1.310707747552702</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>0.75519253994797486</v>
       </c>
-      <c r="AC25" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE25" s="12">
+        <f t="shared" si="1"/>
         <v>3.0207701597918994</v>
       </c>
-      <c r="AE25" s="9">
+      <c r="AF25" s="26">
+        <f t="shared" si="2"/>
+        <v>3.7688043478260891</v>
+      </c>
+      <c r="AH25" s="9">
         <v>658.00652346443917</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -3294,10 +3553,10 @@
       <c r="L26" s="7">
         <v>8.8023701552178757</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="28">
         <v>2.0653379814936867</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="26">
         <v>4.3199999999999994</v>
       </c>
       <c r="O26">
@@ -3327,25 +3586,35 @@
       <c r="X26" s="8">
         <v>2.9243463167876849</v>
       </c>
-      <c r="Z26" s="1">
-        <f>Q26*4</f>
+      <c r="Y26" s="24">
+        <v>1.0800457875457881</v>
+      </c>
+      <c r="Z26" s="28">
+        <v>2.3489459578627359</v>
+      </c>
+      <c r="AB26" s="1">
+        <f t="shared" si="0"/>
         <v>4.826483516483516</v>
       </c>
-      <c r="AA26" s="10">
+      <c r="AC26" s="10">
         <v>1.3144028938621439</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>0.88310134310134303</v>
       </c>
-      <c r="AC26" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE26" s="12">
+        <f t="shared" si="1"/>
         <v>3.5324053724053721</v>
       </c>
-      <c r="AE26" s="9">
+      <c r="AF26" s="26">
+        <f t="shared" si="2"/>
+        <v>4.3201831501831522</v>
+      </c>
+      <c r="AH26" s="9">
         <v>659.22842851717292</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -3382,10 +3651,10 @@
       <c r="L27" s="7">
         <v>4.2320983690540714</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="28">
         <v>2.5569846067091673</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="26">
         <v>3.8199999999999994</v>
       </c>
       <c r="O27">
@@ -3415,25 +3684,35 @@
       <c r="X27" s="8">
         <v>2.4705875277789939</v>
       </c>
-      <c r="Z27" s="1">
-        <f>Q27*4</f>
+      <c r="Y27" s="24">
+        <v>0.95532051282051245</v>
+      </c>
+      <c r="Z27" s="28">
+        <v>2.933524117734704</v>
+      </c>
+      <c r="AB27" s="1">
+        <f t="shared" si="0"/>
         <v>5.1953846153846159</v>
       </c>
-      <c r="AA27" s="10">
+      <c r="AC27" s="10">
         <v>2.395451725478567</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>0.69683760683760654</v>
       </c>
-      <c r="AC27" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE27" s="12">
+        <f t="shared" si="1"/>
         <v>2.7873504273504262</v>
       </c>
-      <c r="AE27" s="9">
+      <c r="AF27" s="26">
+        <f t="shared" si="2"/>
+        <v>3.8212820512820498</v>
+      </c>
+      <c r="AH27" s="9">
         <v>659.10974138168535</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -3470,10 +3749,10 @@
       <c r="L28" s="7">
         <v>-1.9575878208622832</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="28">
         <v>2.9975078042461689</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="26">
         <v>3.7833333333333332</v>
       </c>
       <c r="O28">
@@ -3503,25 +3782,35 @@
       <c r="X28" s="8">
         <v>3.4414240741000039</v>
       </c>
-      <c r="Z28" s="1">
-        <f>Q28*4</f>
+      <c r="Y28" s="24">
+        <v>0.94579710144927542</v>
+      </c>
+      <c r="Z28" s="28">
+        <v>3.480554372593275</v>
+      </c>
+      <c r="AB28" s="1">
+        <f t="shared" si="0"/>
         <v>5.2834782608695638</v>
       </c>
-      <c r="AA28" s="10">
+      <c r="AC28" s="10">
         <v>1.745800003473015</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>0.61192958008175369</v>
       </c>
-      <c r="AC28" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE28" s="12">
+        <f t="shared" si="1"/>
         <v>2.4477183203270148</v>
       </c>
-      <c r="AE28" s="9">
+      <c r="AF28" s="26">
+        <f t="shared" si="2"/>
+        <v>3.7831884057971017</v>
+      </c>
+      <c r="AH28" s="9">
         <v>659.08640067465421</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -3558,10 +3847,10 @@
       <c r="L29" s="7">
         <v>11.536613478678159</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="28">
         <v>2.6383625517416798</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="26">
         <v>4.2233333333333327</v>
       </c>
       <c r="O29">
@@ -3591,25 +3880,35 @@
       <c r="X29" s="8">
         <v>3.4260277689726411</v>
       </c>
-      <c r="Z29" s="1">
-        <f>Q29*4</f>
+      <c r="Y29" s="24">
+        <v>1.05560688405797</v>
+      </c>
+      <c r="Z29" s="28">
+        <v>3.1316404797397088</v>
+      </c>
+      <c r="AB29" s="1">
+        <f t="shared" si="0"/>
         <v>4.8742391304347841</v>
       </c>
-      <c r="AA29" s="10">
+      <c r="AC29" s="10">
         <v>2.4920702391095619</v>
       </c>
-      <c r="AB29">
+      <c r="AD29">
         <v>0.60616243961352567</v>
       </c>
-      <c r="AC29" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE29" s="12">
+        <f t="shared" si="1"/>
         <v>2.4246497584541027</v>
       </c>
-      <c r="AE29" s="9">
+      <c r="AF29" s="26">
+        <f t="shared" si="2"/>
+        <v>4.2224275362318799</v>
+      </c>
+      <c r="AH29" s="9">
         <v>658.88382692929156</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3646,10 +3945,10 @@
       <c r="L30" s="7">
         <v>3.2585135974594337</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="28">
         <v>2.3759098733555195</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="26">
         <v>4.336666666666666</v>
       </c>
       <c r="O30">
@@ -3679,25 +3978,35 @@
       <c r="X30" s="8">
         <v>5.9137632694856581</v>
       </c>
-      <c r="Z30" s="1">
-        <f>Q30*4</f>
+      <c r="Y30" s="24">
+        <v>1.083999999999999</v>
+      </c>
+      <c r="Z30" s="28">
+        <v>2.7170503557490608</v>
+      </c>
+      <c r="AB30" s="1">
+        <f t="shared" si="0"/>
         <v>4.6606666666666721</v>
       </c>
-      <c r="AA30" s="10">
+      <c r="AC30" s="10">
         <v>2.8343893801916491</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>0.63184722222222134</v>
       </c>
-      <c r="AC30" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE30" s="12">
+        <f t="shared" si="1"/>
         <v>2.5273888888888854</v>
       </c>
-      <c r="AE30" s="9">
+      <c r="AF30" s="26">
+        <f t="shared" si="2"/>
+        <v>4.3359999999999959</v>
+      </c>
+      <c r="AH30" s="9">
         <v>659.19014335967631</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -3734,10 +4043,10 @@
       <c r="L31" s="7">
         <v>11.610815536387431</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="28">
         <v>4.0726943811599359</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="26">
         <v>3.8000000000000007</v>
       </c>
       <c r="O31">
@@ -3767,25 +4076,35 @@
       <c r="X31" s="8">
         <v>4.3842637864176526</v>
       </c>
-      <c r="Z31" s="1">
-        <f>Q31*4</f>
+      <c r="Y31" s="24">
+        <v>0.94979853479853449</v>
+      </c>
+      <c r="Z31" s="28">
+        <v>4.2004166068271171</v>
+      </c>
+      <c r="AB31" s="1">
+        <f t="shared" si="0"/>
         <v>5.1574725274725282</v>
       </c>
-      <c r="AA31" s="10">
+      <c r="AC31" s="10">
         <v>3.29582686060643</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>0.48304639804639771</v>
       </c>
-      <c r="AC31" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE31" s="12">
+        <f t="shared" si="1"/>
         <v>1.9321855921855908</v>
       </c>
-      <c r="AE31" s="9">
+      <c r="AF31" s="26">
+        <f t="shared" si="2"/>
+        <v>3.799194139194138</v>
+      </c>
+      <c r="AH31" s="9">
         <v>660.32626368208889</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -3822,10 +4141,10 @@
       <c r="L32" s="7">
         <v>1.2079610134774654</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="28">
         <v>4.153182896125629</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="26">
         <v>3.2099999999999991</v>
       </c>
       <c r="O32">
@@ -3855,25 +4174,35 @@
       <c r="X32" s="8">
         <v>3.8137429149586062</v>
       </c>
-      <c r="Z32" s="1">
-        <f>Q32*4</f>
+      <c r="Y32" s="24">
+        <v>0.8033967391304353</v>
+      </c>
+      <c r="Z32" s="28">
+        <v>4.5549808786547894</v>
+      </c>
+      <c r="AB32" s="1">
+        <f t="shared" si="0"/>
         <v>5.8164130434782599</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AC32" s="10">
         <v>2.387773159155635</v>
       </c>
-      <c r="AB32">
+      <c r="AD32">
         <v>0.27311896135265717</v>
       </c>
-      <c r="AC32" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE32" s="12">
+        <f t="shared" si="1"/>
         <v>1.0924758454106287</v>
       </c>
-      <c r="AE32" s="9">
+      <c r="AF32" s="26">
+        <f t="shared" si="2"/>
+        <v>3.2135869565217412</v>
+      </c>
+      <c r="AH32" s="9">
         <v>660.43154042109325</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -3910,10 +4239,10 @@
       <c r="L33" s="7">
         <v>-0.97317976363155978</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="28">
         <v>3.542728128688899</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="26">
         <v>2.5733333333333333</v>
       </c>
       <c r="O33">
@@ -3943,25 +4272,35 @@
       <c r="X33" s="8">
         <v>5.0325083887515634</v>
       </c>
-      <c r="Z33" s="1">
-        <f>Q33*4</f>
+      <c r="Y33" s="24">
+        <v>0.64384057971014519</v>
+      </c>
+      <c r="Z33" s="28">
+        <v>3.9047579456155801</v>
+      </c>
+      <c r="AB33" s="1">
+        <f t="shared" si="0"/>
         <v>6.5113043478260844</v>
       </c>
-      <c r="AA33" s="10">
+      <c r="AC33" s="10">
         <v>3.4773315428889222</v>
       </c>
-      <c r="AB33">
+      <c r="AD33">
         <v>0.1284345968041625</v>
       </c>
-      <c r="AC33" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE33" s="12">
+        <f t="shared" si="1"/>
         <v>0.51373838721664999</v>
       </c>
-      <c r="AE33" s="9">
+      <c r="AF33" s="26">
+        <f t="shared" si="2"/>
+        <v>2.5753623188405808</v>
+      </c>
+      <c r="AH33" s="9">
         <v>661.16042334311192</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -3998,10 +4337,10 @@
       <c r="L34" s="7">
         <v>1.560783547074962</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="28">
         <v>2.4530468013870932</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="26">
         <v>2.4366666666666665</v>
       </c>
       <c r="O34">
@@ -4031,25 +4370,35 @@
       <c r="X34" s="8">
         <v>2.3844330311016679</v>
       </c>
-      <c r="Z34" s="1">
-        <f>Q34*4</f>
+      <c r="Y34" s="24">
+        <v>0.60844444444444568</v>
+      </c>
+      <c r="Z34" s="28">
+        <v>2.9464600746086371</v>
+      </c>
+      <c r="AB34" s="1">
+        <f t="shared" ref="AB34:AB65" si="3">Q34*4</f>
         <v>6.7595555555555524</v>
       </c>
-      <c r="AA34" s="10">
+      <c r="AC34" s="10">
         <v>2.8145139154821761</v>
       </c>
-      <c r="AB34">
+      <c r="AD34">
         <v>0.12964102564102739</v>
       </c>
-      <c r="AC34" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE34" s="12">
+        <f t="shared" si="1"/>
         <v>0.51856410256410956</v>
       </c>
-      <c r="AE34" s="9">
+      <c r="AF34" s="26">
+        <f t="shared" si="2"/>
+        <v>2.4337777777777827</v>
+      </c>
+      <c r="AH34" s="9">
         <v>660.96918896960221</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4086,10 +4435,10 @@
       <c r="L35" s="7">
         <v>5.381852132069298</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="28">
         <v>3.8790332855258791</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="26">
         <v>2.0966666666666667</v>
       </c>
       <c r="O35">
@@ -4119,25 +4468,35 @@
       <c r="X35" s="8">
         <v>9.7341226491206534</v>
       </c>
-      <c r="Z35" s="1">
-        <f>Q35*4</f>
+      <c r="Y35" s="24">
+        <v>0.52434065934065854</v>
+      </c>
+      <c r="Z35" s="28">
+        <v>4.2576388838745194</v>
+      </c>
+      <c r="AB35" s="1">
+        <f t="shared" si="3"/>
         <v>7.2826373626373684</v>
       </c>
-      <c r="AA35" s="10">
+      <c r="AC35" s="10">
         <v>3.7002167118254881</v>
       </c>
-      <c r="AB35">
+      <c r="AD35">
         <v>6.7524420024418497E-2</v>
       </c>
-      <c r="AC35" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE35" s="12">
+        <f t="shared" si="1"/>
         <v>0.27009768009767399</v>
       </c>
-      <c r="AE35" s="9">
+      <c r="AF35" s="26">
+        <f t="shared" si="2"/>
+        <v>2.0973626373626342</v>
+      </c>
+      <c r="AH35" s="9">
         <v>662.80024467403018</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -4174,10 +4533,10 @@
       <c r="L36" s="7">
         <v>1.7982842389322684</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="28">
         <v>4.2952355837474032</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="26">
         <v>1.6066666666666656</v>
       </c>
       <c r="O36">
@@ -4207,25 +4566,35 @@
       <c r="X36" s="8">
         <v>5.154688541903262</v>
       </c>
-      <c r="Z36" s="1">
-        <f>Q36*4</f>
+      <c r="Y36" s="24">
+        <v>0.40297101449275408</v>
+      </c>
+      <c r="Z36" s="28">
+        <v>4.6613306774511658</v>
+      </c>
+      <c r="AB36" s="1">
+        <f t="shared" si="3"/>
         <v>8.0947826086956471</v>
       </c>
-      <c r="AA36" s="10">
+      <c r="AC36" s="10">
         <v>2.4553680756582099</v>
       </c>
-      <c r="AB36">
+      <c r="AD36">
         <v>-0.12878112225938179</v>
       </c>
-      <c r="AC36" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE36" s="12">
+        <f t="shared" si="1"/>
         <v>-0.51512448903752717</v>
       </c>
-      <c r="AE36" s="9">
+      <c r="AF36" s="26">
+        <f t="shared" si="2"/>
+        <v>1.6118840579710163</v>
+      </c>
+      <c r="AH36" s="9">
         <v>662.76560590218969</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -4262,10 +4631,10 @@
       <c r="L37" s="7">
         <v>-0.22448468358380325</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="28">
         <v>3.8070282686202717</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="26">
         <v>0.36666666666666536</v>
       </c>
       <c r="O37">
@@ -4295,25 +4664,35 @@
       <c r="X37" s="8">
         <v>4.9347148604649496</v>
       </c>
-      <c r="Z37" s="1">
-        <f>Q37*4</f>
+      <c r="Y37" s="24">
+        <v>9.3043478260867563E-2</v>
+      </c>
+      <c r="Z37" s="28">
+        <v>4.2788509088666817</v>
+      </c>
+      <c r="AB37" s="1">
+        <f t="shared" si="3"/>
         <v>9.5778260869565273</v>
       </c>
-      <c r="AA37" s="10">
+      <c r="AC37" s="10">
         <v>3.0501985921739752</v>
       </c>
-      <c r="AB37">
+      <c r="AD37">
         <v>-0.42838814567075628</v>
       </c>
-      <c r="AC37" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE37" s="12">
+        <f t="shared" si="1"/>
         <v>-1.7135525826830251</v>
       </c>
-      <c r="AE37" s="9">
+      <c r="AF37" s="26">
+        <f t="shared" si="2"/>
+        <v>0.37217391304347025</v>
+      </c>
+      <c r="AH37" s="9">
         <v>663.21478308538462</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -4350,10 +4729,10 @@
       <c r="L38" s="7">
         <v>-2.5806592908637072</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="28">
         <v>2.8323607357993108</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="26">
         <v>0.26999999999999957</v>
       </c>
       <c r="O38">
@@ -4383,25 +4762,35 @@
       <c r="X38" s="8">
         <v>4.3269047175227771</v>
       </c>
-      <c r="Z38" s="1">
-        <f>Q38*4</f>
+      <c r="Y38" s="24">
+        <v>6.7527777777777409E-2</v>
+      </c>
+      <c r="Z38" s="28">
+        <v>3.4632313831022561</v>
+      </c>
+      <c r="AB38" s="1">
+        <f t="shared" si="3"/>
         <v>10.073222222222224</v>
       </c>
-      <c r="AA38" s="10">
+      <c r="AC38" s="10">
         <v>2.977860283278261</v>
       </c>
-      <c r="AB38">
+      <c r="AD38">
         <v>-0.45896794871794899</v>
       </c>
-      <c r="AC38" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE38" s="12">
+        <f t="shared" si="1"/>
         <v>-1.835871794871796</v>
       </c>
-      <c r="AE38" s="9">
+      <c r="AF38" s="26">
+        <f t="shared" si="2"/>
+        <v>0.27011111111110964</v>
+      </c>
+      <c r="AH38" s="9">
         <v>663.18382223112224</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -4438,10 +4827,10 @@
       <c r="L39" s="7">
         <v>-1.3526329966897066</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="28">
         <v>3.6878247514941842</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="26">
         <v>0.40333333333333421</v>
       </c>
       <c r="O39">
@@ -4471,25 +4860,35 @@
       <c r="X39" s="8">
         <v>1.895349575899457</v>
       </c>
-      <c r="Z39" s="1">
-        <f>Q39*4</f>
+      <c r="Y39" s="24">
+        <v>0.10033882783883021</v>
+      </c>
+      <c r="Z39" s="28">
+        <v>3.9833447832398581</v>
+      </c>
+      <c r="AB39" s="1">
+        <f t="shared" si="3"/>
         <v>10.181978021978011</v>
       </c>
-      <c r="AA39" s="10">
+      <c r="AC39" s="10">
         <v>4.1037764259966627</v>
       </c>
-      <c r="AB39">
+      <c r="AD39">
         <v>-0.42634920634920448</v>
       </c>
-      <c r="AC39" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE39" s="12">
+        <f t="shared" si="1"/>
         <v>-1.7053968253968179</v>
       </c>
-      <c r="AE39" s="9">
+      <c r="AF39" s="26">
+        <f t="shared" si="2"/>
+        <v>0.40135531135532082</v>
+      </c>
+      <c r="AH39" s="9">
         <v>662.31447355581463</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -4526,10 +4925,10 @@
       <c r="L40" s="7">
         <v>-0.55854771025227734</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="28">
         <v>3.7309956206832862</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="26">
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="O40">
@@ -4559,25 +4958,35 @@
       <c r="X40" s="8">
         <v>5.2170102861085166</v>
       </c>
-      <c r="Z40" s="1">
-        <f>Q40*4</f>
+      <c r="Y40" s="24">
+        <v>2.663949275362398E-2</v>
+      </c>
+      <c r="Z40" s="28">
+        <v>4.1718143679326474</v>
+      </c>
+      <c r="AB40" s="1">
+        <f t="shared" si="3"/>
         <v>10.940108695652173</v>
       </c>
-      <c r="AA40" s="10">
+      <c r="AC40" s="10">
         <v>3.0953960653167911</v>
       </c>
-      <c r="AB40">
+      <c r="AD40">
         <v>-0.6181895670754356</v>
       </c>
-      <c r="AC40" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE40" s="12">
+        <f t="shared" si="1"/>
         <v>-2.4727582683017424</v>
       </c>
-      <c r="AE40" s="9">
+      <c r="AF40" s="26">
+        <f t="shared" si="2"/>
+        <v>0.10655797101449592</v>
+      </c>
+      <c r="AH40" s="9">
         <v>662.84895382352886</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -4614,10 +5023,10 @@
       <c r="L41" s="7">
         <v>-3.9852177889645901</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="28">
         <v>2.6800554123547871</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="26">
         <v>-2.0700000000000003</v>
       </c>
       <c r="O41">
@@ -4647,25 +5056,35 @@
       <c r="X41" s="8">
         <v>2.1102098245240861</v>
       </c>
-      <c r="Z41" s="1">
-        <f>Q41*4</f>
+      <c r="Y41" s="24">
+        <v>-0.51838768115942058</v>
+      </c>
+      <c r="Z41" s="28">
+        <v>3.7956694052745399</v>
+      </c>
+      <c r="AB41" s="1">
+        <f t="shared" si="3"/>
         <v>13.580217391304348</v>
       </c>
-      <c r="AA41" s="10">
+      <c r="AC41" s="10">
         <v>2.4603112216613718</v>
       </c>
-      <c r="AB41">
+      <c r="AD41">
         <v>-0.92437058714232645</v>
       </c>
-      <c r="AC41" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE41" s="12">
+        <f t="shared" si="1"/>
         <v>-3.6974823485693058</v>
       </c>
-      <c r="AE41" s="9">
+      <c r="AF41" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.0735507246376823</v>
+      </c>
+      <c r="AH41" s="9">
         <v>662.89403058034247</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -4702,10 +5121,10 @@
       <c r="L42" s="7">
         <v>-7.8836431288514142</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="28">
         <v>3.0569268737091981</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="26">
         <v>-2.6733333333333338</v>
       </c>
       <c r="O42">
@@ -4735,25 +5154,35 @@
       <c r="X42" s="8">
         <v>3.2918994372214221</v>
       </c>
-      <c r="Z42" s="1">
-        <f>Q42*4</f>
+      <c r="Y42" s="24">
+        <v>-0.67298534798534826</v>
+      </c>
+      <c r="Z42" s="28">
+        <v>3.507463473540271</v>
+      </c>
+      <c r="AB42" s="1">
+        <f t="shared" si="3"/>
         <v>15.065274725274728</v>
       </c>
-      <c r="AA42" s="10">
+      <c r="AC42" s="10">
         <v>3.0085596914433181</v>
       </c>
-      <c r="AB42">
+      <c r="AD42">
         <v>-0.89332722832722888</v>
       </c>
-      <c r="AC42" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE42" s="12">
+        <f t="shared" si="1"/>
         <v>-3.5733089133089155</v>
       </c>
-      <c r="AE42" s="9">
+      <c r="AF42" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.691941391941393</v>
+      </c>
+      <c r="AH42" s="9">
         <v>662.15367184353261</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -4790,10 +5219,10 @@
       <c r="L43" s="7">
         <v>-20.807346703490737</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="28">
         <v>1.4203670143915215</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="26">
         <v>0.84999999999999964</v>
       </c>
       <c r="O43">
@@ -4823,25 +5252,35 @@
       <c r="X43" s="8">
         <v>-2.9207355564425179</v>
       </c>
-      <c r="Z43" s="1">
-        <f>Q43*4</f>
+      <c r="Y43" s="24">
+        <v>0.21694139194139289</v>
+      </c>
+      <c r="Z43" s="28">
+        <v>2.0496524156832612</v>
+      </c>
+      <c r="AB43" s="1">
+        <f t="shared" si="3"/>
         <v>12.668901098901095</v>
       </c>
-      <c r="AA43" s="10">
+      <c r="AC43" s="10">
         <v>1.555537721699741</v>
       </c>
-      <c r="AB43">
+      <c r="AD43">
         <v>-0.29577228327228289</v>
       </c>
-      <c r="AC43" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE43" s="12">
+        <f t="shared" si="1"/>
         <v>-1.1830891330891316</v>
       </c>
-      <c r="AE43" s="9">
+      <c r="AF43" s="26">
+        <f t="shared" si="2"/>
+        <v>0.86776556776557157</v>
+      </c>
+      <c r="AH43" s="9">
         <v>660.01240484513596</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -4878,10 +5317,10 @@
       <c r="L44" s="7">
         <v>1.361050163118005</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="28">
         <v>2.7762904053248105</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="26">
         <v>2.5733333333333324</v>
       </c>
       <c r="O44">
@@ -4911,25 +5350,35 @@
       <c r="X44" s="8">
         <v>2.865364569424286</v>
       </c>
-      <c r="Z44" s="1">
-        <f>Q44*4</f>
+      <c r="Y44" s="24">
+        <v>0.64671195652173763</v>
+      </c>
+      <c r="Z44" s="28">
+        <v>3.0893706631755382</v>
+      </c>
+      <c r="AB44" s="1">
+        <f t="shared" si="3"/>
         <v>9.8231521739130478</v>
       </c>
-      <c r="AA44" s="10">
+      <c r="AC44" s="10">
         <v>1.899874825010945</v>
       </c>
-      <c r="AB44">
+      <c r="AD44">
         <v>0.34470340951319089</v>
       </c>
-      <c r="AC44" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE44" s="12">
+        <f t="shared" si="1"/>
         <v>1.3788136380527636</v>
       </c>
-      <c r="AE44" s="9">
+      <c r="AF44" s="26">
+        <f t="shared" si="2"/>
+        <v>2.5868478260869505</v>
+      </c>
+      <c r="AH44" s="9">
         <v>659.3587679978574</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -4966,10 +5415,10 @@
       <c r="L45" s="7">
         <v>8.6699330490614734</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="28">
         <v>2.4456013146413103</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="26">
         <v>-2.7433333333333341</v>
       </c>
       <c r="O45">
@@ -4999,25 +5448,35 @@
       <c r="X45" s="8">
         <v>4.0965988583517898</v>
       </c>
-      <c r="Z45" s="1">
-        <f>Q45*4</f>
+      <c r="Y45" s="24">
+        <v>-0.68570652173913116</v>
+      </c>
+      <c r="Z45" s="28">
+        <v>2.752070744192177</v>
+      </c>
+      <c r="AB45" s="1">
+        <f t="shared" si="3"/>
         <v>15.852826086956524</v>
       </c>
-      <c r="AA45" s="10">
+      <c r="AC45" s="10">
         <v>2.8303312188555401</v>
       </c>
-      <c r="AB45">
+      <c r="AD45">
         <v>-0.78463814567075518</v>
       </c>
-      <c r="AC45" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE45" s="12">
+        <f t="shared" si="1"/>
         <v>-3.1385525826830207</v>
       </c>
-      <c r="AE45" s="9">
+      <c r="AF45" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.7428260869565246</v>
+      </c>
+      <c r="AH45" s="9">
         <v>660.09726564415882</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -5054,10 +5513,10 @@
       <c r="L46" s="7">
         <v>-2.4701375183278529</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="28">
         <v>1.229759591067614</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="26">
         <v>-2.6499999999999968</v>
       </c>
       <c r="O46">
@@ -5087,25 +5546,35 @@
       <c r="X46" s="8">
         <v>4.3943115560884776</v>
       </c>
-      <c r="Z46" s="1">
-        <f>Q46*4</f>
+      <c r="Y46" s="24">
+        <v>-0.66888888888889086</v>
+      </c>
+      <c r="Z46" s="28">
+        <v>1.5061558180012251</v>
+      </c>
+      <c r="AB46" s="1">
+        <f t="shared" si="3"/>
         <v>16.595555555555563</v>
       </c>
-      <c r="AA46" s="10">
+      <c r="AC46" s="10">
         <v>2.3705168102494389</v>
       </c>
-      <c r="AB46">
+      <c r="AD46">
         <v>-0.82051282051282248</v>
       </c>
-      <c r="AC46" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE46" s="12">
+        <f t="shared" si="1"/>
         <v>-3.2820512820512899</v>
       </c>
-      <c r="AE46" s="9">
+      <c r="AF46" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.6755555555555635</v>
+      </c>
+      <c r="AH46" s="9">
         <v>660.60659691527462</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -5142,10 +5611,10 @@
       <c r="L47" s="7">
         <v>-4.0479537926910503</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="28">
         <v>2.0869000894323975</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="26">
         <v>-3.2233333333333345</v>
       </c>
       <c r="O47">
@@ -5175,25 +5644,35 @@
       <c r="X47" s="8">
         <v>4.4042445626588416</v>
       </c>
-      <c r="Z47" s="1">
-        <f>Q47*4</f>
+      <c r="Y47" s="24">
+        <v>-0.80756410256410094</v>
+      </c>
+      <c r="Z47" s="28">
+        <v>2.473021313130527</v>
+      </c>
+      <c r="AB47" s="1">
+        <f t="shared" si="3"/>
         <v>17.78692307692307</v>
       </c>
-      <c r="AA47" s="10">
+      <c r="AC47" s="10">
         <v>3.8222462779682691</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <v>-0.98989316239316105</v>
       </c>
-      <c r="AC47" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE47" s="12">
+        <f t="shared" si="1"/>
         <v>-3.9595726495726442</v>
       </c>
-      <c r="AE47" s="9">
+      <c r="AF47" s="26">
+        <f t="shared" si="2"/>
+        <v>-3.2302564102564038</v>
+      </c>
+      <c r="AH47" s="9">
         <v>660.43364625779054</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -5230,10 +5709,10 @@
       <c r="L48" s="7">
         <v>-8.9139254199910312</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="28">
         <v>1.4172318616951118</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="26">
         <v>-2.1599999999999984</v>
       </c>
       <c r="O48">
@@ -5263,25 +5742,35 @@
       <c r="X48" s="8">
         <v>4.1950860519190458</v>
       </c>
-      <c r="Z48" s="1">
-        <f>Q48*4</f>
+      <c r="Y48" s="24">
+        <v>-0.54442028985507518</v>
+      </c>
+      <c r="Z48" s="28">
+        <v>1.821296849374302</v>
+      </c>
+      <c r="AB48" s="1">
+        <f t="shared" si="3"/>
         <v>17.594347826086967</v>
       </c>
-      <c r="AA48" s="10">
+      <c r="AC48" s="10">
         <v>3.173194660643607</v>
       </c>
-      <c r="AB48">
+      <c r="AD48">
         <v>-0.77290319583798039</v>
       </c>
-      <c r="AC48" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE48" s="12">
+        <f t="shared" si="1"/>
         <v>-3.0916127833519216</v>
       </c>
-      <c r="AE48" s="9">
+      <c r="AF48" s="26">
+        <f t="shared" si="2"/>
+        <v>-2.1776811594203007</v>
+      </c>
+      <c r="AH48" s="9">
         <v>659.36799396648155</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -5318,10 +5807,10 @@
       <c r="L49" s="7">
         <v>-11.544832775946734</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="28">
         <v>1.1906377678994051</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="26">
         <v>2.4933333333333358</v>
       </c>
       <c r="O49">
@@ -5351,25 +5840,35 @@
       <c r="X49" s="8">
         <v>4.4289365591060808</v>
       </c>
-      <c r="Z49" s="1">
-        <f>Q49*4</f>
+      <c r="Y49" s="24">
+        <v>0.62290760869565309</v>
+      </c>
+      <c r="Z49" s="28">
+        <v>1.6565700735628801</v>
+      </c>
+      <c r="AB49" s="1">
+        <f t="shared" si="3"/>
         <v>13.588369565217388</v>
       </c>
-      <c r="AA49" s="10">
+      <c r="AC49" s="10">
         <v>2.3791804239158592</v>
       </c>
-      <c r="AB49">
+      <c r="AD49">
         <v>0.29628367707172032</v>
       </c>
-      <c r="AC49" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE49" s="12">
+        <f t="shared" si="1"/>
         <v>1.1851347082868813</v>
       </c>
-      <c r="AE49" s="9">
+      <c r="AF49" s="26">
+        <f t="shared" si="2"/>
+        <v>2.4916304347826124</v>
+      </c>
+      <c r="AH49" s="9">
         <v>658.68832406344984</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -5406,10 +5905,10 @@
       <c r="L50" s="7">
         <v>-6.1226529516609673</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="28">
         <v>0.80302505224079113</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="26">
         <v>1.4266666666666676</v>
       </c>
       <c r="O50">
@@ -5439,25 +5938,35 @@
       <c r="X50" s="8">
         <v>-1.0325568731580399</v>
       </c>
-      <c r="Z50" s="1">
-        <f>Q50*4</f>
+      <c r="Y50" s="24">
+        <v>0.3614722222222202</v>
+      </c>
+      <c r="Z50" s="28">
+        <v>0.96307010258295644</v>
+      </c>
+      <c r="AB50" s="1">
+        <f t="shared" si="3"/>
         <v>14.207444444444452</v>
       </c>
-      <c r="AA50" s="10">
+      <c r="AC50" s="10">
         <v>2.5373927852544562</v>
       </c>
-      <c r="AB50">
+      <c r="AD50">
         <v>0.221322649572647</v>
       </c>
-      <c r="AC50" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE50" s="12">
+        <f t="shared" si="1"/>
         <v>0.88529059829058798</v>
       </c>
-      <c r="AE50" s="9">
+      <c r="AF50" s="26">
+        <f t="shared" si="2"/>
+        <v>1.4458888888888808</v>
+      </c>
+      <c r="AH50" s="9">
         <v>657.08159062034542</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -5494,10 +6003,10 @@
       <c r="L51" s="7">
         <v>-3.3369225710242034</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="28">
         <v>0.97942605783387648</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="26">
         <v>1.3733333333333313</v>
       </c>
       <c r="O51">
@@ -5527,25 +6036,35 @@
       <c r="X51" s="8">
         <v>-2.559554718896377</v>
       </c>
-      <c r="Z51" s="1">
-        <f>Q51*4</f>
+      <c r="Y51" s="24">
+        <v>0.34312271062271282</v>
+      </c>
+      <c r="Z51" s="28">
+        <v>1.119832531002954</v>
+      </c>
+      <c r="AB51" s="1">
+        <f t="shared" si="3"/>
         <v>14.514175824175812</v>
       </c>
-      <c r="AA51" s="10">
+      <c r="AC51" s="10">
         <v>2.8154188053860829</v>
       </c>
-      <c r="AB51">
+      <c r="AD51">
         <v>8.6562881562883831E-2</v>
       </c>
-      <c r="AC51" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE51" s="12">
+        <f t="shared" si="1"/>
         <v>0.34625152625153532</v>
       </c>
-      <c r="AE51" s="9">
+      <c r="AF51" s="26">
+        <f t="shared" si="2"/>
+        <v>1.3724908424908513</v>
+      </c>
+      <c r="AH51" s="9">
         <v>657.495244945541</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -5582,10 +6101,10 @@
       <c r="L52" s="7">
         <v>-1.1230010481410702</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="28">
         <v>-0.26552479245882665</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="26">
         <v>4.4799999999999986</v>
       </c>
       <c r="O52">
@@ -5615,25 +6134,35 @@
       <c r="X52" s="8">
         <v>-2.9600469776290739</v>
       </c>
-      <c r="Z52" s="1">
-        <f>Q52*4</f>
+      <c r="Y52" s="24">
+        <v>1.1184873188405799</v>
+      </c>
+      <c r="Z52" s="28">
+        <v>-0.14924350075432141</v>
+      </c>
+      <c r="AB52" s="1">
+        <f t="shared" si="3"/>
         <v>11.012717391304344</v>
       </c>
-      <c r="AA52" s="10">
+      <c r="AC52" s="10">
         <v>2.1328938254380989</v>
       </c>
-      <c r="AB52">
+      <c r="AD52">
         <v>0.85077364362690444</v>
       </c>
-      <c r="AC52" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE52" s="12">
+        <f t="shared" si="1"/>
         <v>3.4030945745076178</v>
       </c>
-      <c r="AE52" s="9">
+      <c r="AF52" s="26">
+        <f t="shared" si="2"/>
+        <v>4.4739492753623198</v>
+      </c>
+      <c r="AH52" s="9">
         <v>656.99388483801624</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -5670,10 +6199,10 @@
       <c r="L53" s="7">
         <v>6.0634298070081805</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="28">
         <v>1.0960792669063135</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="26">
         <v>5.0233333333333334</v>
       </c>
       <c r="O53">
@@ -5703,25 +6232,35 @@
       <c r="X53" s="8">
         <v>-1.974540432686416</v>
       </c>
-      <c r="Z53" s="1">
-        <f>Q53*4</f>
+      <c r="Y53" s="24">
+        <v>1.256521739130434</v>
+      </c>
+      <c r="Z53" s="28">
+        <v>1.311967902203365</v>
+      </c>
+      <c r="AB53" s="1">
+        <f t="shared" si="3"/>
         <v>9.2839130434782646</v>
       </c>
-      <c r="AA53" s="10">
+      <c r="AC53" s="10">
         <v>1.1248653708948591</v>
       </c>
-      <c r="AB53">
+      <c r="AD53">
         <v>0.80874396135265592</v>
       </c>
-      <c r="AC53" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE53" s="12">
+        <f t="shared" si="1"/>
         <v>3.2349758454106237</v>
       </c>
-      <c r="AE53" s="9">
+      <c r="AF53" s="26">
+        <f t="shared" si="2"/>
+        <v>5.0260869565217359</v>
+      </c>
+      <c r="AH53" s="9">
         <v>656.16387727195024</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -5758,10 +6297,10 @@
       <c r="L54" s="7">
         <v>15.193195137361926</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="28">
         <v>1.3067520967910973</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="26">
         <v>4.6933333333333334</v>
       </c>
       <c r="O54">
@@ -5791,25 +6330,35 @@
       <c r="X54" s="8">
         <v>-2.6365947632541462</v>
       </c>
-      <c r="Z54" s="1">
-        <f>Q54*4</f>
+      <c r="Y54" s="24">
+        <v>1.172277777777778</v>
+      </c>
+      <c r="Z54" s="28">
+        <v>-0.47827911020654718</v>
+      </c>
+      <c r="AB54" s="1">
+        <f t="shared" si="3"/>
         <v>8.6575555555555557</v>
       </c>
-      <c r="AA54" s="10">
+      <c r="AC54" s="10">
         <v>2.665977399296191</v>
       </c>
-      <c r="AB54">
+      <c r="AD54">
         <v>0.81533333333333369</v>
       </c>
-      <c r="AC54" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE54" s="12">
+        <f t="shared" si="1"/>
         <v>3.2613333333333347</v>
       </c>
-      <c r="AE54" s="9">
+      <c r="AF54" s="26">
+        <f t="shared" si="2"/>
+        <v>4.6891111111111119</v>
+      </c>
+      <c r="AH54" s="9">
         <v>656.29008608707625</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5846,10 +6395,10 @@
       <c r="L55" s="7">
         <v>10.384329807806481</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="28">
         <v>2.3864514497327516</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="26">
         <v>3.9300000000000015</v>
       </c>
       <c r="O55">
@@ -5879,25 +6428,35 @@
       <c r="X55" s="8">
         <v>0.59746256888875515</v>
       </c>
-      <c r="Z55" s="1">
-        <f>Q55*4</f>
+      <c r="Y55" s="24">
+        <v>0.98264652014652132</v>
+      </c>
+      <c r="Z55" s="28">
+        <v>2.643486701191391</v>
+      </c>
+      <c r="AB55" s="1">
+        <f t="shared" si="3"/>
         <v>8.8027472527472472</v>
       </c>
-      <c r="AA55" s="10">
+      <c r="AC55" s="10">
         <v>2.1827704821800951</v>
       </c>
-      <c r="AB55">
+      <c r="AD55">
         <v>0.63595848595848725</v>
       </c>
-      <c r="AC55" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE55" s="12">
+        <f t="shared" si="1"/>
         <v>2.543833943833949</v>
       </c>
-      <c r="AE55" s="9">
+      <c r="AF55" s="26">
+        <f t="shared" si="2"/>
+        <v>3.9305860805860853</v>
+      </c>
+      <c r="AH55" s="9">
         <v>657.06553211340145</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -5934,10 +6493,10 @@
       <c r="L56" s="7">
         <v>8.6662276045033515</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="28">
         <v>2.989273816025162</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="26">
         <v>3.2333333333333343</v>
       </c>
       <c r="O56">
@@ -5967,25 +6526,35 @@
       <c r="X56" s="8">
         <v>4.0375133709959261</v>
       </c>
-      <c r="Z56" s="1">
-        <f>Q56*4</f>
+      <c r="Y56" s="24">
+        <v>0.80879528985507232</v>
+      </c>
+      <c r="Z56" s="28">
+        <v>3.1536332829224101</v>
+      </c>
+      <c r="AB56" s="1">
+        <f t="shared" si="3"/>
         <v>9.4581521739130441</v>
       </c>
-      <c r="AA56" s="10">
+      <c r="AC56" s="10">
         <v>2.1209729905397481</v>
       </c>
-      <c r="AB56">
+      <c r="AD56">
         <v>0.53625560731538968</v>
       </c>
-      <c r="AC56" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE56" s="12">
+        <f t="shared" si="1"/>
         <v>2.1450224292615587</v>
       </c>
-      <c r="AE56" s="9">
+      <c r="AF56" s="26">
+        <f t="shared" si="2"/>
+        <v>3.2351811594202893</v>
+      </c>
+      <c r="AH56" s="9">
         <v>659.16154774504741</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -6022,10 +6591,10 @@
       <c r="L57" s="7">
         <v>4.0256149637442284</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="28">
         <v>2.5105739171467301</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="26">
         <v>3.0933333333333337</v>
       </c>
       <c r="O57">
@@ -6055,25 +6624,35 @@
       <c r="X57" s="8">
         <v>6.1255426112803262</v>
       </c>
-      <c r="Z57" s="1">
-        <f>Q57*4</f>
+      <c r="Y57" s="24">
+        <v>0.77330615942029102</v>
+      </c>
+      <c r="Z57" s="28">
+        <v>2.6093842907807878</v>
+      </c>
+      <c r="AB57" s="1">
+        <f t="shared" si="3"/>
         <v>9.4301086956521676</v>
       </c>
-      <c r="AA57" s="10">
+      <c r="AC57" s="10">
         <v>2.9566326479321039</v>
       </c>
-      <c r="AB57">
+      <c r="AD57">
         <v>0.56469504830917927</v>
       </c>
-      <c r="AC57" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE57" s="12">
+        <f t="shared" si="1"/>
         <v>2.2587801932367171</v>
       </c>
-      <c r="AE57" s="9">
+      <c r="AF57" s="26">
+        <f t="shared" si="2"/>
+        <v>3.0932246376811641</v>
+      </c>
+      <c r="AH57" s="9">
         <v>659.88857091129148</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -6110,10 +6689,10 @@
       <c r="L58" s="7">
         <v>1.6616816009319635</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="28">
         <v>2.0604091269128544</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="26">
         <v>2.5233333333333352</v>
       </c>
       <c r="O58">
@@ -6143,25 +6722,35 @@
       <c r="X58" s="8">
         <v>3.1124905141358901</v>
       </c>
-      <c r="Z58" s="1">
-        <f>Q58*4</f>
+      <c r="Y58" s="24">
+        <v>0.63035714285714262</v>
+      </c>
+      <c r="Z58" s="28">
+        <v>2.4477798573575571</v>
+      </c>
+      <c r="AB58" s="1">
+        <f t="shared" si="3"/>
         <v>9.6885714285714322</v>
       </c>
-      <c r="AA58" s="10">
+      <c r="AC58" s="10">
         <v>3.4914919426753581</v>
       </c>
-      <c r="AB58">
+      <c r="AD58">
         <v>0.53546398046398025</v>
       </c>
-      <c r="AC58" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE58" s="12">
+        <f t="shared" si="1"/>
         <v>2.141855921855921</v>
       </c>
-      <c r="AE58" s="9">
+      <c r="AF58" s="26">
+        <f t="shared" si="2"/>
+        <v>2.5214285714285705</v>
+      </c>
+      <c r="AH58" s="9">
         <v>660.85518529881222</v>
       </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -6198,10 +6787,10 @@
       <c r="L59" s="7">
         <v>1.5746184545629482</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="28">
         <v>2.8472223461006196</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="26">
         <v>1.5966666666666676</v>
       </c>
       <c r="O59">
@@ -6231,25 +6820,35 @@
       <c r="X59" s="8">
         <v>5.1467154517514224</v>
       </c>
-      <c r="Z59" s="1">
-        <f>Q59*4</f>
+      <c r="Y59" s="24">
+        <v>0.39965201465201527</v>
+      </c>
+      <c r="Z59" s="28">
+        <v>2.8848402928129548</v>
+      </c>
+      <c r="AB59" s="1">
+        <f t="shared" si="3"/>
         <v>10.554725274725271</v>
       </c>
-      <c r="AA59" s="10">
+      <c r="AC59" s="10">
         <v>4.340941648669884</v>
       </c>
-      <c r="AB59">
+      <c r="AD59">
         <v>0.55796398046398021</v>
       </c>
-      <c r="AC59" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE59" s="12">
+        <f t="shared" si="1"/>
         <v>2.2318559218559209</v>
       </c>
-      <c r="AE59" s="9">
+      <c r="AF59" s="26">
+        <f t="shared" si="2"/>
+        <v>1.5986080586080611</v>
+      </c>
+      <c r="AH59" s="9">
         <v>662.06876805940715</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -6286,10 +6885,10 @@
       <c r="L60" s="7">
         <v>-1.0678327036410806</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="28">
         <v>2.4531231004208953</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="26">
         <v>1.2899999999999991</v>
       </c>
       <c r="O60">
@@ -6319,25 +6918,35 @@
       <c r="X60" s="8">
         <v>3.3096107656961991</v>
       </c>
-      <c r="Z60" s="1">
-        <f>Q60*4</f>
+      <c r="Y60" s="24">
+        <v>0.32192934782608779</v>
+      </c>
+      <c r="Z60" s="28">
+        <v>2.825415705076066</v>
+      </c>
+      <c r="AB60" s="1">
+        <f t="shared" si="3"/>
         <v>11.392282608695648</v>
       </c>
-      <c r="AA60" s="10">
+      <c r="AC60" s="10">
         <v>3.089452730345073</v>
       </c>
-      <c r="AB60">
+      <c r="AD60">
         <v>0.35376695466369551</v>
       </c>
-      <c r="AC60" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE60" s="12">
+        <f t="shared" si="1"/>
         <v>1.415067818654782</v>
       </c>
-      <c r="AE60" s="9">
+      <c r="AF60" s="26">
+        <f t="shared" si="2"/>
+        <v>1.2877173913043511</v>
+      </c>
+      <c r="AH60" s="9">
         <v>661.73158138086887</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -6374,10 +6983,10 @@
       <c r="L61" s="7">
         <v>-6.2493833489440931E-2</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="28">
         <v>2.1751020413884214</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="26">
         <v>3.5966666666666676</v>
       </c>
       <c r="O61">
@@ -6407,25 +7016,35 @@
       <c r="X61" s="8">
         <v>2.4853350230358289</v>
       </c>
-      <c r="Z61" s="1">
-        <f>Q61*4</f>
+      <c r="Y61" s="24">
+        <v>0.90020833333333483</v>
+      </c>
+      <c r="Z61" s="28">
+        <v>2.5853742819023622</v>
+      </c>
+      <c r="AB61" s="1">
+        <f t="shared" si="3"/>
         <v>9.2624999999999957</v>
       </c>
-      <c r="AA61" s="10">
+      <c r="AC61" s="10">
         <v>4.1356909363663696</v>
       </c>
-      <c r="AB61">
+      <c r="AD61">
         <v>0.60832799145299221</v>
       </c>
-      <c r="AC61" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE61" s="12">
+        <f t="shared" si="1"/>
         <v>2.4333119658119688</v>
       </c>
-      <c r="AE61" s="9">
+      <c r="AF61" s="26">
+        <f t="shared" si="2"/>
+        <v>3.6008333333333393</v>
+      </c>
+      <c r="AH61" s="9">
         <v>661.86356498009093</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -6462,10 +7081,10 @@
       <c r="L62" s="7">
         <v>-1.1592345718141495</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="28">
         <v>4.5151496485724696</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="26">
         <v>3.8800000000000008</v>
       </c>
       <c r="O62">
@@ -6495,25 +7114,35 @@
       <c r="X62" s="8">
         <v>1.3929418488766141</v>
       </c>
-      <c r="Z62" s="1">
-        <f>Q62*4</f>
+      <c r="Y62" s="24">
+        <v>0.97038888888888897</v>
+      </c>
+      <c r="Z62" s="28">
+        <v>4.8382792616612518</v>
+      </c>
+      <c r="AB62" s="1">
+        <f t="shared" si="3"/>
         <v>8.4751111111111115</v>
       </c>
-      <c r="AA62" s="10">
+      <c r="AC62" s="10">
         <v>2.2386783046708221</v>
       </c>
-      <c r="AB62">
+      <c r="AD62">
         <v>0.74844444444444402</v>
       </c>
-      <c r="AC62" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE62" s="12">
+        <f t="shared" si="1"/>
         <v>2.9937777777777761</v>
       </c>
-      <c r="AE62" s="9">
+      <c r="AF62" s="26">
+        <f t="shared" si="2"/>
+        <v>3.8815555555555559</v>
+      </c>
+      <c r="AH62" s="9">
         <v>662.32097710115079</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -6550,10 +7179,10 @@
       <c r="L63" s="7">
         <v>0.17060546002030108</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="28">
         <v>2.7708866436844559</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="26">
         <v>4.0600000000000014</v>
       </c>
       <c r="O63">
@@ -6583,25 +7212,35 @@
       <c r="X63" s="8">
         <v>1.5252917255268721</v>
       </c>
-      <c r="Z63" s="1">
-        <f>Q63*4</f>
+      <c r="Y63" s="24">
+        <v>1.0147344322344329</v>
+      </c>
+      <c r="Z63" s="28">
+        <v>2.8878891029681348</v>
+      </c>
+      <c r="AB63" s="1">
+        <f t="shared" si="3"/>
         <v>7.9243956043956043</v>
       </c>
-      <c r="AA63" s="10">
+      <c r="AC63" s="10">
         <v>2.908920475938904</v>
       </c>
-      <c r="AB63">
+      <c r="AD63">
         <v>0.79746947496947462</v>
       </c>
-      <c r="AC63" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE63" s="12">
+        <f t="shared" si="1"/>
         <v>3.1898778998778985</v>
       </c>
-      <c r="AE63" s="9">
+      <c r="AF63" s="26">
+        <f t="shared" si="2"/>
+        <v>4.0589377289377317</v>
+      </c>
+      <c r="AH63" s="9">
         <v>662.35523512026009</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -6638,10 +7277,10 @@
       <c r="L64" s="7">
         <v>1.3084769115597972</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="28">
         <v>3.1126188187809767</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="26">
         <v>3.419999999999999</v>
       </c>
       <c r="O64">
@@ -6671,25 +7310,35 @@
       <c r="X64" s="8">
         <v>-1.199214904526376</v>
       </c>
-      <c r="Z64" s="1">
-        <f>Q64*4</f>
+      <c r="Y64" s="24">
+        <v>0.85475543478260874</v>
+      </c>
+      <c r="Z64" s="28">
+        <v>4.2833287362720851</v>
+      </c>
+      <c r="AB64" s="1">
+        <f t="shared" si="3"/>
         <v>7.9009782608695636</v>
       </c>
-      <c r="AA64" s="10">
+      <c r="AC64" s="10">
         <v>1.7998478873107611</v>
       </c>
-      <c r="AB64">
+      <c r="AD64">
         <v>0.6617853493125232</v>
       </c>
-      <c r="AC64" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE64" s="12">
+        <f t="shared" si="1"/>
         <v>2.6471413972500928</v>
       </c>
-      <c r="AE64" s="9">
+      <c r="AF64" s="26">
+        <f t="shared" si="2"/>
+        <v>3.4190217391304349</v>
+      </c>
+      <c r="AH64" s="9">
         <v>662.26342211996598</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -6726,10 +7375,10 @@
       <c r="L65" s="7">
         <v>2.5404524852121746</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="28">
         <v>3.0193432907787088</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="26">
         <v>3.0833333333333321</v>
       </c>
       <c r="O65">
@@ -6759,25 +7408,35 @@
       <c r="X65" s="8">
         <v>2.1595838336385542</v>
       </c>
-      <c r="Z65" s="1">
-        <f>Q65*4</f>
+      <c r="Y65" s="24">
+        <v>0.77055253623188324</v>
+      </c>
+      <c r="Z65" s="28">
+        <v>3.377405381157359</v>
+      </c>
+      <c r="AB65" s="1">
+        <f t="shared" si="3"/>
         <v>8.1044565217391327</v>
       </c>
-      <c r="AA65" s="10">
+      <c r="AC65" s="10">
         <v>3.3372783987592838</v>
       </c>
-      <c r="AB65">
+      <c r="AD65">
         <v>0.49437732255667027</v>
       </c>
-      <c r="AC65" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE65" s="12">
+        <f t="shared" si="1"/>
         <v>1.9775092902266811</v>
       </c>
-      <c r="AE65" s="9">
+      <c r="AF65" s="26">
+        <f t="shared" si="2"/>
+        <v>3.082210144927533</v>
+      </c>
+      <c r="AH65" s="9">
         <v>662.5858948321652</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -6814,10 +7473,10 @@
       <c r="L66" s="7">
         <v>4.3762836596641819</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="28">
         <v>1.5005300138099642</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="26">
         <v>2.9200000000000008</v>
       </c>
       <c r="O66">
@@ -6847,25 +7506,35 @@
       <c r="X66" s="8">
         <v>-1.2066511413116481</v>
       </c>
-      <c r="Z66" s="1">
-        <f>Q66*4</f>
+      <c r="Y66" s="24">
+        <v>0.72994444444444606</v>
+      </c>
+      <c r="Z66" s="28">
+        <v>1.821793037383781</v>
+      </c>
+      <c r="AB66" s="1">
+        <f t="shared" ref="AB66:AB97" si="4">Q66*4</f>
         <v>7.8268888888888837</v>
       </c>
-      <c r="AA66" s="10">
+      <c r="AC66" s="10">
         <v>2.3840389470376042</v>
       </c>
-      <c r="AB66">
+      <c r="AD66">
         <v>0.32492307692307748</v>
       </c>
-      <c r="AC66" s="12">
-        <f t="shared" si="0"/>
+      <c r="AE66" s="12">
+        <f t="shared" si="1"/>
         <v>1.2996923076923099</v>
       </c>
-      <c r="AE66" s="9">
+      <c r="AF66" s="26">
+        <f t="shared" si="2"/>
+        <v>2.9197777777777842</v>
+      </c>
+      <c r="AH66" s="9">
         <v>662.50773174819199</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -6902,10 +7571,10 @@
       <c r="L67" s="7">
         <v>5.5379859063073411</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="28">
         <v>3.4301219039000408</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="26">
         <v>3.3233333333333333</v>
       </c>
       <c r="O67">
@@ -6935,25 +7604,35 @@
       <c r="X67" s="8">
         <v>-1.8570458048773391</v>
       </c>
-      <c r="Z67" s="1">
-        <f>Q67*4</f>
+      <c r="Y67" s="24">
+        <v>0.83121794871794674</v>
+      </c>
+      <c r="Z67" s="28">
+        <v>3.2660669468937988</v>
+      </c>
+      <c r="AB67" s="1">
+        <f t="shared" si="4"/>
         <v>6.9184615384615444</v>
       </c>
-      <c r="AA67" s="10">
+      <c r="AC67" s="10">
         <v>3.0061310378188808</v>
       </c>
-      <c r="AB67">
+      <c r="AD67">
         <v>0.35856837606837438</v>
       </c>
-      <c r="AC67" s="12">
-        <f t="shared" ref="AC67:AC130" si="1">AB67*4</f>
+      <c r="AE67" s="12">
+        <f t="shared" ref="AE67:AE130" si="5">AD67*4</f>
         <v>1.4342735042734975</v>
       </c>
-      <c r="AE67" s="9">
+      <c r="AF67" s="26">
+        <f t="shared" ref="AF67:AF130" si="6">Y67*4</f>
+        <v>3.324871794871787</v>
+      </c>
+      <c r="AH67" s="9">
         <v>662.07885072391161</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -6990,10 +7669,10 @@
       <c r="L68" s="7">
         <v>1.9720500277086828</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="28">
         <v>3.7914534809093237</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="26">
         <v>4</v>
       </c>
       <c r="O68">
@@ -7023,25 +7702,35 @@
       <c r="X68" s="8">
         <v>-0.77594957709111856</v>
       </c>
-      <c r="Z68" s="1">
-        <f>Q68*4</f>
+      <c r="Y68" s="24">
+        <v>0.99930253623188459</v>
+      </c>
+      <c r="Z68" s="28">
+        <v>3.995249609571855</v>
+      </c>
+      <c r="AB68" s="1">
+        <f t="shared" si="4"/>
         <v>6.2094565217391278</v>
       </c>
-      <c r="AA68" s="10">
+      <c r="AC68" s="10">
         <v>2.2500747557923741</v>
       </c>
-      <c r="AB68">
+      <c r="AD68">
         <v>0.51197347640282431</v>
       </c>
-      <c r="AC68" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE68" s="12">
+        <f t="shared" si="5"/>
         <v>2.0478939056112972</v>
       </c>
-      <c r="AE68" s="9">
+      <c r="AF68" s="26">
+        <f t="shared" si="6"/>
+        <v>3.9972101449275383</v>
+      </c>
+      <c r="AH68" s="9">
         <v>662.21088977782188</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -7078,10 +7767,10 @@
       <c r="L69" s="7">
         <v>7.1658943522123764E-3</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="28">
         <v>2.4346658956404088</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="26">
         <v>3.573333333333335</v>
       </c>
       <c r="O69">
@@ -7111,25 +7800,35 @@
       <c r="X69" s="8">
         <v>1.4883815882077129</v>
       </c>
-      <c r="Z69" s="1">
-        <f>Q69*4</f>
+      <c r="Y69" s="24">
+        <v>0.89331521739130482</v>
+      </c>
+      <c r="Z69" s="28">
+        <v>3.7677562842398542</v>
+      </c>
+      <c r="AB69" s="1">
+        <f t="shared" si="4"/>
         <v>6.2667391304347841</v>
       </c>
-      <c r="AA69" s="10">
+      <c r="AC69" s="10">
         <v>3.137498349251028</v>
       </c>
-      <c r="AB69">
+      <c r="AD69">
         <v>0.47880667038275693</v>
       </c>
-      <c r="AC69" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE69" s="12">
+        <f t="shared" si="5"/>
         <v>1.9152266815310277</v>
       </c>
-      <c r="AE69" s="9">
+      <c r="AF69" s="26">
+        <f t="shared" si="6"/>
+        <v>3.5732608695652193</v>
+      </c>
+      <c r="AH69" s="9">
         <v>662.51521328304</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -7166,10 +7865,10 @@
       <c r="L70" s="7">
         <v>-0.49347149803766754</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="28">
         <v>1.9500995225386841</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="26">
         <v>3.0699999999999994</v>
       </c>
       <c r="O70">
@@ -7199,25 +7898,35 @@
       <c r="X70" s="8">
         <v>-2.8017396803706109</v>
       </c>
-      <c r="Z70" s="1">
-        <f>Q70*4</f>
+      <c r="Y70" s="24">
+        <v>0.76686111111111055</v>
+      </c>
+      <c r="Z70" s="28">
+        <v>1.947735118636464</v>
+      </c>
+      <c r="AB70" s="1">
+        <f t="shared" si="4"/>
         <v>6.2225555555555561</v>
       </c>
-      <c r="AA70" s="10">
+      <c r="AC70" s="10">
         <v>2.117348512505699</v>
       </c>
-      <c r="AB70">
+      <c r="AD70">
         <v>0.38427564102564071</v>
       </c>
-      <c r="AC70" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE70" s="12">
+        <f t="shared" si="5"/>
         <v>1.5371025641025629</v>
       </c>
-      <c r="AE70" s="9">
+      <c r="AF70" s="26">
+        <f t="shared" si="6"/>
+        <v>3.0674444444444422</v>
+      </c>
+      <c r="AH70" s="9">
         <v>663.34608128661489</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -7254,10 +7963,10 @@
       <c r="L71" s="7">
         <v>0.35249886695449817</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="28">
         <v>3.7810135728006955</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="26">
         <v>2.616666666666668</v>
       </c>
       <c r="O71">
@@ -7287,25 +7996,35 @@
       <c r="X71" s="8">
         <v>2.2244819681025731</v>
       </c>
-      <c r="Z71" s="1">
-        <f>Q71*4</f>
+      <c r="Y71" s="24">
+        <v>0.65416666666666723</v>
+      </c>
+      <c r="Z71" s="28">
+        <v>4.1477673278295271</v>
+      </c>
+      <c r="AB71" s="1">
+        <f t="shared" si="4"/>
         <v>6.65</v>
       </c>
-      <c r="AA71" s="10">
+      <c r="AC71" s="10">
         <v>2.0776961127695222</v>
       </c>
-      <c r="AB71">
+      <c r="AD71">
         <v>0.44068376068376119</v>
       </c>
-      <c r="AC71" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE71" s="12">
+        <f t="shared" si="5"/>
         <v>1.7627350427350448</v>
       </c>
-      <c r="AE71" s="9">
+      <c r="AF71" s="26">
+        <f t="shared" si="6"/>
+        <v>2.6166666666666689</v>
+      </c>
+      <c r="AH71" s="9">
         <v>663.75002346710414</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -7342,10 +8061,10 @@
       <c r="L72" s="7">
         <v>-0.49385725695261229</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="28">
         <v>2.6577270628348693</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="26">
         <v>2.5266666666666655</v>
       </c>
       <c r="O72">
@@ -7375,25 +8094,35 @@
       <c r="X72" s="8">
         <v>3.0409032547850829</v>
       </c>
-      <c r="Z72" s="1">
-        <f>Q72*4</f>
+      <c r="Y72" s="24">
+        <v>0.63260869565217392</v>
+      </c>
+      <c r="Z72" s="28">
+        <v>2.8267749006655429</v>
+      </c>
+      <c r="AB72" s="1">
+        <f t="shared" si="4"/>
         <v>6.8395652173913044</v>
       </c>
-      <c r="AA72" s="10">
+      <c r="AC72" s="10">
         <v>1.7266479451727439</v>
       </c>
-      <c r="AB72">
+      <c r="AD72">
         <v>0.5254078409513192</v>
       </c>
-      <c r="AC72" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE72" s="12">
+        <f t="shared" si="5"/>
         <v>2.1016313638052768</v>
       </c>
-      <c r="AE72" s="9">
+      <c r="AF72" s="26">
+        <f t="shared" si="6"/>
+        <v>2.5304347826086957</v>
+      </c>
+      <c r="AH72" s="9">
         <v>664.06093210989945</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -7430,10 +8159,10 @@
       <c r="L73" s="7">
         <v>0.39148546582881139</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="28">
         <v>1.3117809666303604</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="26">
         <v>2.3400000000000007</v>
       </c>
       <c r="O73">
@@ -7463,25 +8192,35 @@
       <c r="X73" s="8">
         <v>0.56001639732220865</v>
       </c>
-      <c r="Z73" s="1">
-        <f>Q73*4</f>
+      <c r="Y73" s="24">
+        <v>0.58424818840579706</v>
+      </c>
+      <c r="Z73" s="28">
+        <v>1.4148918413242799</v>
+      </c>
+      <c r="AB73" s="1">
+        <f t="shared" si="4"/>
         <v>6.9196739130434803</v>
       </c>
-      <c r="AA73" s="10">
+      <c r="AC73" s="10">
         <v>2.2876422927283069</v>
       </c>
-      <c r="AB73">
+      <c r="AD73">
         <v>0.63730374396135292</v>
       </c>
-      <c r="AC73" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE73" s="12">
+        <f t="shared" si="5"/>
         <v>2.5492149758454117</v>
       </c>
-      <c r="AE73" s="9">
+      <c r="AF73" s="26">
+        <f t="shared" si="6"/>
+        <v>2.3369927536231883</v>
+      </c>
+      <c r="AH73" s="9">
         <v>664.59776698935866</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -7518,10 +8257,10 @@
       <c r="L74" s="7">
         <v>-2.4033095626268874</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="28">
         <v>2.1093537829954379</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="26">
         <v>2.5166666666666657</v>
       </c>
       <c r="O74">
@@ -7551,25 +8290,35 @@
       <c r="X74" s="8">
         <v>1.6614744390522169</v>
       </c>
-      <c r="Z74" s="1">
-        <f>Q74*4</f>
+      <c r="Y74" s="24">
+        <v>0.62851648351648248</v>
+      </c>
+      <c r="Z74" s="28">
+        <v>2.5382909675616512</v>
+      </c>
+      <c r="AB74" s="1">
+        <f t="shared" si="4"/>
         <v>6.665934065934068</v>
       </c>
-      <c r="AA74" s="10">
+      <c r="AC74" s="10">
         <v>2.3107869643435111</v>
       </c>
-      <c r="AB74">
+      <c r="AD74">
         <v>0.54900793650793545</v>
       </c>
-      <c r="AC74" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE74" s="12">
+        <f t="shared" si="5"/>
         <v>2.1960317460317418</v>
       </c>
-      <c r="AE74" s="9">
+      <c r="AF74" s="26">
+        <f t="shared" si="6"/>
+        <v>2.5140659340659299</v>
+      </c>
+      <c r="AH74" s="9">
         <v>664.23019431596265</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -7606,10 +8355,10 @@
       <c r="L75" s="7">
         <v>0.52678645493351439</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="28">
         <v>3.2607922953025614</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="26">
         <v>2.0700000000000003</v>
       </c>
       <c r="O75">
@@ -7639,25 +8388,35 @@
       <c r="X75" s="8">
         <v>2.9050306258551268</v>
       </c>
-      <c r="Z75" s="1">
-        <f>Q75*4</f>
+      <c r="Y75" s="24">
+        <v>0.51793040293040415</v>
+      </c>
+      <c r="Z75" s="28">
+        <v>3.4896341639010591</v>
+      </c>
+      <c r="AB75" s="1">
+        <f t="shared" si="4"/>
         <v>7.1549450549450482</v>
       </c>
-      <c r="AA75" s="10">
+      <c r="AC75" s="10">
         <v>2.6064181431611151</v>
       </c>
-      <c r="AB75">
+      <c r="AD75">
         <v>0.47233211233211381</v>
       </c>
-      <c r="AC75" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE75" s="12">
+        <f t="shared" si="5"/>
         <v>1.8893284493284552</v>
       </c>
-      <c r="AE75" s="9">
+      <c r="AF75" s="26">
+        <f t="shared" si="6"/>
+        <v>2.0717216117216166</v>
+      </c>
+      <c r="AH75" s="9">
         <v>664.72108054507839</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -7694,10 +8453,10 @@
       <c r="L76" s="7">
         <v>-0.69696441101108064</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="28">
         <v>2.6940007095128227</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="26">
         <v>1.3066666666666675</v>
       </c>
       <c r="O76">
@@ -7727,25 +8486,35 @@
       <c r="X76" s="8">
         <v>0.92052340574017111</v>
       </c>
-      <c r="Z76" s="1">
-        <f>Q76*4</f>
+      <c r="Y76" s="24">
+        <v>0.32663043478260922</v>
+      </c>
+      <c r="Z76" s="28">
+        <v>2.91823679065083</v>
+      </c>
+      <c r="AB76" s="1">
+        <f t="shared" si="4"/>
         <v>7.983478260869564</v>
       </c>
-      <c r="AA76" s="10">
+      <c r="AC76" s="10">
         <v>1.707211105708349</v>
       </c>
-      <c r="AB76">
+      <c r="AD76">
         <v>0.29188837129054601</v>
       </c>
-      <c r="AC76" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE76" s="12">
+        <f t="shared" si="5"/>
         <v>1.167553485162184</v>
       </c>
-      <c r="AE76" s="9">
+      <c r="AF76" s="26">
+        <f t="shared" si="6"/>
+        <v>1.3065217391304369</v>
+      </c>
+      <c r="AH76" s="9">
         <v>664.82511944498322</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -7782,10 +8551,10 @@
       <c r="L77" s="7">
         <v>0.8376025395329556</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="28">
         <v>2.4427491064962226</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="26">
         <v>0.99333333333333407</v>
       </c>
       <c r="O77">
@@ -7815,25 +8584,35 @@
       <c r="X77" s="8">
         <v>2.0234424876186332</v>
       </c>
-      <c r="Z77" s="1">
-        <f>Q77*4</f>
+      <c r="Y77" s="24">
+        <v>0.2487137681159424</v>
+      </c>
+      <c r="Z77" s="28">
+        <v>2.7264973265863022</v>
+      </c>
+      <c r="AB77" s="1">
+        <f t="shared" si="4"/>
         <v>8.4684782608695635</v>
       </c>
-      <c r="AA77" s="10">
+      <c r="AC77" s="10">
         <v>2.5081011206599451</v>
       </c>
-      <c r="AB77">
+      <c r="AD77">
         <v>3.087188777406169E-2</v>
       </c>
-      <c r="AC77" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE77" s="12">
+        <f t="shared" si="5"/>
         <v>0.12348755109624676</v>
       </c>
-      <c r="AE77" s="9">
+      <c r="AF77" s="26">
+        <f t="shared" si="6"/>
+        <v>0.99485507246376959</v>
+      </c>
+      <c r="AH77" s="9">
         <v>665.60832878422889</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -7870,10 +8649,10 @@
       <c r="L78" s="7">
         <v>-1.3244400350068908</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="28">
         <v>1.2866977235349797</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="26">
         <v>0.34666666666666757</v>
       </c>
       <c r="O78">
@@ -7903,25 +8682,35 @@
       <c r="X78" s="8">
         <v>2.0848328595039991</v>
       </c>
-      <c r="Z78" s="1">
-        <f>Q78*4</f>
+      <c r="Y78" s="24">
+        <v>8.5888888888889792E-2</v>
+      </c>
+      <c r="Z78" s="28">
+        <v>1.6435445614546009</v>
+      </c>
+      <c r="AB78" s="1">
+        <f t="shared" si="4"/>
         <v>9.44644444444444</v>
       </c>
-      <c r="AA78" s="10">
+      <c r="AC78" s="10">
         <v>2.0416781290681669</v>
       </c>
-      <c r="AB78">
+      <c r="AD78">
         <v>-0.17977350427350339</v>
       </c>
-      <c r="AC78" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE78" s="12">
+        <f t="shared" si="5"/>
         <v>-0.71909401709401355</v>
       </c>
-      <c r="AE78" s="9">
+      <c r="AF78" s="26">
+        <f t="shared" si="6"/>
+        <v>0.34355555555555917</v>
+      </c>
+      <c r="AH78" s="9">
         <v>666.26409538694986</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -7958,10 +8747,10 @@
       <c r="L79" s="7">
         <v>-3.0128427417604797</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="28">
         <v>2.4088698474596271</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="26">
         <v>0.62333333333333485</v>
       </c>
       <c r="O79">
@@ -7991,25 +8780,35 @@
       <c r="X79" s="8">
         <v>1.7767815726941021</v>
       </c>
-      <c r="Z79" s="1">
-        <f>Q79*4</f>
+      <c r="Y79" s="24">
+        <v>0.1560714285714275</v>
+      </c>
+      <c r="Z79" s="28">
+        <v>2.7219312836334741</v>
+      </c>
+      <c r="AB79" s="1">
+        <f t="shared" si="4"/>
         <v>9.7257142857142913</v>
       </c>
-      <c r="AA79" s="10">
+      <c r="AC79" s="10">
         <v>2.199968023324653</v>
       </c>
-      <c r="AB79">
+      <c r="AD79">
         <v>-0.32132173382173562</v>
       </c>
-      <c r="AC79" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE79" s="12">
+        <f t="shared" si="5"/>
         <v>-1.2852869352869425</v>
       </c>
-      <c r="AE79" s="9">
+      <c r="AF79" s="26">
+        <f t="shared" si="6"/>
+        <v>0.62428571428571</v>
+      </c>
+      <c r="AH79" s="9">
         <v>666.43984127145234</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -8046,10 +8845,10 @@
       <c r="L80" s="7">
         <v>-1.6338048753921086</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="28">
         <v>2.6679087955440384</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="26">
         <v>1.1533333333333324</v>
       </c>
       <c r="O80">
@@ -8079,25 +8878,35 @@
       <c r="X80" s="8">
         <v>3.2687989556118389</v>
       </c>
-      <c r="Z80" s="1">
-        <f>Q80*4</f>
+      <c r="Y80" s="24">
+        <v>0.28826992753623237</v>
+      </c>
+      <c r="Z80" s="28">
+        <v>2.947527669609471</v>
+      </c>
+      <c r="AB80" s="1">
+        <f t="shared" si="4"/>
         <v>9.0835869565217369</v>
       </c>
-      <c r="AA80" s="10">
+      <c r="AC80" s="10">
         <v>0.89424574263445322</v>
       </c>
-      <c r="AB80">
+      <c r="AD80">
         <v>-0.27925143998513541</v>
       </c>
-      <c r="AC80" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE80" s="12">
+        <f t="shared" si="5"/>
         <v>-1.1170057599405416</v>
       </c>
-      <c r="AE80" s="9">
+      <c r="AF80" s="26">
+        <f t="shared" si="6"/>
+        <v>1.1530797101449295</v>
+      </c>
+      <c r="AH80" s="9">
         <v>666.61443396748382</v>
       </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -8134,10 +8943,10 @@
       <c r="L81" s="7">
         <v>-2.4038643981960206</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="28">
         <v>1.8229259424295652</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="26">
         <v>1.4833333333333325</v>
       </c>
       <c r="O81">
@@ -8167,25 +8976,35 @@
       <c r="X81" s="8">
         <v>-0.98570726194436509</v>
       </c>
-      <c r="Z81" s="1">
-        <f>Q81*4</f>
+      <c r="Y81" s="24">
+        <v>0.37055253623188328</v>
+      </c>
+      <c r="Z81" s="28">
+        <v>2.213323210101831</v>
+      </c>
+      <c r="AB81" s="1">
+        <f t="shared" si="4"/>
         <v>8.6144565217391325</v>
       </c>
-      <c r="AA81" s="10">
+      <c r="AC81" s="10">
         <v>1.6235423412320209</v>
       </c>
-      <c r="AB81">
+      <c r="AD81">
         <v>-0.18004575436640741</v>
       </c>
-      <c r="AC81" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE81" s="12">
+        <f t="shared" si="5"/>
         <v>-0.72018301746562963</v>
       </c>
-      <c r="AE81" s="9">
+      <c r="AF81" s="26">
+        <f t="shared" si="6"/>
+        <v>1.4822101449275331</v>
+      </c>
+      <c r="AH81" s="9">
         <v>666.24126223826386</v>
       </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -8222,10 +9041,10 @@
       <c r="L82" s="7">
         <v>-0.14367315899130872</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="28">
         <v>2.5467595989607794</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="26">
         <v>1.7766666666666691</v>
       </c>
       <c r="O82">
@@ -8255,25 +9074,35 @@
       <c r="X82" s="8">
         <v>1.7864802789522931</v>
       </c>
-      <c r="Z82" s="1">
-        <f>Q82*4</f>
+      <c r="Y82" s="24">
+        <v>0.44466666666666788</v>
+      </c>
+      <c r="Z82" s="28">
+        <v>3.2577503852849978</v>
+      </c>
+      <c r="AB82" s="1">
+        <f t="shared" si="4"/>
         <v>8.2479999999999958</v>
       </c>
-      <c r="AA82" s="10">
+      <c r="AC82" s="10">
         <v>1.6388198523749611</v>
       </c>
-      <c r="AB82">
+      <c r="AD82">
         <v>-1.8816239316238551E-2</v>
       </c>
-      <c r="AC82" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE82" s="12">
+        <f t="shared" si="5"/>
         <v>-7.5264957264954205E-2</v>
       </c>
-      <c r="AE82" s="9">
+      <c r="AF82" s="26">
+        <f t="shared" si="6"/>
+        <v>1.7786666666666715</v>
+      </c>
+      <c r="AH82" s="9">
         <v>666.31156828476026</v>
       </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -8310,10 +9139,10 @@
       <c r="L83" s="7">
         <v>-4.8971259150113688</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="28">
         <v>2.4904248419463482</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="26">
         <v>1.9169999999999998</v>
       </c>
       <c r="O83">
@@ -8343,25 +9172,35 @@
       <c r="X83" s="8">
         <v>-1.446040621298901</v>
       </c>
-      <c r="Z83" s="1">
-        <f>Q83*4</f>
+      <c r="Y83" s="24">
+        <v>0.48024816849816832</v>
+      </c>
+      <c r="Z83" s="28">
+        <v>2.5608646425587112</v>
+      </c>
+      <c r="AB83" s="1">
+        <f t="shared" si="4"/>
         <v>8.2393406593406606</v>
       </c>
-      <c r="AA83" s="10">
+      <c r="AC83" s="10">
         <v>1.087690732954804</v>
       </c>
-      <c r="AB83">
+      <c r="AD83">
         <v>3.7771672771673259E-2</v>
       </c>
-      <c r="AC83" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE83" s="12">
+        <f t="shared" si="5"/>
         <v>0.15108669108669304</v>
       </c>
-      <c r="AE83" s="9">
+      <c r="AF83" s="26">
+        <f t="shared" si="6"/>
+        <v>1.9209926739926733</v>
+      </c>
+      <c r="AH83" s="9">
         <v>665.54234038786296</v>
       </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -8398,10 +9237,10 @@
       <c r="L84" s="7">
         <v>-6.5280744231603904</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="28">
         <v>1.7410208561681628</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="26">
         <v>1.8826666666666672</v>
       </c>
       <c r="O84">
@@ -8431,25 +9270,35 @@
       <c r="X84" s="8">
         <v>1.318347068433094</v>
       </c>
-      <c r="Z84" s="1">
-        <f>Q84*4</f>
+      <c r="Y84" s="24">
+        <v>0.47061231884058108</v>
+      </c>
+      <c r="Z84" s="28">
+        <v>2.122346525019553</v>
+      </c>
+      <c r="AB84" s="1">
+        <f t="shared" si="4"/>
         <v>8.1602173913043448</v>
       </c>
-      <c r="AA84" s="10">
+      <c r="AC84" s="10">
         <v>0.54145858270191405</v>
       </c>
-      <c r="AB84">
+      <c r="AD84">
         <v>8.1206335934597362E-2</v>
       </c>
-      <c r="AC84" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE84" s="12">
+        <f t="shared" si="5"/>
         <v>0.32482534373838945</v>
       </c>
-      <c r="AE84" s="9">
+      <c r="AF84" s="26">
+        <f t="shared" si="6"/>
+        <v>1.8824492753623243</v>
+      </c>
+      <c r="AH84" s="9">
         <v>664.7965913869441</v>
       </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -8486,10 +9335,10 @@
       <c r="L85" s="7">
         <v>-6.6167816201840424</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="28">
         <v>1.2605160823603967</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="26">
         <v>2.1773333333333351</v>
       </c>
       <c r="O85">
@@ -8519,25 +9368,35 @@
       <c r="X85" s="8">
         <v>-1.156639400594895</v>
       </c>
-      <c r="Z85" s="1">
-        <f>Q85*4</f>
+      <c r="Y85" s="24">
+        <v>0.54432427536231964</v>
+      </c>
+      <c r="Z85" s="28">
+        <v>1.7244706433609931</v>
+      </c>
+      <c r="AB85" s="1">
+        <f t="shared" si="4"/>
         <v>7.743369565217388</v>
       </c>
-      <c r="AA85" s="10">
+      <c r="AC85" s="10">
         <v>0.2490448650263373</v>
       </c>
-      <c r="AB85">
+      <c r="AD85">
         <v>0.23522598476402881</v>
       </c>
-      <c r="AC85" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE85" s="12">
+        <f t="shared" si="5"/>
         <v>0.94090393905611525</v>
       </c>
-      <c r="AE85" s="9">
+      <c r="AF85" s="26">
+        <f t="shared" si="6"/>
+        <v>2.1772971014492786</v>
+      </c>
+      <c r="AH85" s="9">
         <v>664.21396271753019</v>
       </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -8574,10 +9433,10 @@
       <c r="L86" s="7">
         <v>-7.1507398657810306</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="28">
         <v>1.1127083420571893</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="26">
         <v>3.2500000000000009</v>
       </c>
       <c r="O86">
@@ -8607,25 +9466,35 @@
       <c r="X86" s="8">
         <v>-1.743993350205147</v>
       </c>
-      <c r="Z86" s="1">
-        <f>Q86*4</f>
+      <c r="Y86" s="24">
+        <v>0.81155555555555647</v>
+      </c>
+      <c r="Z86" s="28">
+        <v>1.59167876108484</v>
+      </c>
+      <c r="AB86" s="1">
+        <f t="shared" si="4"/>
         <v>6.43044444444444</v>
       </c>
-      <c r="AA86" s="10">
+      <c r="AC86" s="10">
         <v>-0.37358760900333998</v>
       </c>
-      <c r="AB86">
+      <c r="AD86">
         <v>0.35141299230051631</v>
       </c>
-      <c r="AC86" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE86" s="12">
+        <f t="shared" si="5"/>
         <v>1.4056519692020653</v>
       </c>
-      <c r="AE86" s="9">
+      <c r="AF86" s="26">
+        <f t="shared" si="6"/>
+        <v>3.2462222222222259</v>
+      </c>
+      <c r="AH86" s="9">
         <v>663.25563660202272</v>
       </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -8662,10 +9531,10 @@
       <c r="L87" s="7">
         <v>1.8680304421526017</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="28">
         <v>2.0075976117483574</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="26">
         <v>3.6166666666666645</v>
       </c>
       <c r="O87">
@@ -8695,25 +9564,35 @@
       <c r="X87" s="8">
         <v>-1.124350468883567</v>
       </c>
-      <c r="Z87" s="1">
-        <f>Q87*4</f>
+      <c r="Y87" s="24">
+        <v>0.90398351648351682</v>
+      </c>
+      <c r="Z87" s="28">
+        <v>2.382521088255797</v>
+      </c>
+      <c r="AB87" s="1">
+        <f t="shared" si="4"/>
         <v>5.8640659340659322</v>
       </c>
-      <c r="AA87" s="10">
+      <c r="AC87" s="10">
         <v>0.16786254939679671</v>
       </c>
-      <c r="AB87">
+      <c r="AD87">
         <v>0.5337057387057389</v>
       </c>
-      <c r="AC87" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE87" s="12">
+        <f t="shared" si="5"/>
         <v>2.1348229548229556</v>
       </c>
-      <c r="AE87" s="9">
+      <c r="AF87" s="26">
+        <f t="shared" si="6"/>
+        <v>3.6159340659340673</v>
+      </c>
+      <c r="AH87" s="9">
         <v>662.84553058373228</v>
       </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -8750,10 +9629,10 @@
       <c r="L88" s="7">
         <v>3.6535156161787263</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="28">
         <v>0.57878357896732346</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="26">
         <v>3.6833333333333327</v>
       </c>
       <c r="O88">
@@ -8783,25 +9662,35 @@
       <c r="X88" s="8">
         <v>-1.221261519273291</v>
       </c>
-      <c r="Z88" s="1">
-        <f>Q88*4</f>
+      <c r="Y88" s="24">
+        <v>0.92036231884058028</v>
+      </c>
+      <c r="Z88" s="28">
+        <v>0.91905098553071563</v>
+      </c>
+      <c r="AB88" s="1">
+        <f t="shared" si="4"/>
         <v>5.6452173913043442</v>
       </c>
-      <c r="AA88" s="10">
+      <c r="AC88" s="10">
         <v>-1.004994448140857</v>
       </c>
-      <c r="AB88">
+      <c r="AD88">
         <v>0.47740777338603452</v>
       </c>
-      <c r="AC88" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE88" s="12">
+        <f t="shared" si="5"/>
         <v>1.9096310935441381</v>
       </c>
-      <c r="AE88" s="9">
+      <c r="AF88" s="26">
+        <f t="shared" si="6"/>
+        <v>3.6814492753623211</v>
+      </c>
+      <c r="AH88" s="9">
         <v>662.68268001523745</v>
       </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -8838,10 +9727,10 @@
       <c r="L89" s="7">
         <v>0.98259739216173259</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="28">
         <v>1.6126461627990363</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="26">
         <v>3.9233333333333338</v>
       </c>
       <c r="O89">
@@ -8871,25 +9760,35 @@
       <c r="X89" s="8">
         <v>-0.86214717101091387</v>
       </c>
-      <c r="Z89" s="1">
-        <f>Q89*4</f>
+      <c r="Y89" s="24">
+        <v>0.98038043478260883</v>
+      </c>
+      <c r="Z89" s="28">
+        <v>2.022589372440903</v>
+      </c>
+      <c r="AB89" s="1">
+        <f t="shared" si="4"/>
         <v>4.818478260869564</v>
       </c>
-      <c r="AA89" s="10">
+      <c r="AC89" s="10">
         <v>-1.1285363245177851</v>
       </c>
-      <c r="AB89">
+      <c r="AD89">
         <v>0.41288043478260872</v>
       </c>
-      <c r="AC89" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE89" s="12">
+        <f t="shared" si="5"/>
         <v>1.6515217391304349</v>
       </c>
-      <c r="AE89" s="9">
+      <c r="AF89" s="26">
+        <f t="shared" si="6"/>
+        <v>3.9215217391304353</v>
+      </c>
+      <c r="AH89" s="9">
         <v>662.37988548178146</v>
       </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -8926,10 +9825,10 @@
       <c r="L90" s="7">
         <v>3.9237782299963442</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="28">
         <v>1.1986944790224996</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="26">
         <v>4.3766666666666652</v>
       </c>
       <c r="O90">
@@ -8959,25 +9858,35 @@
       <c r="X90" s="8">
         <v>-0.57892210044848236</v>
       </c>
-      <c r="Z90" s="1">
-        <f>Q90*4</f>
+      <c r="Y90" s="24">
+        <v>1.0939285714285709</v>
+      </c>
+      <c r="Z90" s="28">
+        <v>1.5030993795493981</v>
+      </c>
+      <c r="AB90" s="1">
+        <f t="shared" si="4"/>
         <v>4.0242857142857122</v>
       </c>
-      <c r="AA90" s="10">
+      <c r="AC90" s="10">
         <v>0.35152017977967431</v>
       </c>
-      <c r="AB90">
+      <c r="AD90">
         <v>0.48935164835164818</v>
       </c>
-      <c r="AC90" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE90" s="12">
+        <f t="shared" si="5"/>
         <v>1.9574065934065927</v>
       </c>
-      <c r="AE90" s="9">
+      <c r="AF90" s="26">
+        <f t="shared" si="6"/>
+        <v>4.3757142857142837</v>
+      </c>
+      <c r="AH90" s="9">
         <v>662.33164386749195</v>
       </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -9014,10 +9923,10 @@
       <c r="L91" s="7">
         <v>3.8163716927743785</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="28">
         <v>0.88716657692877732</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="26">
         <v>4.6966666666666672</v>
       </c>
       <c r="O91">
@@ -9047,25 +9956,35 @@
       <c r="X91" s="8">
         <v>3.605655948928657</v>
       </c>
-      <c r="Z91" s="1">
-        <f>Q91*4</f>
+      <c r="Y91" s="24">
+        <v>1.1731501831501829</v>
+      </c>
+      <c r="Z91" s="28">
+        <v>1.2111659130371919</v>
+      </c>
+      <c r="AB91" s="1">
+        <f t="shared" si="4"/>
         <v>3.7740659340659364</v>
       </c>
-      <c r="AA91" s="10">
+      <c r="AC91" s="10">
         <v>-2.9288985767527319E-2</v>
       </c>
-      <c r="AB91">
+      <c r="AD91">
         <v>0.50140659340659222</v>
       </c>
-      <c r="AC91" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE91" s="12">
+        <f t="shared" si="5"/>
         <v>2.0056263736263689</v>
       </c>
-      <c r="AE91" s="9">
+      <c r="AF91" s="26">
+        <f t="shared" si="6"/>
+        <v>4.6926007326007317</v>
+      </c>
+      <c r="AH91" s="9">
         <v>662.7357824559557</v>
       </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -9102,10 +10021,10 @@
       <c r="L92" s="7">
         <v>0.19948905764559655</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="28">
         <v>1.587797147823089</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="26">
         <v>4.6399999999999988</v>
       </c>
       <c r="O92">
@@ -9135,25 +10054,35 @@
       <c r="X92" s="8">
         <v>1.94117505482076</v>
       </c>
-      <c r="Z92" s="1">
-        <f>Q92*4</f>
+      <c r="Y92" s="24">
+        <v>1.1593568840579711</v>
+      </c>
+      <c r="Z92" s="28">
+        <v>1.974645713851098</v>
+      </c>
+      <c r="AB92" s="1">
+        <f t="shared" si="4"/>
         <v>3.2592391304347821</v>
       </c>
-      <c r="AA92" s="10">
+      <c r="AC92" s="10">
         <v>-0.32193297857399089</v>
       </c>
-      <c r="AB92">
+      <c r="AD92">
         <v>0.41378870223978992</v>
       </c>
-      <c r="AC92" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE92" s="12">
+        <f t="shared" si="5"/>
         <v>1.6551548089591597</v>
       </c>
-      <c r="AE92" s="9">
+      <c r="AF92" s="26">
+        <f t="shared" si="6"/>
+        <v>4.6374275362318844</v>
+      </c>
+      <c r="AH92" s="9">
         <v>662.6820913881935</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -9190,10 +10119,10 @@
       <c r="L93" s="7">
         <v>3.7790457623605</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="28">
         <v>1.166145572764421</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="26">
         <v>4.7333333333333325</v>
       </c>
       <c r="O93">
@@ -9223,25 +10152,35 @@
       <c r="X93" s="8">
         <v>2.8193314338383519</v>
       </c>
-      <c r="Z93" s="1">
-        <f>Q93*4</f>
+      <c r="Y93" s="24">
+        <v>1.1837771739130429</v>
+      </c>
+      <c r="Z93" s="28">
+        <v>1.59825088905419</v>
+      </c>
+      <c r="AB93" s="1">
+        <f t="shared" si="4"/>
         <v>3.0348913043478278</v>
       </c>
-      <c r="AA93" s="10">
+      <c r="AC93" s="10">
         <v>-0.21986330981523941</v>
       </c>
-      <c r="AB93">
+      <c r="AD93">
         <v>0.54207262845849757</v>
       </c>
-      <c r="AC93" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE93" s="12">
+        <f t="shared" si="5"/>
         <v>2.1682905138339903</v>
       </c>
-      <c r="AE93" s="9">
+      <c r="AF93" s="26">
+        <f t="shared" si="6"/>
+        <v>4.7351086956521717</v>
+      </c>
+      <c r="AH93" s="9">
         <v>662.60628579238755</v>
       </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -9278,10 +10217,10 @@
       <c r="L94" s="7">
         <v>0.74661893139325031</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="28">
         <v>8.942849862996205E-2</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="26">
         <v>4.5333333333333332</v>
       </c>
       <c r="O94">
@@ -9311,25 +10250,35 @@
       <c r="X94" s="8">
         <v>0.95350468403777955</v>
       </c>
-      <c r="Z94" s="1">
-        <f>Q94*4</f>
+      <c r="Y94" s="24">
+        <v>1.1327499999999999</v>
+      </c>
+      <c r="Z94" s="28">
+        <v>0.48508403176918069</v>
+      </c>
+      <c r="AB94" s="1">
+        <f t="shared" si="4"/>
         <v>3.0423333333333344</v>
       </c>
-      <c r="AA94" s="10">
+      <c r="AC94" s="10">
         <v>0.87204279475769619</v>
       </c>
-      <c r="AB94">
+      <c r="AD94">
         <v>0.48019791666666611</v>
       </c>
-      <c r="AC94" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE94" s="12">
+        <f t="shared" si="5"/>
         <v>1.9207916666666645</v>
       </c>
-      <c r="AE94" s="9">
+      <c r="AF94" s="26">
+        <f t="shared" si="6"/>
+        <v>4.5309999999999997</v>
+      </c>
+      <c r="AH94" s="9">
         <v>662.8325428139035</v>
       </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -9366,10 +10315,10 @@
       <c r="L95" s="7">
         <v>1.2951374108566505</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="28">
         <v>1.5903104120909006</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="26">
         <v>4.2766666666666664</v>
       </c>
       <c r="O95">
@@ -9399,25 +10348,35 @@
       <c r="X95" s="8">
         <v>2.6860643337168209</v>
       </c>
-      <c r="Z95" s="1">
-        <f>Q95*4</f>
+      <c r="Y95" s="24">
+        <v>1.06985347985348</v>
+      </c>
+      <c r="Z95" s="28">
+        <v>1.8614391977104949</v>
+      </c>
+      <c r="AB95" s="1">
+        <f t="shared" si="4"/>
         <v>2.9972527472527473</v>
       </c>
-      <c r="AA95" s="10">
+      <c r="AC95" s="10">
         <v>1.112235172594783</v>
       </c>
-      <c r="AB95">
+      <c r="AD95">
         <v>0.41487912087912088</v>
       </c>
-      <c r="AC95" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE95" s="12">
+        <f t="shared" si="5"/>
         <v>1.6595164835164835</v>
       </c>
-      <c r="AE95" s="9">
+      <c r="AF95" s="26">
+        <f t="shared" si="6"/>
+        <v>4.27941391941392</v>
+      </c>
+      <c r="AH95" s="9">
         <v>663.50643816089178</v>
       </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -9454,10 +10413,10 @@
       <c r="L96" s="7">
         <v>3.6012039565516574</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="28">
         <v>1.464223386185548</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="26">
         <v>3.9833333333333329</v>
       </c>
       <c r="O96">
@@ -9487,25 +10446,35 @@
       <c r="X96" s="8">
         <v>1.0845113073879089</v>
       </c>
-      <c r="Z96" s="1">
-        <f>Q96*4</f>
+      <c r="Y96" s="24">
+        <v>0.99640398550724618</v>
+      </c>
+      <c r="Z96" s="28">
+        <v>1.7101661961995061</v>
+      </c>
+      <c r="AB96" s="1">
+        <f t="shared" si="4"/>
         <v>3.0577173913043483</v>
       </c>
-      <c r="AA96" s="10">
+      <c r="AC96" s="10">
         <v>0.58291146152344853</v>
       </c>
-      <c r="AB96">
+      <c r="AD96">
         <v>0.38856307641633792</v>
       </c>
-      <c r="AC96" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE96" s="12">
+        <f t="shared" si="5"/>
         <v>1.5542523056653517</v>
       </c>
-      <c r="AE96" s="9">
+      <c r="AF96" s="26">
+        <f t="shared" si="6"/>
+        <v>3.9856159420289847</v>
+      </c>
+      <c r="AH96" s="9">
         <v>663.86784925327049</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -9542,10 +10511,10 @@
       <c r="L97" s="7">
         <v>4.5202733250587102</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="28">
         <v>1.0871509254024136</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="26">
         <v>3.8066666666666671</v>
       </c>
       <c r="O97">
@@ -9575,25 +10544,35 @@
       <c r="X97" s="8">
         <v>4.137914265519119</v>
       </c>
-      <c r="Z97" s="1">
-        <f>Q97*4</f>
+      <c r="Y97" s="24">
+        <v>0.95210144927536189</v>
+      </c>
+      <c r="Z97" s="28">
+        <v>1.380735594952812</v>
+      </c>
+      <c r="AB97" s="1">
+        <f t="shared" si="4"/>
         <v>2.9882608695652193</v>
       </c>
-      <c r="AA97" s="10">
+      <c r="AC97" s="10">
         <v>0.77320214192191061</v>
       </c>
-      <c r="AB97">
+      <c r="AD97">
         <v>0.39729084321475527</v>
       </c>
-      <c r="AC97" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE97" s="12">
+        <f t="shared" si="5"/>
         <v>1.5891633728590211</v>
       </c>
-      <c r="AE97" s="9">
+      <c r="AF97" s="26">
+        <f t="shared" si="6"/>
+        <v>3.8084057971014476</v>
+      </c>
+      <c r="AH97" s="9">
         <v>664.19771201420974</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -9630,10 +10609,10 @@
       <c r="L98" s="7">
         <v>2.4940294900958726</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="28">
         <v>0.77440330345930342</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="26">
         <v>3.7033333333333336</v>
       </c>
       <c r="O98">
@@ -9663,25 +10642,35 @@
       <c r="X98" s="8">
         <v>1.299554169237392</v>
       </c>
-      <c r="Z98" s="1">
-        <f>Q98*4</f>
+      <c r="Y98" s="24">
+        <v>0.92683333333333329</v>
+      </c>
+      <c r="Z98" s="28">
+        <v>1.004696775533694</v>
+      </c>
+      <c r="AB98" s="1">
+        <f t="shared" ref="AB98:AB129" si="7">Q98*4</f>
         <v>3.2093333333333338</v>
       </c>
-      <c r="AA98" s="10">
+      <c r="AC98" s="10">
         <v>1.944403963258005</v>
       </c>
-      <c r="AB98">
+      <c r="AD98">
         <v>0.42786197916666657</v>
       </c>
-      <c r="AC98" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE98" s="12">
+        <f t="shared" si="5"/>
         <v>1.7114479166666663</v>
       </c>
-      <c r="AE98" s="9">
+      <c r="AF98" s="26">
+        <f t="shared" si="6"/>
+        <v>3.7073333333333331</v>
+      </c>
+      <c r="AH98" s="9">
         <v>664.51255214370735</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -9718,10 +10707,10 @@
       <c r="L99" s="7">
         <v>3.1459533264720285</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="28">
         <v>1.2816994087458511</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="26">
         <v>3.4899999999999998</v>
       </c>
       <c r="O99">
@@ -9751,25 +10740,35 @@
       <c r="X99" s="8">
         <v>2.2031340817607181</v>
       </c>
-      <c r="Z99" s="1">
-        <f>Q99*4</f>
+      <c r="Y99" s="24">
+        <v>0.87299450549450508</v>
+      </c>
+      <c r="Z99" s="28">
+        <v>1.477308904247951</v>
+      </c>
+      <c r="AB99" s="1">
+        <f t="shared" si="7"/>
         <v>3.9380219780219794</v>
       </c>
-      <c r="AA99" s="10">
+      <c r="AC99" s="10">
         <v>1.3086593841222349</v>
       </c>
-      <c r="AB99">
+      <c r="AD99">
         <v>0.5441868131868125</v>
       </c>
-      <c r="AC99" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE99" s="12">
+        <f t="shared" si="5"/>
         <v>2.17674725274725</v>
       </c>
-      <c r="AE99" s="9">
+      <c r="AF99" s="26">
+        <f t="shared" si="6"/>
+        <v>3.4919780219780203</v>
+      </c>
+      <c r="AH99" s="9">
         <v>665.44902036859378</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -9806,10 +10805,10 @@
       <c r="L100" s="7">
         <v>-0.89397502386727723</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="28">
         <v>1.3128754576677171</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="26">
         <v>3.2333333333333325</v>
       </c>
       <c r="O100">
@@ -9839,25 +10838,35 @@
       <c r="X100" s="8">
         <v>1.951683718665493</v>
       </c>
-      <c r="Z100" s="1">
-        <f>Q100*4</f>
+      <c r="Y100" s="24">
+        <v>0.80864130434782622</v>
+      </c>
+      <c r="Z100" s="28">
+        <v>1.4968299688623641</v>
+      </c>
+      <c r="AB100" s="1">
+        <f t="shared" si="7"/>
         <v>4.4854347826086958</v>
       </c>
-      <c r="AA100" s="10">
+      <c r="AC100" s="10">
         <v>0.9278519790648625</v>
       </c>
-      <c r="AB100">
+      <c r="AD100">
         <v>0.50027009222661456</v>
       </c>
-      <c r="AC100" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE100" s="12">
+        <f t="shared" si="5"/>
         <v>2.0010803689064582</v>
       </c>
-      <c r="AE100" s="9">
+      <c r="AF100" s="26">
+        <f t="shared" si="6"/>
+        <v>3.2345652173913049</v>
+      </c>
+      <c r="AH100" s="9">
         <v>665.71158622830092</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -9894,10 +10903,10 @@
       <c r="L101" s="7">
         <v>-0.79361298506697153</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="28">
         <v>1.1831338618353726</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="26">
         <v>2.6466666666666665</v>
       </c>
       <c r="O101">
@@ -9927,25 +10936,35 @@
       <c r="X101" s="8">
         <v>4.1197587512512683</v>
       </c>
-      <c r="Z101" s="1">
-        <f>Q101*4</f>
+      <c r="Y101" s="24">
+        <v>0.6613496376811594</v>
+      </c>
+      <c r="Z101" s="28">
+        <v>1.4254819227861291</v>
+      </c>
+      <c r="AB101" s="1">
+        <f t="shared" si="7"/>
         <v>5.1679347826086959</v>
       </c>
-      <c r="AA101" s="10">
+      <c r="AC101" s="10">
         <v>1.23540316995099</v>
       </c>
-      <c r="AB101">
+      <c r="AD101">
         <v>0.57097784280936459</v>
       </c>
-      <c r="AC101" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE101" s="12">
+        <f t="shared" si="5"/>
         <v>2.2839113712374584</v>
       </c>
-      <c r="AE101" s="9">
+      <c r="AF101" s="26">
+        <f t="shared" si="6"/>
+        <v>2.6453985507246376</v>
+      </c>
+      <c r="AH101" s="9">
         <v>666.24792193338305</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -9982,10 +11001,10 @@
       <c r="L102" s="7">
         <v>-1.7363695580726812</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="28">
         <v>0.71092193912511981</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="26">
         <v>2.3266666666666671</v>
       </c>
       <c r="O102">
@@ -10015,25 +11034,35 @@
       <c r="X102" s="8">
         <v>4.1072746778339377</v>
       </c>
-      <c r="Z102" s="1">
-        <f>Q102*4</f>
+      <c r="Y102" s="24">
+        <v>0.58347222222222261</v>
+      </c>
+      <c r="Z102" s="28">
+        <v>0.81649801908343023</v>
+      </c>
+      <c r="AB102" s="1">
+        <f t="shared" si="7"/>
         <v>5.8027777777777763</v>
       </c>
-      <c r="AA102" s="10">
+      <c r="AC102" s="10">
         <v>1.959962860796939</v>
       </c>
-      <c r="AB102">
+      <c r="AD102">
         <v>0.43130555555555539</v>
       </c>
-      <c r="AC102" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE102" s="12">
+        <f t="shared" si="5"/>
         <v>1.7252222222222215</v>
       </c>
-      <c r="AE102" s="9">
+      <c r="AF102" s="26">
+        <f t="shared" si="6"/>
+        <v>2.3338888888888905</v>
+      </c>
+      <c r="AH102" s="9">
         <v>666.00762810851518</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -10070,10 +11099,10 @@
       <c r="L103" s="7">
         <v>-3.438500877868389</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="28">
         <v>1.2843460663138906</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="26">
         <v>1.9600000000000009</v>
       </c>
       <c r="O103">
@@ -10103,25 +11132,35 @@
       <c r="X103" s="8">
         <v>0.9730615699945232</v>
       </c>
-      <c r="Z103" s="1">
-        <f>Q103*4</f>
+      <c r="Y103" s="24">
+        <v>0.4902197802197803</v>
+      </c>
+      <c r="Z103" s="28">
+        <v>1.437660580239144</v>
+      </c>
+      <c r="AB103" s="1">
+        <f t="shared" si="7"/>
         <v>6.0191208791208801</v>
       </c>
-      <c r="AA103" s="10">
+      <c r="AC103" s="10">
         <v>1.931527649821787</v>
       </c>
-      <c r="AB103">
+      <c r="AD103">
         <v>0.15560439560439551</v>
       </c>
-      <c r="AC103" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE103" s="12">
+        <f t="shared" si="5"/>
         <v>0.62241758241758205</v>
       </c>
-      <c r="AE103" s="9">
+      <c r="AF103" s="26">
+        <f t="shared" si="6"/>
+        <v>1.9608791208791212</v>
+      </c>
+      <c r="AH103" s="9">
         <v>665.07151746224963</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -10158,10 +11197,10 @@
       <c r="L104" s="7">
         <v>2.7218250217256212</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="28">
         <v>1.418828059620747</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="26">
         <v>1.9400000000000004</v>
       </c>
       <c r="O104">
@@ -10191,25 +11230,35 @@
       <c r="X104" s="8">
         <v>0.7051430219889695</v>
       </c>
-      <c r="Z104" s="1">
-        <f>Q104*4</f>
+      <c r="Y104" s="24">
+        <v>0.48487318840579657</v>
+      </c>
+      <c r="Z104" s="28">
+        <v>1.5761291606996011</v>
+      </c>
+      <c r="AB104" s="1">
+        <f t="shared" si="7"/>
         <v>5.7971739130434798</v>
       </c>
-      <c r="AA104" s="10">
+      <c r="AC104" s="10">
         <v>0.7934435501639997</v>
       </c>
-      <c r="AB104">
+      <c r="AD104">
         <v>0.13805267558528331</v>
       </c>
-      <c r="AC104" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE104" s="12">
+        <f t="shared" si="5"/>
         <v>0.55221070234113323</v>
       </c>
-      <c r="AE104" s="9">
+      <c r="AF104" s="26">
+        <f t="shared" si="6"/>
+        <v>1.9394927536231863</v>
+      </c>
+      <c r="AH104" s="9">
         <v>665.60835632627879</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -10246,10 +11295,10 @@
       <c r="L105" s="7">
         <v>2.0118731632712716</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="28">
         <v>0.68629811819107545</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="26">
         <v>1.8133333333333352</v>
       </c>
       <c r="O105">
@@ -10279,25 +11328,35 @@
       <c r="X105" s="8">
         <v>1.7837980615071101</v>
       </c>
-      <c r="Z105" s="1">
-        <f>Q105*4</f>
+      <c r="Y105" s="24">
+        <v>0.45346920289855053</v>
+      </c>
+      <c r="Z105" s="28">
+        <v>0.90954706573600186</v>
+      </c>
+      <c r="AB105" s="1">
+        <f t="shared" si="7"/>
         <v>5.719456521739132</v>
       </c>
-      <c r="AA105" s="10">
+      <c r="AC105" s="10">
         <v>1.4057649663542719</v>
       </c>
-      <c r="AB105">
+      <c r="AD105">
         <v>9.2866638795986001E-2</v>
       </c>
-      <c r="AC105" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE105" s="12">
+        <f t="shared" si="5"/>
         <v>0.371466555183944</v>
       </c>
-      <c r="AE105" s="9">
+      <c r="AF105" s="26">
+        <f t="shared" si="6"/>
+        <v>1.8138768115942021</v>
+      </c>
+      <c r="AH105" s="9">
         <v>665.51624726716364</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -10334,10 +11393,10 @@
       <c r="L106" s="7">
         <v>2.1744053625092796</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="28">
         <v>1.2139989722943945</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="26">
         <v>1.9800000000000004</v>
       </c>
       <c r="O106">
@@ -10367,25 +11426,35 @@
       <c r="X106" s="8">
         <v>1.871455770443077</v>
       </c>
-      <c r="Z106" s="1">
-        <f>Q106*4</f>
+      <c r="Y106" s="24">
+        <v>0.49308608058608061</v>
+      </c>
+      <c r="Z106" s="28">
+        <v>1.3562776170202291</v>
+      </c>
+      <c r="AB106" s="1">
+        <f t="shared" si="7"/>
         <v>5.3709890109890122</v>
       </c>
-      <c r="AA106" s="10">
+      <c r="AC106" s="10">
         <v>1.389603029093456</v>
       </c>
-      <c r="AB106">
+      <c r="AD106">
         <v>9.0483516483515825E-2</v>
       </c>
-      <c r="AC106" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE106" s="12">
+        <f t="shared" si="5"/>
         <v>0.3619340659340633</v>
       </c>
-      <c r="AE106" s="9">
+      <c r="AF106" s="26">
+        <f t="shared" si="6"/>
+        <v>1.9723443223443224</v>
+      </c>
+      <c r="AH106" s="9">
         <v>665.0447192360416</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -10422,10 +11491,10 @@
       <c r="L107" s="7">
         <v>3.951334247391447</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="28">
         <v>1.4365211095489272</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="26">
         <v>2.6000000000000005</v>
       </c>
       <c r="O107">
@@ -10455,25 +11524,35 @@
       <c r="X107" s="8">
         <v>2.2446444495173741</v>
       </c>
-      <c r="Z107" s="1">
-        <f>Q107*4</f>
+      <c r="Y107" s="24">
+        <v>0.64984432234432288</v>
+      </c>
+      <c r="Z107" s="28">
+        <v>1.571612376995801</v>
+      </c>
+      <c r="AB107" s="1">
+        <f t="shared" si="7"/>
         <v>5.243956043956044</v>
       </c>
-      <c r="AA107" s="10">
+      <c r="AC107" s="10">
         <v>1.768568981081093</v>
       </c>
-      <c r="AB107">
+      <c r="AD107">
         <v>0.26093406593406621</v>
       </c>
-      <c r="AC107" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE107" s="12">
+        <f t="shared" si="5"/>
         <v>1.0437362637362648</v>
       </c>
-      <c r="AE107" s="9">
+      <c r="AF107" s="26">
+        <f t="shared" si="6"/>
+        <v>2.5993772893772915</v>
+      </c>
+      <c r="AH107" s="9">
         <v>665.69668707937444</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -10510,10 +11589,10 @@
       <c r="L108" s="7">
         <v>0.22855942712753929</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="28">
         <v>1.5227493624540678</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="26">
         <v>2.6633333333333322</v>
       </c>
       <c r="O108">
@@ -10543,25 +11622,35 @@
       <c r="X108" s="8">
         <v>3.258361986231054</v>
       </c>
-      <c r="Z108" s="1">
-        <f>Q108*4</f>
+      <c r="Y108" s="24">
+        <v>0.66595108695652239</v>
+      </c>
+      <c r="Z108" s="28">
+        <v>1.656144073704366</v>
+      </c>
+      <c r="AB108" s="1">
+        <f t="shared" si="7"/>
         <v>5.306195652173912</v>
       </c>
-      <c r="AA108" s="10">
+      <c r="AC108" s="10">
         <v>1.084255909908769</v>
       </c>
-      <c r="AB108">
+      <c r="AD108">
         <v>0.26193593544137062</v>
       </c>
-      <c r="AC108" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE108" s="12">
+        <f t="shared" si="5"/>
         <v>1.0477437417654825</v>
       </c>
-      <c r="AE108" s="9">
+      <c r="AF108" s="26">
+        <f t="shared" si="6"/>
+        <v>2.6638043478260895</v>
+      </c>
+      <c r="AH108" s="9">
         <v>666.33137499436839</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -10598,10 +11687,10 @@
       <c r="L109" s="7">
         <v>-1.385194656273292</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="28">
         <v>1.04850460512389</v>
       </c>
-      <c r="N109">
+      <c r="N109" s="26">
         <v>2.4533333333333331</v>
       </c>
       <c r="O109">
@@ -10631,25 +11720,35 @@
       <c r="X109" s="8">
         <v>2.4006487386777202</v>
       </c>
-      <c r="Z109" s="1">
-        <f>Q109*4</f>
+      <c r="Y109" s="24">
+        <v>0.61311594202898645</v>
+      </c>
+      <c r="Z109" s="28">
+        <v>1.406354671425849</v>
+      </c>
+      <c r="AB109" s="1">
+        <f t="shared" si="7"/>
         <v>5.2808695652173876</v>
       </c>
-      <c r="AA109" s="10">
+      <c r="AC109" s="10">
         <v>0.77801305244900465</v>
       </c>
-      <c r="AB109">
+      <c r="AD109">
         <v>0.2095553359683813</v>
       </c>
-      <c r="AC109" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE109" s="12">
+        <f t="shared" si="5"/>
         <v>0.8382213438735252</v>
       </c>
-      <c r="AE109" s="9">
+      <c r="AF109" s="26">
+        <f t="shared" si="6"/>
+        <v>2.4524637681159458</v>
+      </c>
+      <c r="AH109" s="9">
         <v>666.70028219400547</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -10686,10 +11785,10 @@
       <c r="L110" s="7">
         <v>-0.28418363709139527</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="28">
         <v>0.7601887828782683</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="26">
         <v>2.4633333333333338</v>
       </c>
       <c r="O110">
@@ -10719,25 +11818,35 @@
       <c r="X110" s="8">
         <v>2.1188384347739579</v>
       </c>
-      <c r="Z110" s="1">
-        <f>Q110*4</f>
+      <c r="Y110" s="24">
+        <v>0.61538888888888987</v>
+      </c>
+      <c r="Z110" s="28">
+        <v>1.180647927875349</v>
+      </c>
+      <c r="AB110" s="1">
+        <f t="shared" si="7"/>
         <v>5.2784444444444398</v>
       </c>
-      <c r="AA110" s="10">
+      <c r="AC110" s="10">
         <v>1.9099416450442519</v>
       </c>
-      <c r="AB110">
+      <c r="AD110">
         <v>0.23019357638888979</v>
       </c>
-      <c r="AC110" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE110" s="12">
+        <f t="shared" si="5"/>
         <v>0.92077430555555917</v>
       </c>
-      <c r="AE110" s="9">
+      <c r="AF110" s="26">
+        <f t="shared" si="6"/>
+        <v>2.4615555555555595</v>
+      </c>
+      <c r="AH110" s="9">
         <v>666.8427629058541</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -10774,10 +11883,10 @@
       <c r="L111" s="7">
         <v>1.2969305650874396</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="28">
         <v>1.2341540800819395</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="26">
         <v>2.3833333333333329</v>
       </c>
       <c r="O111">
@@ -10807,25 +11916,35 @@
       <c r="X111" s="8">
         <v>2.106460864771539</v>
       </c>
-      <c r="Z111" s="1">
-        <f>Q111*4</f>
+      <c r="Y111" s="24">
+        <v>0.59611721611721658</v>
+      </c>
+      <c r="Z111" s="28">
+        <v>1.4243370886890909</v>
+      </c>
+      <c r="AB111" s="1">
+        <f t="shared" si="7"/>
         <v>5.5221978021978</v>
       </c>
-      <c r="AA111" s="10">
+      <c r="AC111" s="10">
         <v>2.0348924071165491</v>
       </c>
-      <c r="AB111">
+      <c r="AD111">
         <v>0.21825824175824279</v>
       </c>
-      <c r="AC111" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE111" s="12">
+        <f t="shared" si="5"/>
         <v>0.87303296703297117</v>
       </c>
-      <c r="AE111" s="9">
+      <c r="AF111" s="26">
+        <f t="shared" si="6"/>
+        <v>2.3844688644688663</v>
+      </c>
+      <c r="AH111" s="9">
         <v>667.18265053118853</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -10862,10 +11981,10 @@
       <c r="L112" s="7">
         <v>0.70828297042568877</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="28">
         <v>2.1658480768770083</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="26">
         <v>2.1100000000000012</v>
       </c>
       <c r="O112">
@@ -10895,25 +12014,35 @@
       <c r="X112" s="8">
         <v>4.698885459730012</v>
       </c>
-      <c r="Z112" s="1">
-        <f>Q112*4</f>
+      <c r="Y112" s="24">
+        <v>0.52716485507246413</v>
+      </c>
+      <c r="Z112" s="28">
+        <v>2.322965781594291</v>
+      </c>
+      <c r="AB112" s="1">
+        <f t="shared" si="7"/>
         <v>5.5346739130434761</v>
       </c>
-      <c r="AA112" s="10">
+      <c r="AC112" s="10">
         <v>2.219257947524572</v>
       </c>
-      <c r="AB112">
+      <c r="AD112">
         <v>0.15011940052701031</v>
       </c>
-      <c r="AC112" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE112" s="12">
+        <f t="shared" si="5"/>
         <v>0.60047760210804124</v>
       </c>
-      <c r="AE112" s="9">
+      <c r="AF112" s="26">
+        <f t="shared" si="6"/>
+        <v>2.1086594202898565</v>
+      </c>
+      <c r="AH112" s="9">
         <v>667.49180686227567</v>
       </c>
     </row>
-    <row r="113" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -10950,10 +12079,10 @@
       <c r="L113" s="7">
         <v>1.1014372298387087</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="28">
         <v>0.80476198070602578</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="26">
         <v>1.9633333333333329</v>
       </c>
       <c r="O113">
@@ -10983,25 +12112,35 @@
       <c r="X113" s="8">
         <v>0.32089879121811388</v>
       </c>
-      <c r="Z113" s="1">
-        <f>Q113*4</f>
+      <c r="Y113" s="24">
+        <v>0.49065217391304361</v>
+      </c>
+      <c r="Z113" s="28">
+        <v>1.007127150844211</v>
+      </c>
+      <c r="AB113" s="1">
+        <f t="shared" si="7"/>
         <v>5.5073913043478244</v>
       </c>
-      <c r="AA113" s="10">
+      <c r="AC113" s="10">
         <v>1.9390283800517381</v>
       </c>
-      <c r="AB113">
+      <c r="AD113">
         <v>0.14678853754940729</v>
       </c>
-      <c r="AC113" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE113" s="12">
+        <f t="shared" si="5"/>
         <v>0.58715415019762918</v>
       </c>
-      <c r="AE113" s="9">
+      <c r="AF113" s="26">
+        <f t="shared" si="6"/>
+        <v>1.9626086956521744</v>
+      </c>
+      <c r="AH113" s="9">
         <v>667.47862041046415</v>
       </c>
     </row>
-    <row r="114" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -11038,10 +12177,10 @@
       <c r="L114" s="7">
         <v>1.6548072031687511</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="28">
         <v>1.4818860308148274</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="26">
         <v>1.6999999999999993</v>
       </c>
       <c r="O114">
@@ -11071,25 +12210,35 @@
       <c r="X114" s="8">
         <v>2.5893333166890531</v>
       </c>
-      <c r="Z114" s="1">
-        <f>Q114*4</f>
+      <c r="Y114" s="24">
+        <v>0.42516666666666653</v>
+      </c>
+      <c r="Z114" s="28">
+        <v>1.430647922414338</v>
+      </c>
+      <c r="AB114" s="1">
+        <f t="shared" si="7"/>
         <v>5.5193333333333321</v>
       </c>
-      <c r="AA114" s="10">
+      <c r="AC114" s="10">
         <v>3.1077363382273648</v>
       </c>
-      <c r="AB114">
+      <c r="AD114">
         <v>0.11235416666666651</v>
       </c>
-      <c r="AC114" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE114" s="12">
+        <f t="shared" si="5"/>
         <v>0.44941666666666602</v>
       </c>
-      <c r="AE114" s="9">
+      <c r="AF114" s="26">
+        <f t="shared" si="6"/>
+        <v>1.7006666666666661</v>
+      </c>
+      <c r="AH114" s="9">
         <v>667.5636696690591</v>
       </c>
     </row>
-    <row r="115" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -11126,10 +12275,10 @@
       <c r="L115" s="7">
         <v>3.1459195422527841</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="28">
         <v>2.0344587353168908</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="26">
         <v>1.7033333333333331</v>
       </c>
       <c r="O115">
@@ -11159,25 +12308,35 @@
       <c r="X115" s="8">
         <v>2.9606160817007332</v>
       </c>
-      <c r="Z115" s="1">
-        <f>Q115*4</f>
+      <c r="Y115" s="24">
+        <v>0.42646520146520112</v>
+      </c>
+      <c r="Z115" s="28">
+        <v>2.0770731075088111</v>
+      </c>
+      <c r="AB115" s="1">
+        <f t="shared" si="7"/>
         <v>5.497472527472528</v>
       </c>
-      <c r="AA115" s="10">
+      <c r="AC115" s="10">
         <v>3.3936523467556312</v>
       </c>
-      <c r="AB115">
+      <c r="AD115">
         <v>0.14543956043955969</v>
       </c>
-      <c r="AC115" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE115" s="12">
+        <f t="shared" si="5"/>
         <v>0.58175824175823876</v>
       </c>
-      <c r="AE115" s="9">
+      <c r="AF115" s="26">
+        <f t="shared" si="6"/>
+        <v>1.7058608058608045</v>
+      </c>
+      <c r="AH115" s="9">
         <v>667.51957957341438</v>
       </c>
     </row>
-    <row r="116" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -11214,10 +12373,10 @@
       <c r="L116" s="7">
         <v>3.2737972177000252</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="28">
         <v>1.9286514989896197</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="26">
         <v>1.5499999999999989</v>
       </c>
       <c r="O116">
@@ -11247,25 +12406,35 @@
       <c r="X116" s="8">
         <v>1.0270997241921449</v>
       </c>
-      <c r="Z116" s="1">
-        <f>Q116*4</f>
+      <c r="Y116" s="24">
+        <v>0.38792572463768132</v>
+      </c>
+      <c r="Z116" s="28">
+        <v>1.9388688627430899</v>
+      </c>
+      <c r="AB116" s="1">
+        <f t="shared" si="7"/>
         <v>5.531630434782608</v>
       </c>
-      <c r="AA116" s="10">
+      <c r="AC116" s="10">
         <v>2.1116231096049392</v>
       </c>
-      <c r="AB116">
+      <c r="AD116">
         <v>8.2660573122528946E-2</v>
       </c>
-      <c r="AC116" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE116" s="12">
+        <f t="shared" si="5"/>
         <v>0.33064229249011579</v>
       </c>
-      <c r="AE116" s="9">
+      <c r="AF116" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5517028985507253</v>
+      </c>
+      <c r="AH116" s="9">
         <v>667.14675005411107</v>
       </c>
     </row>
-    <row r="117" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -11302,10 +12471,10 @@
       <c r="L117" s="7">
         <v>2.6981721283626747</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="28">
         <v>2.2406360691013205</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="26">
         <v>2.0199999999999996</v>
       </c>
       <c r="O117">
@@ -11335,25 +12504,35 @@
       <c r="X117" s="8">
         <v>2.8100564192007988</v>
       </c>
-      <c r="Z117" s="1">
-        <f>Q117*4</f>
+      <c r="Y117" s="24">
+        <v>0.50486413043478251</v>
+      </c>
+      <c r="Z117" s="28">
+        <v>2.304719006103026</v>
+      </c>
+      <c r="AB117" s="1">
+        <f t="shared" si="7"/>
         <v>4.8605434782608681</v>
       </c>
-      <c r="AA117" s="10">
+      <c r="AC117" s="10">
         <v>2.4523424756041958</v>
       </c>
-      <c r="AB117">
+      <c r="AD117">
         <v>0.20334897891963061</v>
       </c>
-      <c r="AC117" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE117" s="12">
+        <f t="shared" si="5"/>
         <v>0.81339591567852243</v>
       </c>
-      <c r="AE117" s="9">
+      <c r="AF117" s="26">
+        <f t="shared" si="6"/>
+        <v>2.01945652173913</v>
+      </c>
+      <c r="AH117" s="9">
         <v>668.12972120361871</v>
       </c>
     </row>
-    <row r="118" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -11390,10 +12569,10 @@
       <c r="L118" s="7">
         <v>0.76237812043631337</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="28">
         <v>1.6999384928823691</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="26">
         <v>2.2099999999999991</v>
       </c>
       <c r="O118">
@@ -11423,25 +12602,35 @@
       <c r="X118" s="8">
         <v>2.1283155234537241</v>
       </c>
-      <c r="Z118" s="1">
-        <f>Q118*4</f>
+      <c r="Y118" s="24">
+        <v>0.55219444444444421</v>
+      </c>
+      <c r="Z118" s="28">
+        <v>1.9277817651402041</v>
+      </c>
+      <c r="AB118" s="1">
+        <f t="shared" si="7"/>
         <v>4.7345555555555556</v>
       </c>
-      <c r="AA118" s="10">
+      <c r="AC118" s="10">
         <v>3.212432157777946</v>
       </c>
-      <c r="AB118">
+      <c r="AD118">
         <v>0.25038454861111048</v>
       </c>
-      <c r="AC118" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE118" s="12">
+        <f t="shared" si="5"/>
         <v>1.0015381944444419</v>
       </c>
-      <c r="AE118" s="9">
+      <c r="AF118" s="26">
+        <f t="shared" si="6"/>
+        <v>2.2087777777777768</v>
+      </c>
+      <c r="AH118" s="9">
         <v>667.90493834989149</v>
       </c>
     </row>
-    <row r="119" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -11478,10 +12667,10 @@
       <c r="L119" s="7">
         <v>1.5342872372380079</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="28">
         <v>2.204336024332898</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="26">
         <v>2.3466666666666658</v>
       </c>
       <c r="O119">
@@ -11511,25 +12700,35 @@
       <c r="X119" s="8">
         <v>2.3545023109788512</v>
       </c>
-      <c r="Z119" s="1">
-        <f>Q119*4</f>
+      <c r="Y119" s="24">
+        <v>0.58641025641025601</v>
+      </c>
+      <c r="Z119" s="28">
+        <v>2.3234566926457951</v>
+      </c>
+      <c r="AB119" s="1">
+        <f t="shared" si="7"/>
         <v>4.7476923076923079</v>
       </c>
-      <c r="AA119" s="10">
+      <c r="AC119" s="10">
         <v>2.0406680743121481</v>
       </c>
-      <c r="AB119">
+      <c r="AD119">
         <v>0.29773076923076958</v>
       </c>
-      <c r="AC119" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE119" s="12">
+        <f t="shared" si="5"/>
         <v>1.1909230769230783</v>
       </c>
-      <c r="AE119" s="9">
+      <c r="AF119" s="26">
+        <f t="shared" si="6"/>
+        <v>2.3456410256410241</v>
+      </c>
+      <c r="AH119" s="9">
         <v>667.76204344004202</v>
       </c>
     </row>
-    <row r="120" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -11566,10 +12765,10 @@
       <c r="L120" s="7">
         <v>1.002058889708568</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="28">
         <v>2.6366803659207072</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="26">
         <v>2.423333333333332</v>
       </c>
       <c r="O120">
@@ -11599,25 +12798,35 @@
       <c r="X120" s="8">
         <v>2.3344011931196822</v>
       </c>
-      <c r="Z120" s="1">
-        <f>Q120*4</f>
+      <c r="Y120" s="24">
+        <v>0.60528079710144889</v>
+      </c>
+      <c r="Z120" s="28">
+        <v>2.7741873562686461</v>
+      </c>
+      <c r="AB120" s="1">
+        <f t="shared" si="7"/>
         <v>5.095543478260872</v>
       </c>
-      <c r="AA120" s="10">
+      <c r="AC120" s="10">
         <v>3.2785415791634782</v>
       </c>
-      <c r="AB120">
+      <c r="AD120">
         <v>0.33853837285902461</v>
       </c>
-      <c r="AC120" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE120" s="12">
+        <f t="shared" si="5"/>
         <v>1.3541534914360984</v>
       </c>
-      <c r="AE120" s="9">
+      <c r="AF120" s="26">
+        <f t="shared" si="6"/>
+        <v>2.4211231884057955</v>
+      </c>
+      <c r="AH120" s="9">
         <v>667.80026552927779</v>
       </c>
     </row>
-    <row r="121" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -11654,10 +12863,10 @@
       <c r="L121" s="7">
         <v>1.3580964279870322</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="28">
         <v>1.7142601953521464</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="26">
         <v>2.2733333333333334</v>
       </c>
       <c r="O121">
@@ -11687,25 +12896,35 @@
       <c r="X121" s="8">
         <v>0.21263031613091291</v>
       </c>
-      <c r="Z121" s="1">
-        <f>Q121*4</f>
+      <c r="Y121" s="24">
+        <v>0.56899456521739178</v>
+      </c>
+      <c r="Z121" s="28">
+        <v>1.865889507908937</v>
+      </c>
+      <c r="AB121" s="1">
+        <f t="shared" si="7"/>
         <v>5.3040217391304321</v>
       </c>
-      <c r="AA121" s="10">
+      <c r="AC121" s="10">
         <v>1.920951222121235</v>
       </c>
-      <c r="AB121">
+      <c r="AD121">
         <v>0.40660820158102801</v>
       </c>
-      <c r="AC121" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE121" s="12">
+        <f t="shared" si="5"/>
         <v>1.626432806324112</v>
       </c>
-      <c r="AE121" s="9">
+      <c r="AF121" s="26">
+        <f t="shared" si="6"/>
+        <v>2.2759782608695671</v>
+      </c>
+      <c r="AH121" s="9">
         <v>668.01082724494256</v>
       </c>
     </row>
-    <row r="122" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -11742,10 +12961,10 @@
       <c r="L122" s="7">
         <v>0.31709173436613725</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="28">
         <v>0.11027366957621076</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="26">
         <v>2.2599999999999998</v>
       </c>
       <c r="O122">
@@ -11775,25 +12994,35 @@
       <c r="X122" s="8">
         <v>3.8746775622449601</v>
       </c>
-      <c r="Z122" s="1">
-        <f>Q122*4</f>
+      <c r="Y122" s="24">
+        <v>0.56474358974358951</v>
+      </c>
+      <c r="Z122" s="28">
+        <v>1.3925512368731749</v>
+      </c>
+      <c r="AB122" s="1">
+        <f t="shared" si="7"/>
         <v>5.6776923076923076</v>
       </c>
-      <c r="AA122" s="10">
+      <c r="AC122" s="10">
         <v>2.8597441212033621</v>
       </c>
-      <c r="AB122">
+      <c r="AD122">
         <v>0.43103846153846059</v>
       </c>
-      <c r="AC122" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE122" s="12">
+        <f t="shared" si="5"/>
         <v>1.7241538461538424</v>
       </c>
-      <c r="AE122" s="9">
+      <c r="AF122" s="26">
+        <f t="shared" si="6"/>
+        <v>2.2589743589743581</v>
+      </c>
+      <c r="AH122" s="9">
         <v>668.21734457322236</v>
       </c>
     </row>
-    <row r="123" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -11830,10 +13059,10 @@
       <c r="L123" s="7">
         <v>-0.52667571302116301</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="28">
         <v>2.2505424309454014</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="26">
         <v>1.8233333333333324</v>
       </c>
       <c r="O123">
@@ -11863,25 +13092,35 @@
       <c r="X123" s="8">
         <v>3.7380033627547382</v>
       </c>
-      <c r="Z123" s="1">
-        <f>Q123*4</f>
+      <c r="Y123" s="24">
+        <v>0.45617216117216119</v>
+      </c>
+      <c r="Z123" s="28">
+        <v>2.458438767951109</v>
+      </c>
+      <c r="AB123" s="1">
+        <f t="shared" si="7"/>
         <v>6.2719780219780201</v>
       </c>
-      <c r="AA123" s="10">
+      <c r="AC123" s="10">
         <v>2.8782187364920531</v>
       </c>
-      <c r="AB123">
+      <c r="AD123">
         <v>0.31581318681318749</v>
       </c>
-      <c r="AC123" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE123" s="12">
+        <f t="shared" si="5"/>
         <v>1.2632527472527499</v>
       </c>
-      <c r="AE123" s="9">
+      <c r="AF123" s="26">
+        <f t="shared" si="6"/>
+        <v>1.8246886446886448</v>
+      </c>
+      <c r="AH123" s="9">
         <v>667.99551785313008</v>
       </c>
     </row>
-    <row r="124" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -11918,10 +13157,10 @@
       <c r="L124" s="7">
         <v>-1.9229528701446341</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="28">
         <v>2.2121511087571211</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="26">
         <v>1.4866666666666681</v>
       </c>
       <c r="O124">
@@ -11951,25 +13190,35 @@
       <c r="X124" s="8">
         <v>1.4305500946770151</v>
       </c>
-      <c r="Z124" s="1">
-        <f>Q124*4</f>
+      <c r="Y124" s="24">
+        <v>0.3718025362318842</v>
+      </c>
+      <c r="Z124" s="28">
+        <v>2.444744351083695</v>
+      </c>
+      <c r="AB124" s="1">
+        <f t="shared" si="7"/>
         <v>6.5194565217391318</v>
       </c>
-      <c r="AA124" s="10">
+      <c r="AC124" s="10">
         <v>1.3803798918332959</v>
       </c>
-      <c r="AB124">
+      <c r="AD124">
         <v>0.19694356187290871</v>
       </c>
-      <c r="AC124" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE124" s="12">
+        <f t="shared" si="5"/>
         <v>0.78777424749163483</v>
       </c>
-      <c r="AE124" s="9">
+      <c r="AF124" s="26">
+        <f t="shared" si="6"/>
+        <v>1.4872101449275368</v>
+      </c>
+      <c r="AH124" s="9">
         <v>667.38065235374768</v>
       </c>
     </row>
-    <row r="125" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -12006,10 +13255,10 @@
       <c r="L125" s="7">
         <v>0.11228638964864146</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="28">
         <v>1.7640551296569384</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="26">
         <v>1.2799999999999994</v>
       </c>
       <c r="O125">
@@ -12039,25 +13288,35 @@
       <c r="X125" s="8">
         <v>0.33319158328582682</v>
       </c>
-      <c r="Z125" s="1">
-        <f>Q125*4</f>
+      <c r="Y125" s="24">
+        <v>0.31961050724637602</v>
+      </c>
+      <c r="Z125" s="28">
+        <v>2.001180265871934</v>
+      </c>
+      <c r="AB125" s="1">
+        <f t="shared" si="7"/>
         <v>6.4748913043478282</v>
       </c>
-      <c r="AA125" s="10">
+      <c r="AC125" s="10">
         <v>1.545999639866029</v>
       </c>
-      <c r="AB125">
+      <c r="AD125">
         <v>0.16931563545150441</v>
       </c>
-      <c r="AC125" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE125" s="12">
+        <f t="shared" si="5"/>
         <v>0.67726254180601764</v>
       </c>
-      <c r="AE125" s="9">
+      <c r="AF125" s="26">
+        <f t="shared" si="6"/>
+        <v>1.2784420289855041</v>
+      </c>
+      <c r="AH125" s="9">
         <v>667.20405091247267</v>
       </c>
     </row>
-    <row r="126" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -12094,10 +13353,10 @@
       <c r="L126" s="7">
         <v>0.85346963282137978</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="28">
         <v>1.6332279225321766</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="26">
         <v>1.6033333333333326</v>
       </c>
       <c r="O126">
@@ -12127,25 +13386,35 @@
       <c r="X126" s="8">
         <v>-1.480700369418821</v>
       </c>
-      <c r="Z126" s="1">
-        <f>Q126*4</f>
+      <c r="Y126" s="24">
+        <v>0.39991666666666759</v>
+      </c>
+      <c r="Z126" s="28">
+        <v>1.755101477599899</v>
+      </c>
+      <c r="AB126" s="1">
+        <f t="shared" si="7"/>
         <v>5.596999999999996</v>
       </c>
-      <c r="AA126" s="10">
+      <c r="AC126" s="10">
         <v>0.87225297041713756</v>
       </c>
-      <c r="AB126">
+      <c r="AD126">
         <v>9.4826923076923642E-2</v>
       </c>
-      <c r="AC126" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE126" s="12">
+        <f t="shared" si="5"/>
         <v>0.37930769230769457</v>
       </c>
-      <c r="AE126" s="9">
+      <c r="AF126" s="26">
+        <f t="shared" si="6"/>
+        <v>1.5996666666666703</v>
+      </c>
+      <c r="AH126" s="9">
         <v>666.77538930101332</v>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -12182,10 +13451,10 @@
       <c r="L127" s="7">
         <v>1.6315194375980724</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="28">
         <v>2.9445169289330053</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="26">
         <v>2.8166666666666664</v>
       </c>
       <c r="O127">
@@ -12215,25 +13484,35 @@
       <c r="X127" s="8">
         <v>-2.6330917056696701</v>
       </c>
-      <c r="Z127" s="1">
-        <f>Q127*4</f>
+      <c r="Y127" s="24">
+        <v>0.70415750915750941</v>
+      </c>
+      <c r="Z127" s="28">
+        <v>3.227080850243587</v>
+      </c>
+      <c r="AB127" s="1">
+        <f t="shared" si="7"/>
         <v>4.3267032967032959</v>
       </c>
-      <c r="AA127" s="10">
+      <c r="AC127" s="10">
         <v>1.7511155545816119</v>
       </c>
-      <c r="AB127">
+      <c r="AD127">
         <v>0.22213186813186889</v>
       </c>
-      <c r="AC127" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE127" s="12">
+        <f t="shared" si="5"/>
         <v>0.88852747252747555</v>
       </c>
-      <c r="AE127" s="9">
+      <c r="AF127" s="26">
+        <f t="shared" si="6"/>
+        <v>2.8166300366300376</v>
+      </c>
+      <c r="AH127" s="9">
         <v>665.59244988450553</v>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -12270,10 +13549,10 @@
       <c r="L128" s="7">
         <v>1.5749225931866562</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="28">
         <v>2.6632760149606582</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="26">
         <v>3.563333333333333</v>
       </c>
       <c r="O128">
@@ -12303,25 +13582,35 @@
       <c r="X128" s="8">
         <v>-1.707219742491743</v>
       </c>
-      <c r="Z128" s="1">
-        <f>Q128*4</f>
+      <c r="Y128" s="24">
+        <v>0.88961956521739138</v>
+      </c>
+      <c r="Z128" s="28">
+        <v>2.9567406937785332</v>
+      </c>
+      <c r="AB128" s="1">
+        <f t="shared" si="7"/>
         <v>3.5015217391304341</v>
       </c>
-      <c r="AA128" s="10">
+      <c r="AC128" s="10">
         <v>0.84794459557039215</v>
       </c>
-      <c r="AB128">
+      <c r="AD128">
         <v>0.27608110367893018</v>
       </c>
-      <c r="AC128" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE128" s="12">
+        <f t="shared" si="5"/>
         <v>1.1043244147157207</v>
       </c>
-      <c r="AE128" s="9">
+      <c r="AF128" s="26">
+        <f t="shared" si="6"/>
+        <v>3.5584782608695655</v>
+      </c>
+      <c r="AH128" s="9">
         <v>664.6725385607084</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -12358,10 +13647,10 @@
       <c r="L129" s="7">
         <v>-0.79412001999541459</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="28">
         <v>1.83515211051688</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="26">
         <v>4.5733333333333341</v>
       </c>
       <c r="O129">
@@ -12391,25 +13680,35 @@
       <c r="X129" s="8">
         <v>-3.5299255029948511</v>
       </c>
-      <c r="Z129" s="1">
-        <f>Q129*4</f>
+      <c r="Y129" s="24">
+        <v>1.1440579710144929</v>
+      </c>
+      <c r="Z129" s="28">
+        <v>2.1064918906000751</v>
+      </c>
+      <c r="AB129" s="1">
+        <f t="shared" si="7"/>
         <v>2.1304347826086958</v>
       </c>
-      <c r="AA129" s="10">
+      <c r="AC129" s="10">
         <v>0.8724812270708433</v>
       </c>
-      <c r="AB129">
+      <c r="AD129">
         <v>0.39640645586297779</v>
       </c>
-      <c r="AC129" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE129" s="12">
+        <f t="shared" si="5"/>
         <v>1.5856258234519112</v>
       </c>
-      <c r="AE129" s="9">
+      <c r="AF129" s="26">
+        <f t="shared" si="6"/>
+        <v>4.5762318840579717</v>
+      </c>
+      <c r="AH129" s="9">
         <v>663.75541520619583</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -12446,10 +13745,10 @@
       <c r="L130" s="7">
         <v>1.819674599160237</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="28">
         <v>2.3154970397861518</v>
       </c>
-      <c r="N130">
+      <c r="N130" s="26">
         <v>5.120000000000001</v>
       </c>
       <c r="O130">
@@ -12479,25 +13778,35 @@
       <c r="X130" s="8">
         <v>-2.3896615880914802</v>
       </c>
-      <c r="Z130" s="1">
-        <f>Q130*4</f>
+      <c r="Y130" s="24">
+        <v>1.280111111111111</v>
+      </c>
+      <c r="Z130" s="28">
+        <v>2.5564552083619119</v>
+      </c>
+      <c r="AB130" s="1">
+        <f t="shared" ref="AB130:AB165" si="8">Q130*4</f>
         <v>1.7328888888888905</v>
       </c>
-      <c r="AA130" s="10">
+      <c r="AC130" s="10">
         <v>0.66913015419095867</v>
       </c>
-      <c r="AB130">
+      <c r="AD130">
         <v>0.52408246527777691</v>
       </c>
-      <c r="AC130" s="12">
-        <f t="shared" si="1"/>
+      <c r="AE130" s="12">
+        <f t="shared" si="5"/>
         <v>2.0963298611111076</v>
       </c>
-      <c r="AE130" s="9">
+      <c r="AF130" s="26">
+        <f t="shared" si="6"/>
+        <v>5.1204444444444439</v>
+      </c>
+      <c r="AH130" s="9">
         <v>663.43953704370813</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -12534,10 +13843,10 @@
       <c r="L131" s="7">
         <v>2.2482267912528719</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="28">
         <v>2.9349231385118024</v>
       </c>
-      <c r="N131">
+      <c r="N131" s="26">
         <v>5.0433333333333339</v>
       </c>
       <c r="O131">
@@ -12567,25 +13876,35 @@
       <c r="X131" s="8">
         <v>-1.8614990058835861</v>
       </c>
-      <c r="Z131" s="1">
-        <f>Q131*4</f>
+      <c r="Y131" s="24">
+        <v>1.260448717948718</v>
+      </c>
+      <c r="Z131" s="28">
+        <v>3.1938207220415449</v>
+      </c>
+      <c r="AB131" s="1">
+        <f t="shared" si="8"/>
         <v>1.7515384615384619</v>
       </c>
-      <c r="AA131" s="10">
+      <c r="AC131" s="10">
         <v>0.51677378220166459</v>
       </c>
-      <c r="AB131">
+      <c r="AD131">
         <v>0.54503846153846158</v>
       </c>
-      <c r="AC131" s="12">
-        <f t="shared" ref="AC131:AC165" si="2">AB131*4</f>
+      <c r="AE131" s="12">
+        <f t="shared" ref="AE131:AE165" si="9">AD131*4</f>
         <v>2.1801538461538463</v>
       </c>
-      <c r="AE131" s="9">
+      <c r="AF131" s="26">
+        <f t="shared" ref="AF131:AF165" si="10">Y131*4</f>
+        <v>5.0417948717948722</v>
+      </c>
+      <c r="AH131" s="9">
         <v>663.81665465207561</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -12622,10 +13941,10 @@
       <c r="L132" s="7">
         <v>0.22658202006402561</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="28">
         <v>3.1043349640211826</v>
       </c>
-      <c r="N132">
+      <c r="N132" s="26">
         <v>4.6533333333333333</v>
       </c>
       <c r="O132">
@@ -12655,25 +13974,35 @@
       <c r="X132" s="8">
         <v>-0.68478190132163452</v>
       </c>
-      <c r="Z132" s="1">
-        <f>Q132*4</f>
+      <c r="Y132" s="24">
+        <v>1.163115942028986</v>
+      </c>
+      <c r="Z132" s="28">
+        <v>3.3828469752830208</v>
+      </c>
+      <c r="AB132" s="1">
+        <f t="shared" si="8"/>
         <v>1.7408695652173911</v>
       </c>
-      <c r="AA132" s="10">
+      <c r="AC132" s="10">
         <v>0.34362061517674142</v>
       </c>
-      <c r="AB132">
+      <c r="AD132">
         <v>0.4096799571805006</v>
       </c>
-      <c r="AC132" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE132" s="12">
+        <f t="shared" si="9"/>
         <v>1.6387198287220024</v>
       </c>
-      <c r="AE132" s="9">
+      <c r="AF132" s="26">
+        <f t="shared" si="10"/>
+        <v>4.6524637681159442</v>
+      </c>
+      <c r="AH132" s="9">
         <v>663.6182219159499</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -12710,10 +14039,10 @@
       <c r="L133" s="7">
         <v>2.3114288644846326</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="28">
         <v>3.0463102486729898</v>
       </c>
-      <c r="N133">
+      <c r="N133" s="26">
         <v>4.6599999999999993</v>
       </c>
       <c r="O133">
@@ -12743,25 +14072,35 @@
       <c r="X133" s="8">
         <v>-1.5558567364923701</v>
       </c>
-      <c r="Z133" s="1">
-        <f>Q133*4</f>
+      <c r="Y133" s="24">
+        <v>1.164773550724638</v>
+      </c>
+      <c r="Z133" s="28">
+        <v>3.3358925385603442</v>
+      </c>
+      <c r="AB133" s="1">
+        <f t="shared" si="8"/>
         <v>1.4442391304347824</v>
       </c>
-      <c r="AA133" s="10">
+      <c r="AC133" s="10">
         <v>0.7475841114251659</v>
       </c>
-      <c r="AB133">
+      <c r="AD133">
         <v>0.44903226284585013</v>
       </c>
-      <c r="AC133" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE133" s="12">
+        <f t="shared" si="9"/>
         <v>1.7961290513834005</v>
       </c>
-      <c r="AE133" s="9">
+      <c r="AF133" s="26">
+        <f t="shared" si="10"/>
+        <v>4.6590942028985518</v>
+      </c>
+      <c r="AH133" s="9">
         <v>663.15581100204088</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -12798,10 +14137,10 @@
       <c r="L134" s="7">
         <v>1.7754406223648544</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="28">
         <v>1.9419756251408238</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="26">
         <v>4.6466666666666674</v>
       </c>
       <c r="O134">
@@ -12831,25 +14170,35 @@
       <c r="X134" s="8">
         <v>-0.50886070729895161</v>
       </c>
-      <c r="Z134" s="1">
-        <f>Q134*4</f>
+      <c r="Y134" s="24">
+        <v>1.1617500000000001</v>
+      </c>
+      <c r="Z134" s="28">
+        <v>2.885907604347838</v>
+      </c>
+      <c r="AB134" s="1">
+        <f t="shared" si="8"/>
         <v>1.2496666666666667</v>
       </c>
-      <c r="AA134" s="10">
+      <c r="AC134" s="10">
         <v>0.1180520178271541</v>
       </c>
-      <c r="AB134">
+      <c r="AD134">
         <v>0.33764895833333292</v>
       </c>
-      <c r="AC134" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE134" s="12">
+        <f t="shared" si="9"/>
         <v>1.3505958333333317</v>
       </c>
-      <c r="AE134" s="9">
+      <c r="AF134" s="26">
+        <f t="shared" si="10"/>
+        <v>4.6470000000000002</v>
+      </c>
+      <c r="AH134" s="9">
         <v>662.57398107018389</v>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -12886,10 +14235,10 @@
       <c r="L135" s="7">
         <v>1.6925417221399286</v>
       </c>
-      <c r="M135">
+      <c r="M135" s="28">
         <v>3.3094424435355485</v>
       </c>
-      <c r="N135">
+      <c r="N135" s="26">
         <v>4.3566666666666674</v>
       </c>
       <c r="O135">
@@ -12919,25 +14268,35 @@
       <c r="X135" s="8">
         <v>2.3498717984826891</v>
       </c>
-      <c r="Z135" s="1">
-        <f>Q135*4</f>
+      <c r="Y135" s="24">
+        <v>1.0891575091575101</v>
+      </c>
+      <c r="Z135" s="28">
+        <v>4.0921505085478591</v>
+      </c>
+      <c r="AB135" s="1">
+        <f t="shared" si="8"/>
         <v>1.246703296703296</v>
       </c>
-      <c r="AA135" s="10">
+      <c r="AC135" s="10">
         <v>0.33719071000142059</v>
       </c>
-      <c r="AB135">
+      <c r="AD135">
         <v>0.23582340659340689</v>
       </c>
-      <c r="AC135" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE135" s="12">
+        <f t="shared" si="9"/>
         <v>0.94329362637362757</v>
       </c>
-      <c r="AE135" s="9">
+      <c r="AF135" s="26">
+        <f t="shared" si="10"/>
+        <v>4.3566300366300403</v>
+      </c>
+      <c r="AH135" s="9">
         <v>662.43206661728595</v>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -12974,10 +14333,10 @@
       <c r="L136" s="7">
         <v>4.7405287824831888</v>
       </c>
-      <c r="M136">
+      <c r="M136" s="28">
         <v>2.9506704636059311</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="26">
         <v>4.6633333333333331</v>
       </c>
       <c r="O136">
@@ -13007,25 +14366,35 @@
       <c r="X136" s="8">
         <v>2.374155299929495</v>
       </c>
-      <c r="Z136" s="1">
-        <f>Q136*4</f>
+      <c r="Y136" s="24">
+        <v>1.165788043478261</v>
+      </c>
+      <c r="Z136" s="28">
+        <v>3.7001884808665499</v>
+      </c>
+      <c r="AB136" s="1">
+        <f t="shared" si="8"/>
         <v>1.0168478260869565</v>
       </c>
-      <c r="AA136" s="10">
+      <c r="AC136" s="10">
         <v>0.49868620957165932</v>
       </c>
-      <c r="AB136">
+      <c r="AD136">
         <v>0.29129599802371547</v>
       </c>
-      <c r="AC136" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE136" s="12">
+        <f t="shared" si="9"/>
         <v>1.1651839920948619</v>
       </c>
-      <c r="AE136" s="9">
+      <c r="AF136" s="26">
+        <f t="shared" si="10"/>
+        <v>4.6631521739130442</v>
+      </c>
+      <c r="AH136" s="9">
         <v>661.92346877313923</v>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -13062,10 +14431,10 @@
       <c r="L137" s="7">
         <v>3.6700362709452428</v>
       </c>
-      <c r="M137">
+      <c r="M137" s="28">
         <v>2.2308594697831197</v>
       </c>
-      <c r="N137">
+      <c r="N137" s="26">
         <v>4.8333333333333321</v>
       </c>
       <c r="O137">
@@ -13095,25 +14464,35 @@
       <c r="X137" s="8">
         <v>1.68882180285218</v>
       </c>
-      <c r="Z137" s="1">
-        <f>Q137*4</f>
+      <c r="Y137" s="24">
+        <v>1.2083152173913041</v>
+      </c>
+      <c r="Z137" s="28">
+        <v>3.0534182841492261</v>
+      </c>
+      <c r="AB137" s="1">
+        <f t="shared" si="8"/>
         <v>0.99673913043478202</v>
       </c>
-      <c r="AA137" s="10">
+      <c r="AC137" s="10">
         <v>8.5928499971333214E-2</v>
       </c>
-      <c r="AB137">
+      <c r="AD137">
         <v>0.26711142951251649</v>
       </c>
-      <c r="AC137" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE137" s="12">
+        <f t="shared" si="9"/>
         <v>1.0684457180500659</v>
       </c>
-      <c r="AE137" s="9">
+      <c r="AF137" s="26">
+        <f t="shared" si="10"/>
+        <v>4.8332608695652164</v>
+      </c>
+      <c r="AH137" s="9">
         <v>662.23045033730125</v>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -13150,10 +14529,10 @@
       <c r="L138" s="7">
         <v>2.3174941709282137</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="28">
         <v>2.7146470418878632</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="26">
         <v>4.6166666666666671</v>
       </c>
       <c r="O138">
@@ -13183,25 +14562,35 @@
       <c r="X138" s="8">
         <v>-0.49678903028951538</v>
       </c>
-      <c r="Z138" s="1">
-        <f>Q138*4</f>
+      <c r="Y138" s="24">
+        <v>1.1545329670329669</v>
+      </c>
+      <c r="Z138" s="28">
+        <v>2.4489464329404962</v>
+      </c>
+      <c r="AB138" s="1">
+        <f t="shared" si="8"/>
         <v>1.0018681318681315</v>
       </c>
-      <c r="AA138" s="10">
+      <c r="AC138" s="10">
         <v>1.931106330842203</v>
       </c>
-      <c r="AB138">
+      <c r="AD138">
         <v>0.22051450549450549</v>
       </c>
-      <c r="AC138" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE138" s="12">
+        <f t="shared" si="9"/>
         <v>0.88205802197802197</v>
       </c>
-      <c r="AE138" s="9">
+      <c r="AF138" s="26">
+        <f t="shared" si="10"/>
+        <v>4.6181318681318677</v>
+      </c>
+      <c r="AH138" s="9">
         <v>662.57063364346641</v>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -13238,10 +14627,10 @@
       <c r="L139" s="7">
         <v>4.671722554746438</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="28">
         <v>3.5861512454803623</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="26">
         <v>4.7133333333333329</v>
       </c>
       <c r="O139">
@@ -13271,25 +14660,35 @@
       <c r="X139" s="8">
         <v>3.360383720455939</v>
       </c>
-      <c r="Z139" s="1">
-        <f>Q139*4</f>
+      <c r="Y139" s="24">
+        <v>1.178003663003663</v>
+      </c>
+      <c r="Z139" s="28">
+        <v>3.781093413194859</v>
+      </c>
+      <c r="AB139" s="1">
+        <f t="shared" si="8"/>
         <v>1.0113186813186812</v>
       </c>
-      <c r="AA139" s="10">
+      <c r="AC139" s="10">
         <v>0.99806766741324882</v>
       </c>
-      <c r="AB139">
+      <c r="AD139">
         <v>0.38310456043956043</v>
       </c>
-      <c r="AC139" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE139" s="12">
+        <f t="shared" si="9"/>
         <v>1.5324182417582417</v>
       </c>
-      <c r="AE139" s="9">
+      <c r="AF139" s="26">
+        <f t="shared" si="10"/>
+        <v>4.712014652014652</v>
+      </c>
+      <c r="AH139" s="9">
         <v>662.11936058804883</v>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -13326,10 +14725,10 @@
       <c r="L140" s="7">
         <v>2.0229777168428775</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="28">
         <v>3.0397210533591235</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="26">
         <v>4.3933333333333335</v>
       </c>
       <c r="O140">
@@ -13359,25 +14758,35 @@
       <c r="X140" s="8">
         <v>3.2350476691545871</v>
       </c>
-      <c r="Z140" s="1">
-        <f>Q140*4</f>
+      <c r="Y140" s="24">
+        <v>1.098976449275362</v>
+      </c>
+      <c r="Z140" s="28">
+        <v>3.2474042385642421</v>
+      </c>
+      <c r="AB140" s="1">
+        <f t="shared" si="8"/>
         <v>1.4307608695652176</v>
       </c>
-      <c r="AA140" s="10">
+      <c r="AC140" s="10">
         <v>1.4695678740508891</v>
       </c>
-      <c r="AB140">
+      <c r="AD140">
         <v>0.33762758563899892</v>
       </c>
-      <c r="AC140" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE140" s="12">
+        <f t="shared" si="9"/>
         <v>1.3505103425559957</v>
       </c>
-      <c r="AE140" s="9">
+      <c r="AF140" s="26">
+        <f t="shared" si="10"/>
+        <v>4.3959057971014479</v>
+      </c>
+      <c r="AH140" s="9">
         <v>662.33389040960401</v>
       </c>
     </row>
-    <row r="141" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -13414,10 +14823,10 @@
       <c r="L141" s="7">
         <v>1.2107062284568926</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="28">
         <v>3.0177391774560469</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="26">
         <v>3.8200000000000003</v>
       </c>
       <c r="O141">
@@ -13447,25 +14856,35 @@
       <c r="X141" s="8">
         <v>2.7824711306222598</v>
       </c>
-      <c r="Z141" s="1">
-        <f>Q141*4</f>
+      <c r="Y141" s="24">
+        <v>0.95502717391304348</v>
+      </c>
+      <c r="Z141" s="28">
+        <v>3.3531651353221879</v>
+      </c>
+      <c r="AB141" s="1">
+        <f t="shared" si="8"/>
         <v>1.9498913043478263</v>
       </c>
-      <c r="AA141" s="10">
+      <c r="AC141" s="10">
         <v>1.6407925668061689</v>
       </c>
-      <c r="AB141">
+      <c r="AD141">
         <v>0.30629876482213458</v>
       </c>
-      <c r="AC141" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE141" s="12">
+        <f t="shared" si="9"/>
         <v>1.2251950592885383</v>
       </c>
-      <c r="AE141" s="9">
+      <c r="AF141" s="26">
+        <f t="shared" si="10"/>
+        <v>3.8201086956521739</v>
+      </c>
+      <c r="AH141" s="9">
         <v>662.34954656528339</v>
       </c>
     </row>
-    <row r="142" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -13502,10 +14921,10 @@
       <c r="L142" s="7">
         <v>1.874685057595471</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="28">
         <v>2.4725069603097172</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="26">
         <v>3.3199999999999994</v>
       </c>
       <c r="O142">
@@ -13535,25 +14954,35 @@
       <c r="X142" s="8">
         <v>2.0199580113818141</v>
       </c>
-      <c r="Z142" s="1">
-        <f>Q142*4</f>
+      <c r="Y142" s="24">
+        <v>0.83024999999999971</v>
+      </c>
+      <c r="Z142" s="28">
+        <v>2.710895663501939</v>
+      </c>
+      <c r="AB142" s="1">
+        <f t="shared" si="8"/>
         <v>2.4690000000000003</v>
       </c>
-      <c r="AA142" s="10">
+      <c r="AC142" s="10">
         <v>1.6215894450557189</v>
       </c>
-      <c r="AB142">
+      <c r="AD142">
         <v>0.33899335937499969</v>
       </c>
-      <c r="AC142" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE142" s="12">
+        <f t="shared" si="9"/>
         <v>1.3559734374999988</v>
       </c>
-      <c r="AE142" s="9">
+      <c r="AF142" s="26">
+        <f t="shared" si="10"/>
+        <v>3.3209999999999988</v>
+      </c>
+      <c r="AH142" s="9">
         <v>662.12287411687703</v>
       </c>
     </row>
-    <row r="143" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -13590,10 +15019,10 @@
       <c r="L143" s="7">
         <v>2.9988599144415318</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="28">
         <v>3.2096122007751138</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="26">
         <v>2.88</v>
       </c>
       <c r="O143">
@@ -13623,25 +15052,35 @@
       <c r="X143" s="8">
         <v>2.250009694252125</v>
       </c>
-      <c r="Z143" s="1">
-        <f>Q143*4</f>
+      <c r="Y143" s="24">
+        <v>0.72039377289377293</v>
+      </c>
+      <c r="Z143" s="28">
+        <v>3.4323866540899051</v>
+      </c>
+      <c r="AB143" s="1">
+        <f t="shared" si="8"/>
         <v>2.9417582417582415</v>
       </c>
-      <c r="AA143" s="10">
+      <c r="AC143" s="10">
         <v>2.0877946886884202</v>
       </c>
-      <c r="AB143">
+      <c r="AD143">
         <v>0.31272159340659361</v>
       </c>
-      <c r="AC143" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE143" s="12">
+        <f t="shared" si="9"/>
         <v>1.2508863736263744</v>
       </c>
-      <c r="AE143" s="9">
+      <c r="AF143" s="26">
+        <f t="shared" si="10"/>
+        <v>2.8815750915750917</v>
+      </c>
+      <c r="AH143" s="9">
         <v>662.83743826098396</v>
       </c>
     </row>
-    <row r="144" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -13678,10 +15117,10 @@
       <c r="L144" s="7">
         <v>2.2697269444193147</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="28">
         <v>3.1000107845359892</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="26">
         <v>2.3766666666666665</v>
       </c>
       <c r="O144">
@@ -13711,25 +15150,35 @@
       <c r="X144" s="8">
         <v>2.075839977178056</v>
       </c>
-      <c r="Z144" s="1">
-        <f>Q144*4</f>
+      <c r="Y144" s="24">
+        <v>0.5941666666666664</v>
+      </c>
+      <c r="Z144" s="28">
+        <v>3.3912149321944329</v>
+      </c>
+      <c r="AB144" s="1">
+        <f t="shared" si="8"/>
         <v>3.4600000000000004</v>
       </c>
-      <c r="AA144" s="10">
+      <c r="AC144" s="10">
         <v>1.7086516430089529</v>
       </c>
-      <c r="AB144">
+      <c r="AD144">
         <v>0.26217575757575762</v>
       </c>
-      <c r="AC144" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE144" s="12">
+        <f t="shared" si="9"/>
         <v>1.0487030303030305</v>
       </c>
-      <c r="AE144" s="9">
+      <c r="AF144" s="26">
+        <f t="shared" si="10"/>
+        <v>2.3766666666666656</v>
+      </c>
+      <c r="AH144" s="9">
         <v>662.90348127797893</v>
       </c>
     </row>
-    <row r="145" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -13766,10 +15215,10 @@
       <c r="L145" s="7">
         <v>0.72227167106699852</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="28">
         <v>2.6523699825499403</v>
       </c>
-      <c r="N145">
+      <c r="N145" s="26">
         <v>2.2300000000000009</v>
       </c>
       <c r="O145">
@@ -13799,25 +15248,35 @@
       <c r="X145" s="8">
         <v>1.7023545110862981</v>
       </c>
-      <c r="Z145" s="1">
-        <f>Q145*4</f>
+      <c r="Y145" s="24">
+        <v>0.557934782608696</v>
+      </c>
+      <c r="Z145" s="28">
+        <v>2.9419230063542412</v>
+      </c>
+      <c r="AB145" s="1">
+        <f t="shared" si="8"/>
         <v>3.9782608695652169</v>
       </c>
-      <c r="AA145" s="10">
+      <c r="AC145" s="10">
         <v>2.3090380151175118</v>
       </c>
-      <c r="AB145">
+      <c r="AD145">
         <v>0.2500978595317731</v>
       </c>
-      <c r="AC145" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE145" s="12">
+        <f t="shared" si="9"/>
         <v>1.0003914381270924</v>
       </c>
-      <c r="AE145" s="9">
+      <c r="AF145" s="26">
+        <f t="shared" si="10"/>
+        <v>2.231739130434784</v>
+      </c>
+      <c r="AH145" s="9">
         <v>662.98992477107447</v>
       </c>
     </row>
-    <row r="146" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -13854,10 +15313,10 @@
       <c r="L146" s="7">
         <v>-0.31162451395223556</v>
       </c>
-      <c r="M146">
+      <c r="M146" s="28">
         <v>3.0985399915697709</v>
       </c>
-      <c r="N146">
+      <c r="N146" s="26">
         <v>1.9366666666666665</v>
       </c>
       <c r="O146">
@@ -13887,25 +15346,35 @@
       <c r="X146" s="8">
         <v>4.9878458590078463</v>
       </c>
-      <c r="Z146" s="1">
-        <f>Q146*4</f>
+      <c r="Y146" s="24">
+        <v>0.48480555555555638</v>
+      </c>
+      <c r="Z146" s="28">
+        <v>3.2627104172169989</v>
+      </c>
+      <c r="AB146" s="1">
+        <f t="shared" si="8"/>
         <v>4.454111111111108</v>
       </c>
-      <c r="AA146" s="10">
+      <c r="AC146" s="10">
         <v>2.1953073212507581</v>
       </c>
-      <c r="AB146">
+      <c r="AD146">
         <v>0.20017222222222289</v>
       </c>
-      <c r="AC146" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE146" s="12">
+        <f t="shared" si="9"/>
         <v>0.80068888888889156</v>
       </c>
-      <c r="AE146" s="9">
+      <c r="AF146" s="26">
+        <f t="shared" si="10"/>
+        <v>1.9392222222222255</v>
+      </c>
+      <c r="AH146" s="9">
         <v>663.43384388984805</v>
       </c>
     </row>
-    <row r="147" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -13942,10 +15411,10 @@
       <c r="L147" s="7">
         <v>-4.79484926542737</v>
       </c>
-      <c r="M147">
+      <c r="M147" s="28">
         <v>3.0253875920775997</v>
       </c>
-      <c r="N147">
+      <c r="N147" s="26">
         <v>1.7433333333333323</v>
       </c>
       <c r="O147">
@@ -13975,25 +15444,35 @@
       <c r="X147" s="8">
         <v>2.5810069455389262</v>
       </c>
-      <c r="Z147" s="1">
-        <f>Q147*4</f>
+      <c r="Y147" s="24">
+        <v>0.43560439560439512</v>
+      </c>
+      <c r="Z147" s="28">
+        <v>3.259571975787372</v>
+      </c>
+      <c r="AB147" s="1">
+        <f t="shared" si="8"/>
         <v>4.9075824175824199</v>
       </c>
-      <c r="AA147" s="10">
+      <c r="AC147" s="10">
         <v>2.665859232749292</v>
       </c>
-      <c r="AB147">
+      <c r="AD147">
         <v>0.1952113186813185</v>
       </c>
-      <c r="AC147" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE147" s="12">
+        <f t="shared" si="9"/>
         <v>0.78084527472527399</v>
       </c>
-      <c r="AE147" s="9">
+      <c r="AF147" s="26">
+        <f t="shared" si="10"/>
+        <v>1.7424175824175805</v>
+      </c>
+      <c r="AH147" s="9">
         <v>663.49414542008526</v>
       </c>
     </row>
-    <row r="148" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -14030,10 +15509,10 @@
       <c r="L148" s="7">
         <v>-6.683673223469988</v>
       </c>
-      <c r="M148">
+      <c r="M148" s="28">
         <v>2.181042810675704</v>
       </c>
-      <c r="N148">
+      <c r="N148" s="26">
         <v>1.5199999999999996</v>
       </c>
       <c r="O148">
@@ -14063,25 +15542,35 @@
       <c r="X148" s="8">
         <v>1.815821925688877</v>
       </c>
-      <c r="Z148" s="1">
-        <f>Q148*4</f>
+      <c r="Y148" s="24">
+        <v>0.38033514492753612</v>
+      </c>
+      <c r="Z148" s="28">
+        <v>2.439052522305976</v>
+      </c>
+      <c r="AB148" s="1">
+        <f t="shared" si="8"/>
         <v>5.2453260869565241</v>
       </c>
-      <c r="AA148" s="10">
+      <c r="AC148" s="10">
         <v>1.666684884538667</v>
       </c>
-      <c r="AB148">
+      <c r="AD148">
         <v>0.12519693979933089</v>
       </c>
-      <c r="AC148" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE148" s="12">
+        <f t="shared" si="9"/>
         <v>0.50078775919732355</v>
       </c>
-      <c r="AE148" s="9">
+      <c r="AF148" s="26">
+        <f t="shared" si="10"/>
+        <v>1.5213405797101445</v>
+      </c>
+      <c r="AH148" s="9">
         <v>663.79774496217408</v>
       </c>
     </row>
-    <row r="149" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -14118,10 +15607,10 @@
       <c r="L149" s="7">
         <v>-5.3980568497365766</v>
       </c>
-      <c r="M149">
+      <c r="M149" s="28">
         <v>1.2615075875418214</v>
       </c>
-      <c r="N149">
+      <c r="N149" s="26">
         <v>1.2766666666666664</v>
       </c>
       <c r="O149">
@@ -14151,25 +15640,35 @@
       <c r="X149" s="8">
         <v>1.525055626186204</v>
       </c>
-      <c r="Z149" s="1">
-        <f>Q149*4</f>
+      <c r="Y149" s="24">
+        <v>0.32009963768115962</v>
+      </c>
+      <c r="Z149" s="28">
+        <v>1.5358243473634281</v>
+      </c>
+      <c r="AB149" s="1">
+        <f t="shared" si="8"/>
         <v>5.2429347826086961</v>
       </c>
-      <c r="AA149" s="10">
+      <c r="AC149" s="10">
         <v>3.0470653271800741</v>
       </c>
-      <c r="AB149">
+      <c r="AD149">
         <v>8.5522458193979967E-2</v>
       </c>
-      <c r="AC149" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE149" s="12">
+        <f t="shared" si="9"/>
         <v>0.34208983277591987</v>
       </c>
-      <c r="AE149" s="9">
+      <c r="AF149" s="26">
+        <f t="shared" si="10"/>
+        <v>1.2803985507246385</v>
+      </c>
+      <c r="AH149" s="9">
         <v>664.15901376568411</v>
       </c>
     </row>
-    <row r="150" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -14206,10 +15705,10 @@
       <c r="L150" s="7">
         <v>-5.4810176674864763</v>
       </c>
-      <c r="M150">
+      <c r="M150" s="28">
         <v>1.6543949634891586</v>
       </c>
-      <c r="N150">
+      <c r="N150" s="26">
         <v>1.1399999999999988</v>
       </c>
       <c r="O150">
@@ -14239,25 +15738,35 @@
       <c r="X150" s="8">
         <v>2.1436019303945391</v>
       </c>
-      <c r="Z150" s="1">
-        <f>Q150*4</f>
+      <c r="Y150" s="24">
+        <v>0.28552777777777721</v>
+      </c>
+      <c r="Z150" s="28">
+        <v>2.0279780834692618</v>
+      </c>
+      <c r="AB150" s="1">
+        <f t="shared" si="8"/>
         <v>5.2545555555555561</v>
       </c>
-      <c r="AA150" s="10">
+      <c r="AC150" s="10">
         <v>2.477673678341116</v>
       </c>
-      <c r="AB150">
+      <c r="AD150">
         <v>8.2194188034187876E-2</v>
       </c>
-      <c r="AC150" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE150" s="12">
+        <f t="shared" si="9"/>
         <v>0.3287767521367515</v>
       </c>
-      <c r="AE150" s="9">
+      <c r="AF150" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1421111111111089</v>
+      </c>
+      <c r="AH150" s="9">
         <v>663.88081737026448</v>
       </c>
     </row>
-    <row r="151" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -14294,10 +15803,10 @@
       <c r="L151" s="7">
         <v>-4.4696097006539759</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="28">
         <v>1.7020824458032102</v>
       </c>
-      <c r="N151">
+      <c r="N151" s="26">
         <v>1.1900000000000004</v>
       </c>
       <c r="O151">
@@ -14327,25 +15836,35 @@
       <c r="X151" s="8">
         <v>2.8274624996236311</v>
       </c>
-      <c r="Z151" s="1">
-        <f>Q151*4</f>
+      <c r="Y151" s="24">
+        <v>0.29689560439560392</v>
+      </c>
+      <c r="Z151" s="28">
+        <v>1.991855340355555</v>
+      </c>
+      <c r="AB151" s="1">
+        <f t="shared" si="8"/>
         <v>5.2524175824175838</v>
       </c>
-      <c r="AA151" s="10">
+      <c r="AC151" s="10">
         <v>3.3916914720969489</v>
       </c>
-      <c r="AB151">
+      <c r="AD151">
         <v>0.1050494505494504</v>
       </c>
-      <c r="AC151" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE151" s="12">
+        <f t="shared" si="9"/>
         <v>0.42019780219780162</v>
       </c>
-      <c r="AE151" s="9">
+      <c r="AF151" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1875824175824157</v>
+      </c>
+      <c r="AH151" s="9">
         <v>663.52229703840658</v>
       </c>
     </row>
-    <row r="152" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -14382,10 +15901,10 @@
       <c r="L152" s="7">
         <v>-7.5467619697202615</v>
       </c>
-      <c r="M152">
+      <c r="M152" s="28">
         <v>1.1829989259902085</v>
       </c>
-      <c r="N152">
+      <c r="N152" s="26">
         <v>1.6600000000000001</v>
       </c>
       <c r="O152">
@@ -14415,25 +15934,35 @@
       <c r="X152" s="8">
         <v>2.1792924803976899</v>
       </c>
-      <c r="Z152" s="1">
-        <f>Q152*4</f>
+      <c r="Y152" s="24">
+        <v>0.41474637681159437</v>
+      </c>
+      <c r="Z152" s="28">
+        <v>1.5179104506538861</v>
+      </c>
+      <c r="AB152" s="1">
+        <f t="shared" si="8"/>
         <v>5.0743478260869557</v>
       </c>
-      <c r="AA152" s="10">
+      <c r="AC152" s="10">
         <v>3.1114167716202892</v>
       </c>
-      <c r="AB152">
+      <c r="AD152">
         <v>8.1239197324414869E-2</v>
       </c>
-      <c r="AC152" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE152" s="12">
+        <f t="shared" si="9"/>
         <v>0.32495678929765948</v>
       </c>
-      <c r="AE152" s="9">
+      <c r="AF152" s="26">
+        <f t="shared" si="10"/>
+        <v>1.6589855072463775</v>
+      </c>
+      <c r="AH152" s="9">
         <v>663.08717746686875</v>
       </c>
     </row>
-    <row r="153" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -14470,10 +15999,10 @@
       <c r="L153" s="7">
         <v>-9.2875837546805506</v>
       </c>
-      <c r="M153">
+      <c r="M153" s="28">
         <v>0.75645868246754233</v>
       </c>
-      <c r="N153">
+      <c r="N153" s="26">
         <v>1.92</v>
       </c>
       <c r="O153">
@@ -14503,25 +16032,35 @@
       <c r="X153" s="8">
         <v>1.428894666855578</v>
       </c>
-      <c r="Z153" s="1">
-        <f>Q153*4</f>
+      <c r="Y153" s="24">
+        <v>0.48025362318840598</v>
+      </c>
+      <c r="Z153" s="28">
+        <v>1.1058564513059259</v>
+      </c>
+      <c r="AB153" s="1">
+        <f t="shared" si="8"/>
         <v>4.4956521739130437</v>
       </c>
-      <c r="AA153" s="10">
+      <c r="AC153" s="10">
         <v>2.8676779809485411</v>
       </c>
-      <c r="AB153">
+      <c r="AD153">
         <v>6.4998320158102807E-2</v>
       </c>
-      <c r="AC153" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE153" s="12">
+        <f t="shared" si="9"/>
         <v>0.25999328063241123</v>
       </c>
-      <c r="AE153" s="9">
+      <c r="AF153" s="26">
+        <f t="shared" si="10"/>
+        <v>1.9210144927536239</v>
+      </c>
+      <c r="AH153" s="9">
         <v>662.7599583549611</v>
       </c>
     </row>
-    <row r="154" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -14558,10 +16097,10 @@
       <c r="L154" s="7">
         <v>-9.3422251976597259</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="28">
         <v>0.68715096843630086</v>
       </c>
-      <c r="N154">
+      <c r="N154" s="26">
         <v>2.8433333333333342</v>
       </c>
       <c r="O154">
@@ -14591,25 +16130,35 @@
       <c r="X154" s="8">
         <v>0.27860950474192431</v>
       </c>
-      <c r="Z154" s="1">
-        <f>Q154*4</f>
+      <c r="Y154" s="24">
+        <v>0.70964285714285746</v>
+      </c>
+      <c r="Z154" s="28">
+        <v>0.67812254604084798</v>
+      </c>
+      <c r="AB154" s="1">
+        <f t="shared" si="8"/>
         <v>3.1814285714285706</v>
       </c>
-      <c r="AA154" s="10">
+      <c r="AC154" s="10">
         <v>1.9346700749075589</v>
       </c>
-      <c r="AB154">
+      <c r="AD154">
         <v>0.17208939560439571</v>
       </c>
-      <c r="AC154" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE154" s="12">
+        <f t="shared" si="9"/>
         <v>0.68835758241758283</v>
       </c>
-      <c r="AE154" s="9">
+      <c r="AF154" s="26">
+        <f t="shared" si="10"/>
+        <v>2.8385714285714299</v>
+      </c>
+      <c r="AH154" s="9">
         <v>662.70971908977799</v>
       </c>
     </row>
-    <row r="155" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -14646,10 +16195,10 @@
       <c r="L155" s="7">
         <v>-5.1334602849436806</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="28">
         <v>-0.43808061340482318</v>
       </c>
-      <c r="N155">
+      <c r="N155" s="26">
         <v>4.0366666666666653</v>
       </c>
       <c r="O155">
@@ -14679,25 +16228,35 @@
       <c r="X155" s="8">
         <v>-1.7760412088242281E-2</v>
       </c>
-      <c r="Z155" s="1">
-        <f>Q155*4</f>
+      <c r="Y155" s="24">
+        <v>1.009652014652014</v>
+      </c>
+      <c r="Z155" s="28">
+        <v>-5.7026328385437197E-2</v>
+      </c>
+      <c r="AB155" s="1">
+        <f t="shared" si="8"/>
         <v>2.0847252747252747</v>
       </c>
-      <c r="AA155" s="10">
+      <c r="AC155" s="10">
         <v>2.059517078583557</v>
       </c>
-      <c r="AB155">
+      <c r="AD155">
         <v>0.52288291208791204</v>
       </c>
-      <c r="AC155" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE155" s="12">
+        <f t="shared" si="9"/>
         <v>2.0915316483516482</v>
       </c>
-      <c r="AE155" s="9">
+      <c r="AF155" s="26">
+        <f t="shared" si="10"/>
+        <v>4.0386080586080562</v>
+      </c>
+      <c r="AH155" s="9">
         <v>662.12872177773409</v>
       </c>
     </row>
-    <row r="156" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -14734,10 +16293,10 @@
       <c r="L156" s="7">
         <v>-7.3481624305674842</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="28">
         <v>-0.86047156333184383</v>
       </c>
-      <c r="N156">
+      <c r="N156" s="26">
         <v>4.4499999999999993</v>
       </c>
       <c r="O156">
@@ -14767,25 +16326,35 @@
       <c r="X156" s="8">
         <v>-1.377111989212884</v>
       </c>
-      <c r="Z156" s="1">
-        <f>Q156*4</f>
+      <c r="Y156" s="24">
+        <v>1.1123369565217389</v>
+      </c>
+      <c r="Z156" s="28">
+        <v>-0.45804816958213918</v>
+      </c>
+      <c r="AB156" s="1">
+        <f t="shared" si="8"/>
         <v>1.9406521739130431</v>
       </c>
-      <c r="AA156" s="10">
+      <c r="AC156" s="10">
         <v>1.2327679414084201</v>
       </c>
-      <c r="AB156">
+      <c r="AD156">
         <v>0.66340097167325429</v>
       </c>
-      <c r="AC156" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE156" s="12">
+        <f t="shared" si="9"/>
         <v>2.6536038866930172</v>
       </c>
-      <c r="AE156" s="9">
+      <c r="AF156" s="26">
+        <f t="shared" si="10"/>
+        <v>4.4493478260869557</v>
+      </c>
+      <c r="AH156" s="9">
         <v>661.0377565814731</v>
       </c>
     </row>
-    <row r="157" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -14822,10 +16391,10 @@
       <c r="L157" s="7">
         <v>-11.81753628719262</v>
       </c>
-      <c r="M157">
+      <c r="M157" s="28">
         <v>-1.112829824611028</v>
       </c>
-      <c r="N157">
+      <c r="N157" s="26">
         <v>5.5133333333333328</v>
       </c>
       <c r="O157">
@@ -14855,25 +16424,35 @@
       <c r="X157" s="8">
         <v>-5.2371212813529189</v>
       </c>
-      <c r="Z157" s="1">
-        <f>Q157*4</f>
+      <c r="Y157" s="24">
+        <v>1.3786684782608689</v>
+      </c>
+      <c r="Z157" s="28">
+        <v>-0.62205037586104217</v>
+      </c>
+      <c r="AB157" s="1">
+        <f t="shared" si="8"/>
         <v>0.50532608695652204</v>
       </c>
-      <c r="AA157" s="10">
+      <c r="AC157" s="10">
         <v>0.2268860126253657</v>
       </c>
-      <c r="AB157">
+      <c r="AD157">
         <v>1.158855220685111</v>
       </c>
-      <c r="AC157" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE157" s="12">
+        <f t="shared" si="9"/>
         <v>4.6354208827404442</v>
       </c>
-      <c r="AE157" s="9">
+      <c r="AF157" s="26">
+        <f t="shared" si="10"/>
+        <v>5.5146739130434757</v>
+      </c>
+      <c r="AH157" s="9">
         <v>659.3694927864982</v>
       </c>
     </row>
-    <row r="158" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -14910,10 +16489,10 @@
       <c r="L158" s="7">
         <v>-12.069750535544443</v>
       </c>
-      <c r="M158">
+      <c r="M158" s="28">
         <v>-9.594678433182402E-2</v>
       </c>
-      <c r="N158">
+      <c r="N158" s="26">
         <v>4.97</v>
       </c>
       <c r="O158">
@@ -14943,25 +16522,35 @@
       <c r="X158" s="8">
         <v>-9.9900368427858677</v>
       </c>
-      <c r="Z158" s="1">
-        <f>Q158*4</f>
+      <c r="Y158" s="24">
+        <v>1.2422222222222219</v>
+      </c>
+      <c r="Z158" s="28">
+        <v>3.5925102741954471E-2</v>
+      </c>
+      <c r="AB158" s="1">
+        <f t="shared" si="8"/>
         <v>0.18444444444444447</v>
       </c>
-      <c r="AA158" s="10">
+      <c r="AC158" s="10">
         <v>-0.73478103091618119</v>
       </c>
-      <c r="AB158">
+      <c r="AD158">
         <v>1.131352170138888</v>
       </c>
-      <c r="AC158" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE158" s="12">
+        <f t="shared" si="9"/>
         <v>4.525408680555552</v>
       </c>
-      <c r="AE158" s="9">
+      <c r="AF158" s="26">
+        <f t="shared" si="10"/>
+        <v>4.9688888888888876</v>
+      </c>
+      <c r="AH158" s="9">
         <v>656.88687425606463</v>
       </c>
     </row>
-    <row r="159" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -14998,10 +16587,10 @@
       <c r="L159" s="7">
         <v>-7.6018037796021787</v>
       </c>
-      <c r="M159">
+      <c r="M159" s="28">
         <v>-0.70094144960846094</v>
       </c>
-      <c r="N159">
+      <c r="N159" s="26">
         <v>4.8433333333333337</v>
       </c>
       <c r="O159">
@@ -15031,25 +16620,35 @@
       <c r="X159" s="8">
         <v>-5.6582926303923688</v>
       </c>
-      <c r="Z159" s="1">
-        <f>Q159*4</f>
+      <c r="Y159" s="24">
+        <v>1.211327838827839</v>
+      </c>
+      <c r="Z159" s="28">
+        <v>-0.36327544911788678</v>
+      </c>
+      <c r="AB159" s="1">
+        <f t="shared" si="8"/>
         <v>0.17802197802197803</v>
       </c>
-      <c r="AA159" s="10">
+      <c r="AC159" s="10">
         <v>-0.71111575816333217</v>
       </c>
-      <c r="AB159">
+      <c r="AD159">
         <v>0.96473450549450568</v>
       </c>
-      <c r="AC159" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE159" s="12">
+        <f t="shared" si="9"/>
         <v>3.8589380219780227</v>
       </c>
-      <c r="AE159" s="9">
+      <c r="AF159" s="26">
+        <f t="shared" si="10"/>
+        <v>4.845311355311356</v>
+      </c>
+      <c r="AH159" s="9">
         <v>655.32104467666159</v>
       </c>
     </row>
-    <row r="160" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -15086,10 +16685,10 @@
       <c r="L160" s="7">
         <v>2.976540536429173</v>
       </c>
-      <c r="M160">
+      <c r="M160" s="28">
         <v>-1.0589785722407541</v>
       </c>
-      <c r="N160">
+      <c r="N160" s="26">
         <v>5.15</v>
       </c>
       <c r="O160">
@@ -15119,25 +16718,35 @@
       <c r="X160" s="8">
         <v>-2.062699243744115</v>
       </c>
-      <c r="Z160" s="1">
-        <f>Q160*4</f>
+      <c r="Y160" s="24">
+        <v>1.2880797101449279</v>
+      </c>
+      <c r="Z160" s="28">
+        <v>-0.63454637242774226</v>
+      </c>
+      <c r="AB160" s="1">
+        <f t="shared" si="8"/>
         <v>0.15434782608695663</v>
       </c>
-      <c r="AA160" s="10">
+      <c r="AC160" s="10">
         <v>-1.455968144613514</v>
       </c>
-      <c r="AB160">
+      <c r="AD160">
         <v>0.69822971014492741</v>
       </c>
-      <c r="AC160" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE160" s="12">
+        <f t="shared" si="9"/>
         <v>2.7929188405797096</v>
       </c>
-      <c r="AE160" s="9">
+      <c r="AF160" s="26">
+        <f t="shared" si="10"/>
+        <v>5.1523188405797118</v>
+      </c>
+      <c r="AH160" s="9">
         <v>654.17151582750193</v>
       </c>
     </row>
-    <row r="161" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -15174,10 +16783,10 @@
       <c r="L161" s="7">
         <v>-0.73001251076698637</v>
       </c>
-      <c r="M161">
+      <c r="M161" s="28">
         <v>-0.78306887379691048</v>
       </c>
-      <c r="N161">
+      <c r="N161" s="26">
         <v>4.9499999999999993</v>
       </c>
       <c r="O161">
@@ -15207,25 +16816,35 @@
       <c r="X161" s="8">
         <v>-1.460435175943668</v>
       </c>
-      <c r="Z161" s="1">
-        <f>Q161*4</f>
+      <c r="Y161" s="24">
+        <v>1.237907608695652</v>
+      </c>
+      <c r="Z161" s="28">
+        <v>-0.44344901452405072</v>
+      </c>
+      <c r="AB161" s="1">
+        <f t="shared" si="8"/>
         <v>0.1183695652173912</v>
       </c>
-      <c r="AA161" s="10">
+      <c r="AC161" s="10">
         <v>-2.0134523217355662</v>
       </c>
-      <c r="AB161">
+      <c r="AD161">
         <v>0.53907010869565219</v>
       </c>
-      <c r="AC161" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE161" s="12">
+        <f t="shared" si="9"/>
         <v>2.1562804347826088</v>
       </c>
-      <c r="AE161" s="9">
+      <c r="AF161" s="26">
+        <f t="shared" si="10"/>
+        <v>4.9516304347826079</v>
+      </c>
+      <c r="AH161" s="9">
         <v>653.64994012391082</v>
       </c>
     </row>
-    <row r="162" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -15262,10 +16881,10 @@
       <c r="L162" s="7">
         <v>-4.5022077528869886</v>
       </c>
-      <c r="M162">
+      <c r="M162" s="28">
         <v>-1.3888040485629638</v>
       </c>
-      <c r="N162">
+      <c r="N162" s="26">
         <v>4.956666666666667</v>
       </c>
       <c r="O162">
@@ -15295,25 +16914,35 @@
       <c r="X162" s="8">
         <v>1.036673664017151</v>
       </c>
-      <c r="Z162" s="1">
-        <f>Q162*4</f>
+      <c r="Y162" s="24">
+        <v>1.2390277777777781</v>
+      </c>
+      <c r="Z162" s="28">
+        <v>-1.200126422578303</v>
+      </c>
+      <c r="AB162" s="1">
+        <f t="shared" si="8"/>
         <v>0.13388888888888889</v>
       </c>
-      <c r="AA162" s="10">
+      <c r="AC162" s="10">
         <v>-0.30659559891038513</v>
       </c>
-      <c r="AB162">
+      <c r="AD162">
         <v>0.44115551215277771</v>
       </c>
-      <c r="AC162" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE162" s="12">
+        <f t="shared" si="9"/>
         <v>1.7646220486111108</v>
       </c>
-      <c r="AE162" s="9">
+      <c r="AF162" s="26">
+        <f t="shared" si="10"/>
+        <v>4.9561111111111122</v>
+      </c>
+      <c r="AH162" s="9">
         <v>653.92401712009644</v>
       </c>
     </row>
-    <row r="163" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -15350,10 +16979,10 @@
       <c r="L163" s="7">
         <v>3.7756587497810301</v>
       </c>
-      <c r="M163">
+      <c r="M163" s="28">
         <v>-0.84083236265120043</v>
       </c>
-      <c r="N163">
+      <c r="N163" s="26">
         <v>4.8866666666666658</v>
       </c>
       <c r="O163">
@@ -15383,25 +17012,35 @@
       <c r="X163" s="8">
         <v>4.3333435919426817</v>
       </c>
-      <c r="Z163" s="1">
-        <f>Q163*4</f>
+      <c r="Y163" s="24">
+        <v>1.2220054945054939</v>
+      </c>
+      <c r="Z163" s="28">
+        <v>-0.51166006520803908</v>
+      </c>
+      <c r="AB163" s="1">
+        <f t="shared" si="8"/>
         <v>0.19197802197802188</v>
       </c>
-      <c r="AA163" s="10">
+      <c r="AC163" s="10">
         <v>-0.87205296385112829</v>
       </c>
-      <c r="AB163">
+      <c r="AD163">
         <v>0.39462010989010993</v>
       </c>
-      <c r="AC163" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE163" s="12">
+        <f t="shared" si="9"/>
         <v>1.5784804395604397</v>
       </c>
-      <c r="AE163" s="9">
+      <c r="AF163" s="26">
+        <f t="shared" si="10"/>
+        <v>4.8880219780219756</v>
+      </c>
+      <c r="AH163" s="9">
         <v>654.80837238203128</v>
       </c>
     </row>
-    <row r="164" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -15438,10 +17077,10 @@
       <c r="L164" s="7">
         <v>-8.5625802480597812</v>
       </c>
-      <c r="M164">
+      <c r="M164" s="28">
         <v>-0.99486446149130714</v>
       </c>
-      <c r="N164">
+      <c r="N164" s="26">
         <v>4.5733333333333341</v>
       </c>
       <c r="O164">
@@ -15471,25 +17110,35 @@
       <c r="X164" s="8">
         <v>2.8209201537490989</v>
       </c>
-      <c r="Z164" s="1">
-        <f>Q164*4</f>
+      <c r="Y164" s="24">
+        <v>1.1427989130434779</v>
+      </c>
+      <c r="Z164" s="28">
+        <v>-0.69334097846228704</v>
+      </c>
+      <c r="AB164" s="1">
+        <f t="shared" si="8"/>
         <v>0.18880434782608693</v>
       </c>
-      <c r="AA164" s="10">
+      <c r="AC164" s="10">
         <v>0.50354313859716748</v>
       </c>
-      <c r="AB164">
+      <c r="AD164">
         <v>0.39885535243741782</v>
       </c>
-      <c r="AC164" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE164" s="12">
+        <f t="shared" si="9"/>
         <v>1.5954214097496713</v>
       </c>
-      <c r="AE164" s="9">
+      <c r="AF164" s="26">
+        <f t="shared" si="10"/>
+        <v>4.5711956521739117</v>
+      </c>
+      <c r="AH164" s="9">
         <v>655.12062351885027</v>
       </c>
     </row>
-    <row r="165" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -15526,10 +17175,10 @@
       <c r="L165" s="7">
         <v>0.52196430979947195</v>
       </c>
-      <c r="M165">
+      <c r="M165" s="28">
         <v>-0.81729423773282406</v>
       </c>
-      <c r="N165">
+      <c r="N165" s="26">
         <v>4.3666666666666671</v>
       </c>
       <c r="O165">
@@ -15559,21 +17208,31 @@
       <c r="X165" s="8">
         <v>2.1925190516804882</v>
       </c>
-      <c r="Z165" s="1">
-        <f>Q165*4</f>
+      <c r="Y165" s="24">
+        <v>1.090942028985507</v>
+      </c>
+      <c r="Z165" s="28">
+        <v>-0.53121620859304819</v>
+      </c>
+      <c r="AB165" s="1">
+        <f t="shared" si="8"/>
         <v>0.18956521739130433</v>
       </c>
-      <c r="AA165" s="10">
+      <c r="AC165" s="10">
         <v>-0.69947961660090985</v>
       </c>
-      <c r="AB165">
+      <c r="AD165">
         <v>0.39622763504611319</v>
       </c>
-      <c r="AC165" s="12">
-        <f t="shared" si="2"/>
+      <c r="AE165" s="12">
+        <f t="shared" si="9"/>
         <v>1.5849105401844528</v>
       </c>
-      <c r="AE165" s="9">
+      <c r="AF165" s="26">
+        <f t="shared" si="10"/>
+        <v>4.3637681159420278</v>
+      </c>
+      <c r="AH165" s="9">
         <v>654.75437509015319</v>
       </c>
     </row>
